--- a/booking_codes.xlsx
+++ b/booking_codes.xlsx
@@ -397,9 +397,9 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:B3"/>
+  <dimension ref="A1:B2"/>
   <sheetViews>
-    <sheetView workbookViewId="0" rightToLeft="0"/>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetData>
     <row r="1">
@@ -412,23 +412,15 @@
     </row>
     <row r="2">
       <c r="A2" t="str">
-        <v>M93WX</v>
+        <v>LCJFM</v>
       </c>
       <c r="B2" t="str">
-        <v>30/1/2025, 10:50:28</v>
-      </c>
-    </row>
-    <row r="3">
-      <c r="A3" t="str">
-        <v>M93XG</v>
-      </c>
-      <c r="B3" t="str">
-        <v>30/1/2025, 10:51:40</v>
+        <v>30/1/2025, 13:01:42</v>
       </c>
     </row>
   </sheetData>
   <ignoredErrors>
-    <ignoredError numberStoredAsText="1" sqref="A1:B3"/>
+    <ignoredError numberStoredAsText="1" sqref="A1:B2"/>
   </ignoredErrors>
 </worksheet>
 </file>
--- a/booking_codes.xlsx
+++ b/booking_codes.xlsx
@@ -1,41 +1,362 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28324"/>
   <workbookPr codeName="ThisWorkbook"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\playwright-project\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A77D586F-62F0-457A-AA94-4F354F6366AF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <bookViews>
+    <workbookView xWindow="4340" yWindow="2790" windowWidth="16920" windowHeight="10450" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+  </bookViews>
   <sheets>
     <sheet name="Booking Codes" sheetId="1" r:id="rId1"/>
   </sheets>
+  <calcPr calcId="0"/>
 </workbook>
 </file>
 
-<file path=xl/metadata.xml><?xml version="1.0" encoding="utf-8"?>
-<metadata xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:xlrd="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata" xmlns:xda="http://schemas.microsoft.com/office/spreadsheetml/2017/dynamicarray">
-  <metadataTypes count="1">
-    <metadataType name="XLDAPR" minSupportedVersion="120000" copy="1" pasteAll="1" pasteValues="1" merge="1" splitFirst="1" rowColShift="1" clearFormats="1" clearComments="1" assign="1" coerce="1" cellMeta="1"/>
-  </metadataTypes>
-  <futureMetadata name="XLDAPR" count="1">
-    <bk>
-      <extLst>
-        <ext uri="{bdbb8cdc-fa1e-496e-a857-3c3f30c029c3}">
-          <xda:dynamicArrayProperties fDynamic="1" fCollapsed="0"/>
-        </ext>
-      </extLst>
-    </bk>
-  </futureMetadata>
-  <cellMetadata count="1">
-    <bk>
-      <rc t="1" v="0"/>
-    </bk>
-  </cellMetadata>
-</metadata>
+<file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="112" uniqueCount="110">
+  <si>
+    <t>Booking Code</t>
+  </si>
+  <si>
+    <t>Date</t>
+  </si>
+  <si>
+    <t>M9WLC</t>
+  </si>
+  <si>
+    <t>3/2/2025, 8:37:57</t>
+  </si>
+  <si>
+    <t>M9WLN</t>
+  </si>
+  <si>
+    <t>3/2/2025, 8:40:11</t>
+  </si>
+  <si>
+    <t>M9WM3</t>
+  </si>
+  <si>
+    <t>3/2/2025, 8:43:18</t>
+  </si>
+  <si>
+    <t>M9WM6</t>
+  </si>
+  <si>
+    <t>3/2/2025, 8:43:38</t>
+  </si>
+  <si>
+    <t>M9WM9</t>
+  </si>
+  <si>
+    <t>3/2/2025, 8:43:40</t>
+  </si>
+  <si>
+    <t>M9WMB</t>
+  </si>
+  <si>
+    <t>3/2/2025, 8:44:01</t>
+  </si>
+  <si>
+    <t>M9WMQ</t>
+  </si>
+  <si>
+    <t>3/2/2025, 8:44:25</t>
+  </si>
+  <si>
+    <t>M9WMT</t>
+  </si>
+  <si>
+    <t>3/2/2025, 8:45:18</t>
+  </si>
+  <si>
+    <t>M9WMX</t>
+  </si>
+  <si>
+    <t>3/2/2025, 8:45:23</t>
+  </si>
+  <si>
+    <t>M9WMZ</t>
+  </si>
+  <si>
+    <t>3/2/2025, 8:45:35</t>
+  </si>
+  <si>
+    <t>M9WN5</t>
+  </si>
+  <si>
+    <t>3/2/2025, 8:46:18</t>
+  </si>
+  <si>
+    <t>M9WN6</t>
+  </si>
+  <si>
+    <t>3/2/2025, 8:46:25</t>
+  </si>
+  <si>
+    <t>M9WNB</t>
+  </si>
+  <si>
+    <t>3/2/2025, 8:47:10</t>
+  </si>
+  <si>
+    <t>M9WNG</t>
+  </si>
+  <si>
+    <t>3/2/2025, 8:47:37</t>
+  </si>
+  <si>
+    <t>M9WNQ</t>
+  </si>
+  <si>
+    <t>3/2/2025, 8:48:53</t>
+  </si>
+  <si>
+    <t>M9WNV</t>
+  </si>
+  <si>
+    <t>3/2/2025, 8:49:45</t>
+  </si>
+  <si>
+    <t>M9WNX</t>
+  </si>
+  <si>
+    <t>3/2/2025, 8:49:53</t>
+  </si>
+  <si>
+    <t>M9WNZ</t>
+  </si>
+  <si>
+    <t>3/2/2025, 8:49:59</t>
+  </si>
+  <si>
+    <t>M9WPF</t>
+  </si>
+  <si>
+    <t>3/2/2025, 8:50:45</t>
+  </si>
+  <si>
+    <t>M9WPH</t>
+  </si>
+  <si>
+    <t>3/2/2025, 8:50:51</t>
+  </si>
+  <si>
+    <t>M9WPN</t>
+  </si>
+  <si>
+    <t>3/2/2025, 8:51:03</t>
+  </si>
+  <si>
+    <t>M9WPZ</t>
+  </si>
+  <si>
+    <t>3/2/2025, 8:51:54</t>
+  </si>
+  <si>
+    <t>M9WQL</t>
+  </si>
+  <si>
+    <t>3/2/2025, 8:52:24</t>
+  </si>
+  <si>
+    <t>M9WQR</t>
+  </si>
+  <si>
+    <t>3/2/2025, 8:53:01</t>
+  </si>
+  <si>
+    <t>M9WQN</t>
+  </si>
+  <si>
+    <t>3/2/2025, 8:53:13</t>
+  </si>
+  <si>
+    <t>M9WQX</t>
+  </si>
+  <si>
+    <t>3/2/2025, 8:53:43</t>
+  </si>
+  <si>
+    <t>M9WQW</t>
+  </si>
+  <si>
+    <t>3/2/2025, 8:53:45</t>
+  </si>
+  <si>
+    <t>M9WR2</t>
+  </si>
+  <si>
+    <t>3/2/2025, 8:54:10</t>
+  </si>
+  <si>
+    <t>M9WR9</t>
+  </si>
+  <si>
+    <t>3/2/2025, 8:54:47</t>
+  </si>
+  <si>
+    <t>M9WRB</t>
+  </si>
+  <si>
+    <t>3/2/2025, 8:54:59</t>
+  </si>
+  <si>
+    <t>M9WRF</t>
+  </si>
+  <si>
+    <t>3/2/2025, 8:55:14</t>
+  </si>
+  <si>
+    <t>M9WRG</t>
+  </si>
+  <si>
+    <t>3/2/2025, 8:55:50</t>
+  </si>
+  <si>
+    <t>M9WRL</t>
+  </si>
+  <si>
+    <t>3/2/2025, 8:55:51</t>
+  </si>
+  <si>
+    <t>M9WRS</t>
+  </si>
+  <si>
+    <t>3/2/2025, 8:56:11</t>
+  </si>
+  <si>
+    <t>M9WRM</t>
+  </si>
+  <si>
+    <t>3/2/2025, 8:56:19</t>
+  </si>
+  <si>
+    <t>M9WS6</t>
+  </si>
+  <si>
+    <t>3/2/2025, 8:56:33</t>
+  </si>
+  <si>
+    <t>M9WS7</t>
+  </si>
+  <si>
+    <t>3/2/2025, 8:56:48</t>
+  </si>
+  <si>
+    <t>M9WSC</t>
+  </si>
+  <si>
+    <t>3/2/2025, 8:56:52</t>
+  </si>
+  <si>
+    <t>M9WSK</t>
+  </si>
+  <si>
+    <t>3/2/2025, 8:57:25</t>
+  </si>
+  <si>
+    <t>M9WSM</t>
+  </si>
+  <si>
+    <t>3/2/2025, 8:57:36</t>
+  </si>
+  <si>
+    <t>M9WSN</t>
+  </si>
+  <si>
+    <t>3/2/2025, 8:57:57</t>
+  </si>
+  <si>
+    <t>M9WST</t>
+  </si>
+  <si>
+    <t>3/2/2025, 8:58:16</t>
+  </si>
+  <si>
+    <t>M9WSV</t>
+  </si>
+  <si>
+    <t>M9WT3</t>
+  </si>
+  <si>
+    <t>3/2/2025, 8:59:23</t>
+  </si>
+  <si>
+    <t>M9WT5</t>
+  </si>
+  <si>
+    <t>M9WT6</t>
+  </si>
+  <si>
+    <t>3/2/2025, 9:00:10</t>
+  </si>
+  <si>
+    <t>M9WT8</t>
+  </si>
+  <si>
+    <t>3/2/2025, 9:00:26</t>
+  </si>
+  <si>
+    <t>M9WTM</t>
+  </si>
+  <si>
+    <t>3/2/2025, 9:01:12</t>
+  </si>
+  <si>
+    <t>M9WTV</t>
+  </si>
+  <si>
+    <t>3/2/2025, 9:02:05</t>
+  </si>
+  <si>
+    <t>M9WVK</t>
+  </si>
+  <si>
+    <t>3/2/2025, 9:02:28</t>
+  </si>
+  <si>
+    <t>M9WXS</t>
+  </si>
+  <si>
+    <t>3/2/2025, 9:04:30</t>
+  </si>
+  <si>
+    <t>M9XV2</t>
+  </si>
+  <si>
+    <t>3/2/2025, 9:29:48</t>
+  </si>
+  <si>
+    <t>H90C3</t>
+  </si>
+  <si>
+    <t>3/2/2025, 12:13:20</t>
+  </si>
+  <si>
+    <t>H90CD</t>
+  </si>
+  <si>
+    <t>3/2/2025, 12:14:24</t>
+  </si>
+  <si>
+    <t>H90M9</t>
+  </si>
+  <si>
+    <t>3/2/2025, 12:37:26</t>
+  </si>
+</sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:vt="http://schemas.openxmlformats.org/officeDocument/2006/docPropsVTypes">
-  <numFmts count="1">
-    <numFmt numFmtId="56" formatCode="&quot;上午/下午 &quot;hh&quot;時&quot;mm&quot;分&quot;ss&quot;秒 &quot;"/>
-  </numFmts>
-  <fonts count="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <fonts count="1" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -65,13 +386,21 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
   <cellXfs count="1">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleMedium4"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
@@ -396,31 +725,467 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:B2"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="A1:B56"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="E8" sqref="E8"/>
+    </sheetView>
   </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <sheetData>
-    <row r="1">
-      <c r="A1" t="str">
-        <v>Booking Code</v>
-      </c>
-      <c r="B1" t="str">
-        <v>Date</v>
-      </c>
-    </row>
-    <row r="2">
-      <c r="A2" t="str">
-        <v>LCJFM</v>
-      </c>
-      <c r="B2" t="str">
-        <v>30/1/2025, 13:01:42</v>
+    <row r="1" spans="1:2" ht="15.5" x14ac:dyDescent="0.35">
+      <c r="A1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2" ht="15.5" x14ac:dyDescent="0.35">
+      <c r="A2" t="s">
+        <v>2</v>
+      </c>
+      <c r="B2" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2" ht="15.5" x14ac:dyDescent="0.35">
+      <c r="A3" t="s">
+        <v>4</v>
+      </c>
+      <c r="B3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2" ht="15.5" x14ac:dyDescent="0.35">
+      <c r="A4" t="s">
+        <v>6</v>
+      </c>
+      <c r="B4" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2" ht="15.5" x14ac:dyDescent="0.35">
+      <c r="A5" t="s">
+        <v>8</v>
+      </c>
+      <c r="B5" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2" ht="15.5" x14ac:dyDescent="0.35">
+      <c r="A6" t="s">
+        <v>10</v>
+      </c>
+      <c r="B6" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="7" spans="1:2" ht="15.5" x14ac:dyDescent="0.35">
+      <c r="A7" t="s">
+        <v>12</v>
+      </c>
+      <c r="B7" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="8" spans="1:2" ht="15.5" x14ac:dyDescent="0.35">
+      <c r="A8" t="s">
+        <v>14</v>
+      </c>
+      <c r="B8" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="9" spans="1:2" ht="15.5" x14ac:dyDescent="0.35">
+      <c r="A9" t="s">
+        <v>16</v>
+      </c>
+      <c r="B9" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="10" spans="1:2" ht="15.5" x14ac:dyDescent="0.35">
+      <c r="A10" t="s">
+        <v>18</v>
+      </c>
+      <c r="B10" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="11" spans="1:2" ht="15.5" x14ac:dyDescent="0.35">
+      <c r="A11" t="s">
+        <v>20</v>
+      </c>
+      <c r="B11" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="12" spans="1:2" ht="15.5" x14ac:dyDescent="0.35">
+      <c r="A12" t="s">
+        <v>22</v>
+      </c>
+      <c r="B12" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="13" spans="1:2" ht="15.5" x14ac:dyDescent="0.35">
+      <c r="A13" t="s">
+        <v>24</v>
+      </c>
+      <c r="B13" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="14" spans="1:2" ht="15.5" x14ac:dyDescent="0.35">
+      <c r="A14" t="s">
+        <v>26</v>
+      </c>
+      <c r="B14" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="15" spans="1:2" ht="15.5" x14ac:dyDescent="0.35">
+      <c r="A15" t="s">
+        <v>28</v>
+      </c>
+      <c r="B15" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="16" spans="1:2" ht="15.5" x14ac:dyDescent="0.35">
+      <c r="A16" t="s">
+        <v>30</v>
+      </c>
+      <c r="B16" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="17" spans="1:2" ht="15.5" x14ac:dyDescent="0.35">
+      <c r="A17" t="s">
+        <v>32</v>
+      </c>
+      <c r="B17" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="18" spans="1:2" ht="15.5" x14ac:dyDescent="0.35">
+      <c r="A18" t="s">
+        <v>34</v>
+      </c>
+      <c r="B18" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="19" spans="1:2" ht="15.5" x14ac:dyDescent="0.35">
+      <c r="A19" t="s">
+        <v>36</v>
+      </c>
+      <c r="B19" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="20" spans="1:2" ht="15.5" x14ac:dyDescent="0.35">
+      <c r="A20" t="s">
+        <v>38</v>
+      </c>
+      <c r="B20" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="21" spans="1:2" ht="15.5" x14ac:dyDescent="0.35">
+      <c r="A21" t="s">
+        <v>40</v>
+      </c>
+      <c r="B21" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="22" spans="1:2" ht="15.5" x14ac:dyDescent="0.35">
+      <c r="A22" t="s">
+        <v>42</v>
+      </c>
+      <c r="B22" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="23" spans="1:2" ht="15.5" x14ac:dyDescent="0.35">
+      <c r="A23" t="s">
+        <v>44</v>
+      </c>
+      <c r="B23" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="24" spans="1:2" ht="15.5" x14ac:dyDescent="0.35">
+      <c r="A24" t="s">
+        <v>46</v>
+      </c>
+      <c r="B24" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="25" spans="1:2" ht="15.5" x14ac:dyDescent="0.35">
+      <c r="A25" t="s">
+        <v>48</v>
+      </c>
+      <c r="B25" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="26" spans="1:2" ht="15.5" x14ac:dyDescent="0.35">
+      <c r="A26" t="s">
+        <v>50</v>
+      </c>
+      <c r="B26" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="27" spans="1:2" ht="15.5" x14ac:dyDescent="0.35">
+      <c r="A27" t="s">
+        <v>52</v>
+      </c>
+      <c r="B27" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="28" spans="1:2" ht="15.5" x14ac:dyDescent="0.35">
+      <c r="A28" t="s">
+        <v>54</v>
+      </c>
+      <c r="B28" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="29" spans="1:2" ht="15.5" x14ac:dyDescent="0.35">
+      <c r="A29" t="s">
+        <v>56</v>
+      </c>
+      <c r="B29" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="30" spans="1:2" ht="15.5" x14ac:dyDescent="0.35">
+      <c r="A30" t="s">
+        <v>58</v>
+      </c>
+      <c r="B30" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="31" spans="1:2" ht="15.5" x14ac:dyDescent="0.35">
+      <c r="A31" t="s">
+        <v>60</v>
+      </c>
+      <c r="B31" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="32" spans="1:2" ht="15.5" x14ac:dyDescent="0.35">
+      <c r="A32" t="s">
+        <v>62</v>
+      </c>
+      <c r="B32" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="33" spans="1:2" ht="15.5" x14ac:dyDescent="0.35">
+      <c r="A33" t="s">
+        <v>64</v>
+      </c>
+      <c r="B33" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="34" spans="1:2" ht="15.5" x14ac:dyDescent="0.35">
+      <c r="A34" t="s">
+        <v>66</v>
+      </c>
+      <c r="B34" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="35" spans="1:2" ht="15.5" x14ac:dyDescent="0.35">
+      <c r="A35" t="s">
+        <v>68</v>
+      </c>
+      <c r="B35" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="36" spans="1:2" ht="15.5" x14ac:dyDescent="0.35">
+      <c r="A36" t="s">
+        <v>70</v>
+      </c>
+      <c r="B36" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="37" spans="1:2" ht="15.5" x14ac:dyDescent="0.35">
+      <c r="A37" t="s">
+        <v>72</v>
+      </c>
+      <c r="B37" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="38" spans="1:2" ht="15.5" x14ac:dyDescent="0.35">
+      <c r="A38" t="s">
+        <v>74</v>
+      </c>
+      <c r="B38" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="39" spans="1:2" ht="15.5" x14ac:dyDescent="0.35">
+      <c r="A39" t="s">
+        <v>76</v>
+      </c>
+      <c r="B39" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="40" spans="1:2" ht="15.5" x14ac:dyDescent="0.35">
+      <c r="A40" t="s">
+        <v>78</v>
+      </c>
+      <c r="B40" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="41" spans="1:2" ht="15.5" x14ac:dyDescent="0.35">
+      <c r="A41" t="s">
+        <v>80</v>
+      </c>
+      <c r="B41" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="42" spans="1:2" ht="15.5" x14ac:dyDescent="0.35">
+      <c r="A42" t="s">
+        <v>82</v>
+      </c>
+      <c r="B42" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="43" spans="1:2" ht="15.5" x14ac:dyDescent="0.35">
+      <c r="A43" t="s">
+        <v>84</v>
+      </c>
+      <c r="B43" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="44" spans="1:2" ht="15.5" x14ac:dyDescent="0.35">
+      <c r="A44" t="s">
+        <v>86</v>
+      </c>
+      <c r="B44" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="45" spans="1:2" ht="15.5" x14ac:dyDescent="0.35">
+      <c r="A45" t="s">
+        <v>87</v>
+      </c>
+      <c r="B45" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="46" spans="1:2" ht="15.5" x14ac:dyDescent="0.35">
+      <c r="A46" t="s">
+        <v>89</v>
+      </c>
+      <c r="B46" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="47" spans="1:2" ht="15.5" x14ac:dyDescent="0.35">
+      <c r="A47" t="s">
+        <v>90</v>
+      </c>
+      <c r="B47" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="48" spans="1:2" ht="15.5" x14ac:dyDescent="0.35">
+      <c r="A48" t="s">
+        <v>92</v>
+      </c>
+      <c r="B48" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="49" spans="1:2" ht="15.5" x14ac:dyDescent="0.35">
+      <c r="A49" t="s">
+        <v>94</v>
+      </c>
+      <c r="B49" t="s">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="50" spans="1:2" ht="15.5" x14ac:dyDescent="0.35">
+      <c r="A50" t="s">
+        <v>96</v>
+      </c>
+      <c r="B50" t="s">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="51" spans="1:2" ht="15.5" x14ac:dyDescent="0.35">
+      <c r="A51" t="s">
+        <v>98</v>
+      </c>
+      <c r="B51" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="52" spans="1:2" ht="15.5" x14ac:dyDescent="0.35">
+      <c r="A52" t="s">
+        <v>100</v>
+      </c>
+      <c r="B52" t="s">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="53" spans="1:2" ht="15.5" x14ac:dyDescent="0.35">
+      <c r="A53" t="s">
+        <v>102</v>
+      </c>
+      <c r="B53" t="s">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="54" spans="1:2" ht="15.5" x14ac:dyDescent="0.35">
+      <c r="A54" t="s">
+        <v>104</v>
+      </c>
+      <c r="B54" t="s">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="55" spans="1:2" ht="15.5" x14ac:dyDescent="0.35">
+      <c r="A55" t="s">
+        <v>106</v>
+      </c>
+      <c r="B55" t="s">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="56" spans="1:2" ht="15.5" x14ac:dyDescent="0.35">
+      <c r="A56" t="s">
+        <v>108</v>
+      </c>
+      <c r="B56" t="s">
+        <v>109</v>
       </c>
     </row>
   </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <ignoredErrors>
-    <ignoredError numberStoredAsText="1" sqref="A1:B2"/>
+    <ignoredError sqref="A1:B1 A2:B56" numberStoredAsText="1"/>
   </ignoredErrors>
 </worksheet>
 </file>
--- a/booking_codes.xlsx
+++ b/booking_codes.xlsx
@@ -397,7 +397,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:B190"/>
+  <dimension ref="A1:B11"/>
   <sheetViews>
     <sheetView workbookViewId="0" rightToLeft="0"/>
   </sheetViews>
@@ -410,178 +410,90 @@
         <v>Date</v>
       </c>
     </row>
-    <row r="170">
-      <c r="A170" t="str">
-        <v>L0N1C</v>
-      </c>
-      <c r="B170" t="str">
-        <v>12/2/2025, 13:32:25</v>
-      </c>
-    </row>
-    <row r="171">
-      <c r="A171" t="str">
-        <v>L0N2E</v>
-      </c>
-      <c r="B171" t="str">
-        <v>12/2/2025, 13:34:05</v>
-      </c>
-    </row>
-    <row r="172">
-      <c r="A172" t="str">
-        <v>L0N2G</v>
-      </c>
-      <c r="B172" t="str">
-        <v>12/2/2025, 13:34:19</v>
-      </c>
-    </row>
-    <row r="173">
-      <c r="A173" t="str">
-        <v>L0N3C</v>
-      </c>
-      <c r="B173" t="str">
-        <v>12/2/2025, 13:36:07</v>
-      </c>
-    </row>
-    <row r="174">
-      <c r="A174" t="str">
-        <v>L0N39</v>
-      </c>
-      <c r="B174" t="str">
-        <v>12/2/2025, 13:36:08</v>
-      </c>
-    </row>
-    <row r="175">
-      <c r="A175" t="str">
-        <v>L0N45</v>
-      </c>
-      <c r="B175" t="str">
-        <v>12/2/2025, 13:37:57</v>
-      </c>
-    </row>
-    <row r="176">
-      <c r="A176" t="str">
-        <v>L0N4B</v>
-      </c>
-      <c r="B176" t="str">
-        <v>12/2/2025, 13:38:05</v>
-      </c>
-    </row>
-    <row r="177">
-      <c r="A177" t="str">
-        <v>L0N4C</v>
-      </c>
-      <c r="B177" t="str">
-        <v>12/2/2025, 13:38:18</v>
-      </c>
-    </row>
-    <row r="178">
-      <c r="A178" t="str">
-        <v>L0N6J</v>
-      </c>
-      <c r="B178" t="str">
-        <v>12/2/2025, 13:44:30</v>
-      </c>
-    </row>
-    <row r="179">
-      <c r="A179" t="str">
-        <v>L0N6L</v>
-      </c>
-      <c r="B179" t="str">
-        <v>12/2/2025, 13:44:44</v>
-      </c>
-    </row>
-    <row r="180">
-      <c r="A180" t="str">
-        <v>L0N7K</v>
-      </c>
-      <c r="B180" t="str">
-        <v>12/2/2025, 13:46:32</v>
-      </c>
-    </row>
-    <row r="181">
-      <c r="A181" t="str">
-        <v>L0N8G</v>
-      </c>
-      <c r="B181" t="str">
-        <v>12/2/2025, 13:49:23</v>
-      </c>
-    </row>
-    <row r="182">
-      <c r="A182" t="str">
-        <v>L0NBY</v>
-      </c>
-      <c r="B182" t="str">
-        <v>12/2/2025, 13:56:41</v>
-      </c>
-    </row>
-    <row r="183">
-      <c r="A183" t="str">
-        <v>L0NC9</v>
-      </c>
-      <c r="B183" t="str">
-        <v>12/2/2025, 13:57:39</v>
-      </c>
-    </row>
-    <row r="184">
-      <c r="A184" t="str">
-        <v>L0NE8</v>
-      </c>
-      <c r="B184" t="str">
-        <v>12/2/2025, 14:05:31</v>
-      </c>
-    </row>
-    <row r="185">
-      <c r="A185" t="str">
-        <v>L0NVJ</v>
-      </c>
-      <c r="B185" t="str">
-        <v>12/2/2025, 15:35:37</v>
-      </c>
-    </row>
-    <row r="186">
-      <c r="A186" t="str">
-        <v>L0PCH</v>
-      </c>
-      <c r="B186" t="str">
-        <v>12/2/2025, 16:35:29</v>
-      </c>
-    </row>
-    <row r="187">
-      <c r="A187" t="str">
-        <v>L0PE9</v>
-      </c>
-      <c r="B187" t="str">
-        <v>12/2/2025, 16:43:47</v>
-      </c>
-    </row>
-    <row r="188">
-      <c r="A188" t="str">
-        <v>L0PEQ</v>
-      </c>
-      <c r="B188" t="str">
-        <v>12/2/2025, 16:45:46</v>
-      </c>
-    </row>
-    <row r="189">
-      <c r="A189" t="str">
-        <v>L0PFJ</v>
-      </c>
-      <c r="B189" t="str">
-        <v>12/2/2025, 16:47:54</v>
-      </c>
-    </row>
-    <row r="190">
-      <c r="A190" t="str">
-        <v>L0PFW</v>
-      </c>
-      <c r="B190" t="str">
-        <v>12/2/2025, 16:49:36</v>
+    <row r="2">
+      <c r="A2" t="str">
+        <v>LHRJJ</v>
+      </c>
+      <c r="B2" t="str">
+        <v>4/3/2025, 14:01:45</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="str">
+        <v>LHRJY</v>
+      </c>
+      <c r="B3" t="str">
+        <v>4/3/2025, 14:05:33</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="str">
+        <v>LHS9R</v>
+      </c>
+      <c r="B4" t="str">
+        <v>4/3/2025, 16:07:03</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="str">
+        <v>LHSB3</v>
+      </c>
+      <c r="B5" t="str">
+        <v>4/3/2025, 16:08:54</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="str">
+        <v>LHSCF</v>
+      </c>
+      <c r="B6" t="str">
+        <v>4/3/2025, 16:12:54</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="str">
+        <v>LHSCV</v>
+      </c>
+      <c r="B7" t="str">
+        <v>4/3/2025, 16:14:26</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="str">
+        <v>LHSD3</v>
+      </c>
+      <c r="B8" t="str">
+        <v>4/3/2025, 16:15:40</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="str">
+        <v>LHSE0</v>
+      </c>
+      <c r="B9" t="str">
+        <v>4/3/2025, 16:19:01</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="str">
+        <v>LHSQ1</v>
+      </c>
+      <c r="B10" t="str">
+        <v>4/3/2025, 16:54:40</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" t="str">
+        <v>LHSQV</v>
+      </c>
+      <c r="B11" t="str">
+        <v>4/3/2025, 16:57:18</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <ignoredErrors>
-    <ignoredError numberStoredAsText="1" sqref="A1:B190"/>
+    <ignoredError numberStoredAsText="1" sqref="A1:B11"/>
   </ignoredErrors>
 </worksheet>
 </file>
--- a/booking_codes.xlsx
+++ b/booking_codes.xlsx
@@ -397,7 +397,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:B11"/>
+  <dimension ref="A1:Z14"/>
   <sheetViews>
     <sheetView workbookViewId="0" rightToLeft="0"/>
   </sheetViews>
@@ -409,91 +409,255 @@
       <c r="B1" t="str">
         <v>Date</v>
       </c>
+      <c r="C1" t="str">
+        <v>Date Created</v>
+      </c>
+      <c r="D1" t="str">
+        <v>Origin</v>
+      </c>
+      <c r="E1" t="str">
+        <v>Destination</v>
+      </c>
+      <c r="F1" t="str">
+        <v>Trip Type</v>
+      </c>
+      <c r="G1" t="str">
+        <v>Outbound Flight Class</v>
+      </c>
+      <c r="H1" t="str">
+        <v>Outbound Flight Type</v>
+      </c>
+      <c r="I1" t="str">
+        <v>Return Flight Class</v>
+      </c>
+      <c r="J1" t="str">
+        <v>Return Flight Type</v>
+      </c>
+      <c r="K1" t="str">
+        <v>Adults Count</v>
+      </c>
+      <c r="L1" t="str">
+        <v>Children Count</v>
+      </c>
+      <c r="M1" t="str">
+        <v>Infants Count</v>
+      </c>
+      <c r="N1" t="str">
+        <v>Language</v>
+      </c>
+      <c r="O1" t="str">
+        <v>Contact Name</v>
+      </c>
+      <c r="P1" t="str">
+        <v>Contact Surname</v>
+      </c>
+      <c r="Q1" t="str">
+        <v>Contact Email</v>
+      </c>
+      <c r="R1" t="str">
+        <v>Contact Phone</v>
+      </c>
+      <c r="S1" t="str">
+        <v>Payment Card</v>
+      </c>
+      <c r="T1" t="str">
+        <v>Payment Name</v>
+      </c>
+      <c r="U1" t="str">
+        <v>Adult 1 Name</v>
+      </c>
+      <c r="V1" t="str">
+        <v>Adult 1 Surname</v>
+      </c>
+      <c r="W1" t="str">
+        <v>Adult 1 Age</v>
+      </c>
+      <c r="X1" t="str">
+        <v>Adult 1 Nationality</v>
+      </c>
+      <c r="Y1" t="str">
+        <v>Adult 1 Gender</v>
+      </c>
+      <c r="Z1" t="str">
+        <v>Adult 1 Assistance</v>
+      </c>
     </row>
     <row r="2">
       <c r="A2" t="str">
-        <v>LHRJJ</v>
+        <v>MEHLB</v>
       </c>
       <c r="B2" t="str">
-        <v>4/3/2025, 14:01:45</v>
+        <v>5/3/2025, 8:53:45</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="str">
-        <v>LHRJY</v>
+        <v>MEHLD</v>
       </c>
       <c r="B3" t="str">
-        <v>4/3/2025, 14:05:33</v>
+        <v>5/3/2025, 8:53:55</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="str">
-        <v>LHS9R</v>
+        <v>MEHL9</v>
       </c>
       <c r="B4" t="str">
-        <v>4/3/2025, 16:07:03</v>
+        <v>5/3/2025, 8:53:55</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="str">
-        <v>LHSB3</v>
+        <v>MEHLM</v>
       </c>
       <c r="B5" t="str">
-        <v>4/3/2025, 16:08:54</v>
+        <v>5/3/2025, 8:54:07</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="str">
-        <v>LHSCF</v>
+        <v>MEHLN</v>
       </c>
       <c r="B6" t="str">
-        <v>4/3/2025, 16:12:54</v>
+        <v>5/3/2025, 8:55:54</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="str">
-        <v>LHSCV</v>
+        <v>MEHLQ</v>
       </c>
       <c r="B7" t="str">
-        <v>4/3/2025, 16:14:26</v>
+        <v>5/3/2025, 8:56:23</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="str">
-        <v>LHSD3</v>
+        <v>MEHLS</v>
       </c>
       <c r="B8" t="str">
-        <v>4/3/2025, 16:15:40</v>
+        <v>5/3/2025, 8:56:30</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="str">
-        <v>LHSE0</v>
+        <v>MEHLX</v>
       </c>
       <c r="B9" t="str">
-        <v>4/3/2025, 16:19:01</v>
+        <v>5/3/2025, 8:58:20</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="str">
-        <v>LHSQ1</v>
+        <v>MEHLZ</v>
       </c>
       <c r="B10" t="str">
-        <v>4/3/2025, 16:54:40</v>
+        <v>5/3/2025, 8:59:04</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="str">
-        <v>LHSQV</v>
+        <v>MEHM1</v>
       </c>
       <c r="B11" t="str">
-        <v>4/3/2025, 16:57:18</v>
+        <v>5/3/2025, 8:59:05</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" t="str">
+        <v>MEHMF</v>
+      </c>
+      <c r="B12" t="str">
+        <v>5/3/2025, 9:00:08</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" t="str">
+        <v>MEHMP</v>
+      </c>
+      <c r="B13" t="str">
+        <v>5/3/2025, 9:00:48</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" t="str">
+        <v>MEHRG</v>
+      </c>
+      <c r="C14" t="str">
+        <v>5/3/2025, 9:21:54</v>
+      </c>
+      <c r="D14" t="str">
+        <v>SCL</v>
+      </c>
+      <c r="E14" t="str">
+        <v>BCN</v>
+      </c>
+      <c r="F14" t="str">
+        <v>One Way</v>
+      </c>
+      <c r="G14" t="str">
+        <v>Economy</v>
+      </c>
+      <c r="H14" t="str">
+        <v>Light</v>
+      </c>
+      <c r="I14" t="str">
+        <v>Economy</v>
+      </c>
+      <c r="J14" t="str">
+        <v>Light</v>
+      </c>
+      <c r="K14">
+        <v>1</v>
+      </c>
+      <c r="L14">
+        <v>0</v>
+      </c>
+      <c r="M14">
+        <v>0</v>
+      </c>
+      <c r="N14" t="str">
+        <v>EN</v>
+      </c>
+      <c r="O14" t="str">
+        <v>Juan</v>
+      </c>
+      <c r="P14" t="str">
+        <v>Perez</v>
+      </c>
+      <c r="Q14" t="str">
+        <v>sofiainkoova@gmail.com</v>
+      </c>
+      <c r="R14" t="str">
+        <v>+93 791234567</v>
+      </c>
+      <c r="S14" t="str">
+        <v>2222 4000 7000 0005</v>
+      </c>
+      <c r="T14" t="str">
+        <v>Juan Pablo Antonio Maximiliano Alejandro Fernández de Córdoba Sánchez</v>
+      </c>
+      <c r="U14" t="str">
+        <v>Juan</v>
+      </c>
+      <c r="V14" t="str">
+        <v>Perez</v>
+      </c>
+      <c r="W14" t="str">
+        <v>15</v>
+      </c>
+      <c r="X14" t="str">
+        <v>Afghanistan</v>
+      </c>
+      <c r="Y14" t="str">
+        <v>Female</v>
+      </c>
+      <c r="Z14" t="str">
+        <v/>
       </c>
     </row>
   </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <ignoredErrors>
-    <ignoredError numberStoredAsText="1" sqref="A1:B11"/>
+    <ignoredError numberStoredAsText="1" sqref="A1:Z14"/>
   </ignoredErrors>
 </worksheet>
 </file>
--- a/booking_codes.xlsx
+++ b/booking_codes.xlsx
@@ -397,7 +397,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:Z14"/>
+  <dimension ref="A1:AK18"/>
   <sheetViews>
     <sheetView workbookViewId="0" rightToLeft="0"/>
   </sheetViews>
@@ -481,6 +481,39 @@
       <c r="Z1" t="str">
         <v>Adult 1 Assistance</v>
       </c>
+      <c r="AA1" t="str">
+        <v>Outbound Flight Number</v>
+      </c>
+      <c r="AB1" t="str">
+        <v>Outbound Departure Date</v>
+      </c>
+      <c r="AC1" t="str">
+        <v>Outbound Departure Time</v>
+      </c>
+      <c r="AD1" t="str">
+        <v>Outbound Arrival Date</v>
+      </c>
+      <c r="AE1" t="str">
+        <v>Outbound Arrival Time</v>
+      </c>
+      <c r="AF1" t="str">
+        <v>Outbound Duration</v>
+      </c>
+      <c r="AG1" t="str">
+        <v>Child 1 Name</v>
+      </c>
+      <c r="AH1" t="str">
+        <v>Child 1 Surname</v>
+      </c>
+      <c r="AI1" t="str">
+        <v>Child 1 Age</v>
+      </c>
+      <c r="AJ1" t="str">
+        <v>Child 1 Nationality</v>
+      </c>
+      <c r="AK1" t="str">
+        <v>Child 1 Assistance</v>
+      </c>
     </row>
     <row r="2">
       <c r="A2" t="str">
@@ -655,9 +688,368 @@
         <v/>
       </c>
     </row>
+    <row r="15">
+      <c r="A15" t="str">
+        <v>MEKEC</v>
+      </c>
+      <c r="C15" t="str">
+        <v>5/3/2025, 12:41:51</v>
+      </c>
+      <c r="D15" t="str">
+        <v>SCL</v>
+      </c>
+      <c r="E15" t="str">
+        <v>BCN</v>
+      </c>
+      <c r="F15" t="str">
+        <v>One Way</v>
+      </c>
+      <c r="G15" t="str">
+        <v>Economy</v>
+      </c>
+      <c r="H15" t="str">
+        <v>Light</v>
+      </c>
+      <c r="I15" t="str">
+        <v>Economy</v>
+      </c>
+      <c r="J15" t="str">
+        <v>Light</v>
+      </c>
+      <c r="K15">
+        <v>1</v>
+      </c>
+      <c r="L15">
+        <v>0</v>
+      </c>
+      <c r="M15">
+        <v>0</v>
+      </c>
+      <c r="N15" t="str">
+        <v>EN</v>
+      </c>
+      <c r="O15" t="str">
+        <v>Juan</v>
+      </c>
+      <c r="P15" t="str">
+        <v>Perez</v>
+      </c>
+      <c r="Q15" t="str">
+        <v>sofiainkoova@gmail.com</v>
+      </c>
+      <c r="R15" t="str">
+        <v>+93 791234567</v>
+      </c>
+      <c r="S15" t="str">
+        <v>2222 4000 7000 0005</v>
+      </c>
+      <c r="T15" t="str">
+        <v>Juan Pablo Antonio Maximiliano Alejandro Fernández de Córdoba Sánchez</v>
+      </c>
+      <c r="U15" t="str">
+        <v>Juan</v>
+      </c>
+      <c r="V15" t="str">
+        <v>Perez</v>
+      </c>
+      <c r="W15" t="str">
+        <v>15</v>
+      </c>
+      <c r="X15" t="str">
+        <v>Afghanistan</v>
+      </c>
+      <c r="Y15" t="str">
+        <v>Female</v>
+      </c>
+      <c r="Z15" t="str">
+        <v/>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" t="str">
+        <v>MEKH2</v>
+      </c>
+      <c r="C16" t="str">
+        <v>5/3/2025, 12:51:51</v>
+      </c>
+      <c r="D16" t="str">
+        <v>SCL</v>
+      </c>
+      <c r="E16" t="str">
+        <v>BCN</v>
+      </c>
+      <c r="F16" t="str">
+        <v>One Way</v>
+      </c>
+      <c r="G16" t="str">
+        <v>Economy</v>
+      </c>
+      <c r="H16" t="str">
+        <v>Light</v>
+      </c>
+      <c r="I16" t="str">
+        <v>Economy</v>
+      </c>
+      <c r="J16" t="str">
+        <v>Light</v>
+      </c>
+      <c r="K16">
+        <v>1</v>
+      </c>
+      <c r="L16">
+        <v>0</v>
+      </c>
+      <c r="M16">
+        <v>0</v>
+      </c>
+      <c r="N16" t="str">
+        <v>EN</v>
+      </c>
+      <c r="O16" t="str">
+        <v>Juan</v>
+      </c>
+      <c r="P16" t="str">
+        <v>Perez</v>
+      </c>
+      <c r="Q16" t="str">
+        <v>sofiainkoova@gmail.com</v>
+      </c>
+      <c r="R16" t="str">
+        <v>+93 791234567</v>
+      </c>
+      <c r="S16" t="str">
+        <v>2222 4000 7000 0005</v>
+      </c>
+      <c r="T16" t="str">
+        <v>Juan Pablo Antonio Maximiliano Alejandro Fernández de Córdoba Sánchez</v>
+      </c>
+      <c r="U16" t="str">
+        <v>Juan</v>
+      </c>
+      <c r="V16" t="str">
+        <v>Perez</v>
+      </c>
+      <c r="W16" t="str">
+        <v>15</v>
+      </c>
+      <c r="X16" t="str">
+        <v>Afghanistan</v>
+      </c>
+      <c r="Y16" t="str">
+        <v>Female</v>
+      </c>
+      <c r="Z16" t="str">
+        <v/>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" t="str">
+        <v>MEKMJ</v>
+      </c>
+      <c r="C17" t="str">
+        <v>5/3/2025, 13:01:48</v>
+      </c>
+      <c r="D17" t="str">
+        <v>SCL</v>
+      </c>
+      <c r="E17" t="str">
+        <v>BCN</v>
+      </c>
+      <c r="F17" t="str">
+        <v>One Way</v>
+      </c>
+      <c r="G17" t="str">
+        <v>Economy</v>
+      </c>
+      <c r="H17" t="str">
+        <v>Light</v>
+      </c>
+      <c r="I17" t="str">
+        <v>Economy</v>
+      </c>
+      <c r="J17" t="str">
+        <v>Light</v>
+      </c>
+      <c r="K17">
+        <v>1</v>
+      </c>
+      <c r="L17">
+        <v>0</v>
+      </c>
+      <c r="M17">
+        <v>0</v>
+      </c>
+      <c r="N17" t="str">
+        <v>EN</v>
+      </c>
+      <c r="O17" t="str">
+        <v>Juan</v>
+      </c>
+      <c r="P17" t="str">
+        <v>Perez</v>
+      </c>
+      <c r="Q17" t="str">
+        <v>sofiainkoova@gmail.com</v>
+      </c>
+      <c r="R17" t="str">
+        <v>+93 791234567</v>
+      </c>
+      <c r="S17" t="str">
+        <v>2222 4000 7000 0005</v>
+      </c>
+      <c r="T17" t="str">
+        <v>Juan Pablo Antonio Maximiliano Alejandro Fernández de Córdoba Sánchez</v>
+      </c>
+      <c r="U17" t="str">
+        <v>Juan</v>
+      </c>
+      <c r="V17" t="str">
+        <v>Perez</v>
+      </c>
+      <c r="W17" t="str">
+        <v>15</v>
+      </c>
+      <c r="X17" t="str">
+        <v>Afghanistan</v>
+      </c>
+      <c r="Y17" t="str">
+        <v>Female</v>
+      </c>
+      <c r="Z17" t="str">
+        <v/>
+      </c>
+      <c r="AA17" t="str">
+        <v/>
+      </c>
+      <c r="AB17" t="str">
+        <v/>
+      </c>
+      <c r="AC17" t="str">
+        <v/>
+      </c>
+      <c r="AD17" t="str">
+        <v/>
+      </c>
+      <c r="AE17" t="str">
+        <v/>
+      </c>
+      <c r="AF17" t="str">
+        <v/>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" t="str">
+        <v>MEKQE</v>
+      </c>
+      <c r="C18" t="str">
+        <v>5/3/2025, 13:13:15</v>
+      </c>
+      <c r="D18" t="str">
+        <v>SCL</v>
+      </c>
+      <c r="E18" t="str">
+        <v>BCN</v>
+      </c>
+      <c r="F18" t="str">
+        <v>One Way</v>
+      </c>
+      <c r="G18" t="str">
+        <v>Economy</v>
+      </c>
+      <c r="H18" t="str">
+        <v>Light</v>
+      </c>
+      <c r="I18" t="str">
+        <v>Economy</v>
+      </c>
+      <c r="J18" t="str">
+        <v>Light</v>
+      </c>
+      <c r="K18">
+        <v>1</v>
+      </c>
+      <c r="L18">
+        <v>1</v>
+      </c>
+      <c r="M18">
+        <v>0</v>
+      </c>
+      <c r="N18" t="str">
+        <v>EN</v>
+      </c>
+      <c r="O18" t="str">
+        <v>Juan</v>
+      </c>
+      <c r="P18" t="str">
+        <v>Perez</v>
+      </c>
+      <c r="Q18" t="str">
+        <v>sofiainkoova@gmail.com</v>
+      </c>
+      <c r="R18" t="str">
+        <v>+93 791234567</v>
+      </c>
+      <c r="S18" t="str">
+        <v>5555 4444 3333 1111</v>
+      </c>
+      <c r="T18" t="str">
+        <v>Test Consumer</v>
+      </c>
+      <c r="U18" t="str">
+        <v>Juan</v>
+      </c>
+      <c r="V18" t="str">
+        <v>Perez</v>
+      </c>
+      <c r="W18" t="str">
+        <v>15</v>
+      </c>
+      <c r="X18" t="str">
+        <v>Afghanistan</v>
+      </c>
+      <c r="Y18" t="str">
+        <v>Female</v>
+      </c>
+      <c r="Z18" t="str">
+        <v/>
+      </c>
+      <c r="AA18" t="str">
+        <v/>
+      </c>
+      <c r="AB18" t="str">
+        <v/>
+      </c>
+      <c r="AC18" t="str">
+        <v/>
+      </c>
+      <c r="AD18" t="str">
+        <v/>
+      </c>
+      <c r="AE18" t="str">
+        <v/>
+      </c>
+      <c r="AF18" t="str">
+        <v/>
+      </c>
+      <c r="AG18" t="str">
+        <v>Mateo</v>
+      </c>
+      <c r="AH18" t="str">
+        <v>Ramírez</v>
+      </c>
+      <c r="AI18" t="str">
+        <v>11</v>
+      </c>
+      <c r="AJ18" t="str">
+        <v>Argentina</v>
+      </c>
+      <c r="AK18" t="str">
+        <v>Visual difficulty</v>
+      </c>
+    </row>
   </sheetData>
   <ignoredErrors>
-    <ignoredError numberStoredAsText="1" sqref="A1:Z14"/>
+    <ignoredError numberStoredAsText="1" sqref="A1:AK18"/>
   </ignoredErrors>
 </worksheet>
 </file>
--- a/booking_codes.xlsx
+++ b/booking_codes.xlsx
@@ -397,7 +397,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:AK18"/>
+  <dimension ref="A1:BA21"/>
   <sheetViews>
     <sheetView workbookViewId="0" rightToLeft="0"/>
   </sheetViews>
@@ -514,6 +514,54 @@
       <c r="AK1" t="str">
         <v>Child 1 Assistance</v>
       </c>
+      <c r="AL1" t="str">
+        <v>Outbound Flight Date</v>
+      </c>
+      <c r="AM1" t="str">
+        <v>Outbound Origin Code</v>
+      </c>
+      <c r="AN1" t="str">
+        <v>Outbound Origin Name</v>
+      </c>
+      <c r="AO1" t="str">
+        <v>Outbound Destination Code</v>
+      </c>
+      <c r="AP1" t="str">
+        <v>Outbound Destination Name</v>
+      </c>
+      <c r="AQ1" t="str">
+        <v>Outbound Arrival Next Day</v>
+      </c>
+      <c r="AR1" t="str">
+        <v>Outbound Airline</v>
+      </c>
+      <c r="AS1" t="str">
+        <v>Outbound Price</v>
+      </c>
+      <c r="AT1" t="str">
+        <v>Outbound Direction</v>
+      </c>
+      <c r="AU1" t="str">
+        <v>Outbound Selected Class</v>
+      </c>
+      <c r="AV1" t="str">
+        <v>Outbound Selected Type</v>
+      </c>
+      <c r="AW1" t="str">
+        <v>Outbound Cabin</v>
+      </c>
+      <c r="AX1" t="str">
+        <v>Outbound Economy Option</v>
+      </c>
+      <c r="AY1" t="str">
+        <v>Outbound Economy Price</v>
+      </c>
+      <c r="AZ1" t="str">
+        <v>Outbound Premium Option</v>
+      </c>
+      <c r="BA1" t="str">
+        <v>Outbound Premium Price</v>
+      </c>
     </row>
     <row r="2">
       <c r="A2" t="str">
@@ -1047,9 +1095,381 @@
         <v>Visual difficulty</v>
       </c>
     </row>
+    <row r="19">
+      <c r="A19" t="str">
+        <v>MEKTX</v>
+      </c>
+      <c r="C19" t="str">
+        <v>5/3/2025, 13:28:19</v>
+      </c>
+      <c r="D19" t="str">
+        <v>SCL</v>
+      </c>
+      <c r="E19" t="str">
+        <v>BCN</v>
+      </c>
+      <c r="F19" t="str">
+        <v>One Way</v>
+      </c>
+      <c r="G19" t="str">
+        <v>Economy</v>
+      </c>
+      <c r="H19" t="str">
+        <v>OUTBOUND</v>
+      </c>
+      <c r="I19" t="str">
+        <v>Economy</v>
+      </c>
+      <c r="J19" t="str">
+        <v>Light</v>
+      </c>
+      <c r="K19">
+        <v>1</v>
+      </c>
+      <c r="L19">
+        <v>0</v>
+      </c>
+      <c r="M19">
+        <v>0</v>
+      </c>
+      <c r="N19" t="str">
+        <v>EN</v>
+      </c>
+      <c r="O19" t="str">
+        <v>Juan</v>
+      </c>
+      <c r="P19" t="str">
+        <v>Perez</v>
+      </c>
+      <c r="Q19" t="str">
+        <v>sofiainkoova@gmail.com</v>
+      </c>
+      <c r="R19" t="str">
+        <v>+93 791234567</v>
+      </c>
+      <c r="S19" t="str">
+        <v>2222 4000 7000 0005</v>
+      </c>
+      <c r="T19" t="str">
+        <v>Juan Pablo Antonio Maximiliano Alejandro Fernández de Córdoba Sánchez</v>
+      </c>
+      <c r="U19" t="str">
+        <v>Juan</v>
+      </c>
+      <c r="V19" t="str">
+        <v>Perez</v>
+      </c>
+      <c r="W19" t="str">
+        <v>15</v>
+      </c>
+      <c r="X19" t="str">
+        <v>Afghanistan</v>
+      </c>
+      <c r="Y19" t="str">
+        <v>Female</v>
+      </c>
+      <c r="Z19" t="str">
+        <v/>
+      </c>
+      <c r="AC19" t="str">
+        <v>10:25</v>
+      </c>
+      <c r="AE19" t="str">
+        <v>06:10</v>
+      </c>
+      <c r="AF19" t="str">
+        <v>13h 45m</v>
+      </c>
+      <c r="AL19" t="str">
+        <v>Tue, Jul 8</v>
+      </c>
+      <c r="AM19" t="str">
+        <v>SCL</v>
+      </c>
+      <c r="AN19" t="str">
+        <v>Santiago</v>
+      </c>
+      <c r="AO19" t="str">
+        <v>BCN</v>
+      </c>
+      <c r="AP19" t="str">
+        <v>Barcelona</v>
+      </c>
+      <c r="AQ19" t="str">
+        <v>Yes</v>
+      </c>
+      <c r="AR19" t="str">
+        <v>IB</v>
+      </c>
+      <c r="AS19" t="str">
+        <v>$601</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" t="str">
+        <v>MEKX4</v>
+      </c>
+      <c r="C20" t="str">
+        <v>5/3/2025, 13:38:20</v>
+      </c>
+      <c r="D20" t="str">
+        <v>SCL</v>
+      </c>
+      <c r="E20" t="str">
+        <v>BCN</v>
+      </c>
+      <c r="F20" t="str">
+        <v>One Way</v>
+      </c>
+      <c r="G20" t="str">
+        <v>Economy</v>
+      </c>
+      <c r="H20" t="str">
+        <v>Light</v>
+      </c>
+      <c r="I20" t="str">
+        <v>Economy</v>
+      </c>
+      <c r="J20" t="str">
+        <v>Light</v>
+      </c>
+      <c r="K20">
+        <v>1</v>
+      </c>
+      <c r="L20">
+        <v>0</v>
+      </c>
+      <c r="M20">
+        <v>0</v>
+      </c>
+      <c r="N20" t="str">
+        <v>EN</v>
+      </c>
+      <c r="O20" t="str">
+        <v>Juan</v>
+      </c>
+      <c r="P20" t="str">
+        <v>Perez</v>
+      </c>
+      <c r="Q20" t="str">
+        <v>sofiainkoova@gmail.com</v>
+      </c>
+      <c r="R20" t="str">
+        <v>+93 791234567</v>
+      </c>
+      <c r="S20" t="str">
+        <v>2222 4000 7000 0005</v>
+      </c>
+      <c r="T20" t="str">
+        <v>Juan Pablo Antonio Maximiliano Alejandro Fernández de Córdoba Sánchez</v>
+      </c>
+      <c r="U20" t="str">
+        <v>Juan</v>
+      </c>
+      <c r="V20" t="str">
+        <v>Perez</v>
+      </c>
+      <c r="W20" t="str">
+        <v>15</v>
+      </c>
+      <c r="X20" t="str">
+        <v>Afghanistan</v>
+      </c>
+      <c r="Y20" t="str">
+        <v>Female</v>
+      </c>
+      <c r="Z20" t="str">
+        <v/>
+      </c>
+      <c r="AC20" t="str">
+        <v>10:25</v>
+      </c>
+      <c r="AE20" t="str">
+        <v>06:10</v>
+      </c>
+      <c r="AF20" t="str">
+        <v>13h 45m</v>
+      </c>
+      <c r="AL20" t="str">
+        <v>Tue, Jul 29</v>
+      </c>
+      <c r="AM20" t="str">
+        <v>SCL</v>
+      </c>
+      <c r="AN20" t="str">
+        <v>Santiago</v>
+      </c>
+      <c r="AO20" t="str">
+        <v>BCN</v>
+      </c>
+      <c r="AP20" t="str">
+        <v>Barcelona</v>
+      </c>
+      <c r="AQ20" t="str">
+        <v>Yes</v>
+      </c>
+      <c r="AR20" t="str">
+        <v>IB</v>
+      </c>
+      <c r="AT20" t="str">
+        <v>OUTBOUND</v>
+      </c>
+      <c r="AU20" t="str">
+        <v>Economy</v>
+      </c>
+      <c r="AV20" t="str">
+        <v>Light</v>
+      </c>
+      <c r="AW20" t="str">
+        <v>Economy Light</v>
+      </c>
+      <c r="AX20" t="str">
+        <v>ECONOMY</v>
+      </c>
+      <c r="AY20" t="str">
+        <v>$565</v>
+      </c>
+      <c r="AZ20" t="str">
+        <v>PREMIUM</v>
+      </c>
+      <c r="BA20" t="str">
+        <v>$751</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" t="str">
+        <v>MEKZG</v>
+      </c>
+      <c r="C21" t="str">
+        <v>5/3/2025, 13:46:13</v>
+      </c>
+      <c r="D21" t="str">
+        <v>SCL</v>
+      </c>
+      <c r="E21" t="str">
+        <v>BCN</v>
+      </c>
+      <c r="F21" t="str">
+        <v>One Way</v>
+      </c>
+      <c r="G21" t="str">
+        <v>Economy</v>
+      </c>
+      <c r="H21" t="str">
+        <v>Light</v>
+      </c>
+      <c r="I21" t="str">
+        <v>Economy</v>
+      </c>
+      <c r="J21" t="str">
+        <v>Light</v>
+      </c>
+      <c r="K21">
+        <v>1</v>
+      </c>
+      <c r="L21">
+        <v>0</v>
+      </c>
+      <c r="M21">
+        <v>0</v>
+      </c>
+      <c r="N21" t="str">
+        <v>EN</v>
+      </c>
+      <c r="O21" t="str">
+        <v>Juan</v>
+      </c>
+      <c r="P21" t="str">
+        <v>Perez</v>
+      </c>
+      <c r="Q21" t="str">
+        <v>sofiainkoova@gmail.com</v>
+      </c>
+      <c r="R21" t="str">
+        <v>+93 791234567</v>
+      </c>
+      <c r="S21" t="str">
+        <v>2222 4000 7000 0005</v>
+      </c>
+      <c r="T21" t="str">
+        <v>Juan Pablo Antonio Maximiliano Alejandro Fernández de Córdoba Sánchez</v>
+      </c>
+      <c r="U21" t="str">
+        <v>Juan</v>
+      </c>
+      <c r="V21" t="str">
+        <v>Perez</v>
+      </c>
+      <c r="W21" t="str">
+        <v>15</v>
+      </c>
+      <c r="X21" t="str">
+        <v>Afghanistan</v>
+      </c>
+      <c r="Y21" t="str">
+        <v>Female</v>
+      </c>
+      <c r="Z21" t="str">
+        <v/>
+      </c>
+      <c r="AC21" t="str">
+        <v>10:25</v>
+      </c>
+      <c r="AE21" t="str">
+        <v>06:10</v>
+      </c>
+      <c r="AF21" t="str">
+        <v>13h 45m</v>
+      </c>
+      <c r="AL21" t="str">
+        <v>Tue, Jul 8</v>
+      </c>
+      <c r="AM21" t="str">
+        <v>SCL</v>
+      </c>
+      <c r="AN21" t="str">
+        <v>Santiago</v>
+      </c>
+      <c r="AO21" t="str">
+        <v>BCN</v>
+      </c>
+      <c r="AP21" t="str">
+        <v>Barcelona</v>
+      </c>
+      <c r="AQ21" t="str">
+        <v>Yes</v>
+      </c>
+      <c r="AR21" t="str">
+        <v>IB</v>
+      </c>
+      <c r="AT21" t="str">
+        <v>OUTBOUND</v>
+      </c>
+      <c r="AU21" t="str">
+        <v>Economy</v>
+      </c>
+      <c r="AV21" t="str">
+        <v>Light</v>
+      </c>
+      <c r="AW21" t="str">
+        <v>Economy Light</v>
+      </c>
+      <c r="AX21" t="str">
+        <v>ECONOMY</v>
+      </c>
+      <c r="AY21" t="str">
+        <v>$601</v>
+      </c>
+      <c r="AZ21" t="str">
+        <v>PREMIUM</v>
+      </c>
+      <c r="BA21" t="str">
+        <v>$751</v>
+      </c>
+    </row>
   </sheetData>
   <ignoredErrors>
-    <ignoredError numberStoredAsText="1" sqref="A1:AK18"/>
+    <ignoredError numberStoredAsText="1" sqref="A1:BA21"/>
   </ignoredErrors>
 </worksheet>
 </file>
--- a/booking_codes.xlsx
+++ b/booking_codes.xlsx
@@ -397,7 +397,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:CG81"/>
+  <dimension ref="A1:CG82"/>
   <sheetViews>
     <sheetView workbookViewId="0" rightToLeft="0"/>
   </sheetViews>
@@ -13401,9 +13401,158 @@
         <v>$626</v>
       </c>
     </row>
+    <row r="82">
+      <c r="A82" t="str">
+        <v>NEKEV</v>
+      </c>
+      <c r="B82" t="str">
+        <v>7/3/2025, 11:19:11</v>
+      </c>
+      <c r="C82" t="str">
+        <v>SCL</v>
+      </c>
+      <c r="D82" t="str">
+        <v>BCN</v>
+      </c>
+      <c r="E82" t="str">
+        <v>One Way</v>
+      </c>
+      <c r="F82" t="str">
+        <v>Economy</v>
+      </c>
+      <c r="G82" t="str">
+        <v>Light</v>
+      </c>
+      <c r="H82" t="str">
+        <v>Economy</v>
+      </c>
+      <c r="I82" t="str">
+        <v>Light</v>
+      </c>
+      <c r="J82">
+        <v>2</v>
+      </c>
+      <c r="K82">
+        <v>0</v>
+      </c>
+      <c r="L82">
+        <v>0</v>
+      </c>
+      <c r="M82" t="str">
+        <v>EN</v>
+      </c>
+      <c r="N82" t="str">
+        <v>Prueba</v>
+      </c>
+      <c r="O82" t="str">
+        <v>Hola</v>
+      </c>
+      <c r="P82" t="str">
+        <v>sofiainkoova@gmail.com</v>
+      </c>
+      <c r="Q82" t="str">
+        <v>+93 791234567</v>
+      </c>
+      <c r="R82" t="str">
+        <v>5577 0000 5577 0004</v>
+      </c>
+      <c r="S82" t="str">
+        <v>Sofia Martínez</v>
+      </c>
+      <c r="T82" t="str">
+        <v>OUTBOUND</v>
+      </c>
+      <c r="U82" t="str">
+        <v>Thu, Jul 31</v>
+      </c>
+      <c r="V82" t="str">
+        <v>Economy</v>
+      </c>
+      <c r="W82" t="str">
+        <v>Light</v>
+      </c>
+      <c r="X82" t="str">
+        <v>Economy Light</v>
+      </c>
+      <c r="Y82" t="str">
+        <v>SCL</v>
+      </c>
+      <c r="Z82" t="str">
+        <v>Santiago</v>
+      </c>
+      <c r="AA82" t="str">
+        <v>BCN</v>
+      </c>
+      <c r="AB82" t="str">
+        <v>Barcelona</v>
+      </c>
+      <c r="AC82" t="str">
+        <v>10:25</v>
+      </c>
+      <c r="AD82" t="str">
+        <v>06:10</v>
+      </c>
+      <c r="AE82" t="str">
+        <v>13h 45m</v>
+      </c>
+      <c r="AF82" t="str">
+        <v>Yes</v>
+      </c>
+      <c r="AG82" t="str">
+        <v>IB</v>
+      </c>
+      <c r="AH82" t="str">
+        <v>ECONOMY</v>
+      </c>
+      <c r="AI82" t="str">
+        <v>$565</v>
+      </c>
+      <c r="AJ82" t="str">
+        <v>PREMIUM</v>
+      </c>
+      <c r="AK82" t="str">
+        <v>$751</v>
+      </c>
+      <c r="AL82" t="str">
+        <v>Prueba</v>
+      </c>
+      <c r="AM82" t="str">
+        <v>Hola</v>
+      </c>
+      <c r="AN82" t="str">
+        <v>25</v>
+      </c>
+      <c r="AO82" t="str">
+        <v>Afghanistan</v>
+      </c>
+      <c r="AP82" t="str">
+        <v>Female</v>
+      </c>
+      <c r="AQ82" t="str">
+        <v/>
+      </c>
+      <c r="AR82" t="str">
+        <v>Sofía</v>
+      </c>
+      <c r="AS82" t="str">
+        <v>Pérez</v>
+      </c>
+      <c r="AT82" t="str">
+        <v>34</v>
+      </c>
+      <c r="AU82" t="str">
+        <v>Afghanistan</v>
+      </c>
+      <c r="AV82" t="str">
+        <v>Female</v>
+      </c>
+      <c r="AW82" t="str">
+        <v/>
+      </c>
+    </row>
   </sheetData>
   <ignoredErrors>
-    <ignoredError numberStoredAsText="1" sqref="A1:CG81"/>
+    <ignoredError numberStoredAsText="1" sqref="A1:CG82"/>
   </ignoredErrors>
 </worksheet>
 </file>
--- a/booking_codes.xlsx
+++ b/booking_codes.xlsx
@@ -397,7 +397,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:CG82"/>
+  <dimension ref="A1:CG141"/>
   <sheetViews>
     <sheetView workbookViewId="0" rightToLeft="0"/>
   </sheetViews>
@@ -13550,9 +13550,9661 @@
         <v/>
       </c>
     </row>
+    <row r="83">
+      <c r="A83" t="str">
+        <v>NEL7Y</v>
+      </c>
+      <c r="B83" t="str">
+        <v>7/3/2025, 13:44:50</v>
+      </c>
+      <c r="C83" t="str">
+        <v>SCL</v>
+      </c>
+      <c r="D83" t="str">
+        <v>BCN</v>
+      </c>
+      <c r="E83" t="str">
+        <v>One Way</v>
+      </c>
+      <c r="F83" t="str">
+        <v>Economy</v>
+      </c>
+      <c r="G83" t="str">
+        <v>Light</v>
+      </c>
+      <c r="H83" t="str">
+        <v>Economy</v>
+      </c>
+      <c r="I83" t="str">
+        <v>Light</v>
+      </c>
+      <c r="J83">
+        <v>2</v>
+      </c>
+      <c r="K83">
+        <v>0</v>
+      </c>
+      <c r="L83">
+        <v>0</v>
+      </c>
+      <c r="M83" t="str">
+        <v>EN</v>
+      </c>
+      <c r="N83" t="str">
+        <v>Prueba</v>
+      </c>
+      <c r="O83" t="str">
+        <v>Hola</v>
+      </c>
+      <c r="P83" t="str">
+        <v>sofiainkoova@gmail.com</v>
+      </c>
+      <c r="Q83" t="str">
+        <v>+93 791234567</v>
+      </c>
+      <c r="R83" t="str">
+        <v>5577 0000 5577 0004</v>
+      </c>
+      <c r="S83" t="str">
+        <v>Sofia Martínez</v>
+      </c>
+      <c r="T83" t="str">
+        <v>OUTBOUND</v>
+      </c>
+      <c r="U83" t="str">
+        <v>Sat, Aug 9</v>
+      </c>
+      <c r="V83" t="str">
+        <v>Economy</v>
+      </c>
+      <c r="W83" t="str">
+        <v>Light</v>
+      </c>
+      <c r="X83" t="str">
+        <v>Economy Light</v>
+      </c>
+      <c r="Y83" t="str">
+        <v>SCL</v>
+      </c>
+      <c r="Z83" t="str">
+        <v>Santiago</v>
+      </c>
+      <c r="AA83" t="str">
+        <v>BCN</v>
+      </c>
+      <c r="AB83" t="str">
+        <v>Barcelona</v>
+      </c>
+      <c r="AC83" t="str">
+        <v>10:25</v>
+      </c>
+      <c r="AD83" t="str">
+        <v>06:10</v>
+      </c>
+      <c r="AE83" t="str">
+        <v>13h 45m</v>
+      </c>
+      <c r="AF83" t="str">
+        <v>Yes</v>
+      </c>
+      <c r="AG83" t="str">
+        <v>IB</v>
+      </c>
+      <c r="AH83" t="str">
+        <v>ECONOMY</v>
+      </c>
+      <c r="AI83" t="str">
+        <v>$565</v>
+      </c>
+      <c r="AJ83" t="str">
+        <v>PREMIUM</v>
+      </c>
+      <c r="AK83" t="str">
+        <v>$751</v>
+      </c>
+      <c r="AL83" t="str">
+        <v>Prueba</v>
+      </c>
+      <c r="AM83" t="str">
+        <v>Hola</v>
+      </c>
+      <c r="AN83" t="str">
+        <v>25</v>
+      </c>
+      <c r="AO83" t="str">
+        <v>Afghanistan</v>
+      </c>
+      <c r="AP83" t="str">
+        <v>Female</v>
+      </c>
+      <c r="AQ83" t="str">
+        <v/>
+      </c>
+      <c r="AR83" t="str">
+        <v>Sofía</v>
+      </c>
+      <c r="AS83" t="str">
+        <v>Pérez</v>
+      </c>
+      <c r="AT83" t="str">
+        <v>34</v>
+      </c>
+      <c r="AU83" t="str">
+        <v>Afghanistan</v>
+      </c>
+      <c r="AV83" t="str">
+        <v>Female</v>
+      </c>
+      <c r="AW83" t="str">
+        <v/>
+      </c>
+    </row>
+    <row r="84">
+      <c r="A84" t="str">
+        <v>NELB5</v>
+      </c>
+      <c r="B84" t="str">
+        <v>7/3/2025, 13:53:55</v>
+      </c>
+      <c r="C84" t="str">
+        <v>SCL</v>
+      </c>
+      <c r="D84" t="str">
+        <v>BCN</v>
+      </c>
+      <c r="E84" t="str">
+        <v>One Way</v>
+      </c>
+      <c r="F84" t="str">
+        <v>Economy</v>
+      </c>
+      <c r="G84" t="str">
+        <v>Light</v>
+      </c>
+      <c r="H84" t="str">
+        <v>Economy</v>
+      </c>
+      <c r="I84" t="str">
+        <v>Light</v>
+      </c>
+      <c r="J84">
+        <v>1</v>
+      </c>
+      <c r="K84">
+        <v>0</v>
+      </c>
+      <c r="L84">
+        <v>0</v>
+      </c>
+      <c r="M84" t="str">
+        <v>EN</v>
+      </c>
+      <c r="N84" t="str">
+        <v>Juan</v>
+      </c>
+      <c r="O84" t="str">
+        <v>Perez</v>
+      </c>
+      <c r="P84" t="str">
+        <v>sofiainkoova@gmail.com</v>
+      </c>
+      <c r="Q84" t="str">
+        <v>+93 791234567</v>
+      </c>
+      <c r="R84" t="str">
+        <v>2222 4000 7000 0005</v>
+      </c>
+      <c r="S84" t="str">
+        <v>Juan Pablo Antonio Maximiliano Alejandro Fernández de Córdoba Sánchez</v>
+      </c>
+      <c r="T84" t="str">
+        <v>OUTBOUND</v>
+      </c>
+      <c r="U84" t="str">
+        <v>Sat, Sep 6</v>
+      </c>
+      <c r="V84" t="str">
+        <v>Economy</v>
+      </c>
+      <c r="W84" t="str">
+        <v>Light</v>
+      </c>
+      <c r="X84" t="str">
+        <v>Economy Light</v>
+      </c>
+      <c r="Y84" t="str">
+        <v>SCL</v>
+      </c>
+      <c r="Z84" t="str">
+        <v>Santiago</v>
+      </c>
+      <c r="AA84" t="str">
+        <v>BCN</v>
+      </c>
+      <c r="AB84" t="str">
+        <v>Barcelona</v>
+      </c>
+      <c r="AC84" t="str">
+        <v>10:25</v>
+      </c>
+      <c r="AD84" t="str">
+        <v>06:10</v>
+      </c>
+      <c r="AE84" t="str">
+        <v>13h 45m</v>
+      </c>
+      <c r="AF84" t="str">
+        <v>Yes</v>
+      </c>
+      <c r="AG84" t="str">
+        <v>IB</v>
+      </c>
+      <c r="AH84" t="str">
+        <v>ECONOMY</v>
+      </c>
+      <c r="AI84" t="str">
+        <v>$831</v>
+      </c>
+      <c r="AJ84" t="str">
+        <v>PREMIUM</v>
+      </c>
+      <c r="AK84" t="str">
+        <v>$1,580</v>
+      </c>
+      <c r="AL84" t="str">
+        <v>Juan</v>
+      </c>
+      <c r="AM84" t="str">
+        <v>Perez</v>
+      </c>
+      <c r="AN84" t="str">
+        <v>15</v>
+      </c>
+      <c r="AO84" t="str">
+        <v>Afghanistan</v>
+      </c>
+      <c r="AP84" t="str">
+        <v>Female</v>
+      </c>
+      <c r="AQ84" t="str">
+        <v/>
+      </c>
+    </row>
+    <row r="85">
+      <c r="A85" t="str">
+        <v>NELB7</v>
+      </c>
+      <c r="B85" t="str">
+        <v>7/3/2025, 13:53:59</v>
+      </c>
+      <c r="C85" t="str">
+        <v>SCL</v>
+      </c>
+      <c r="D85" t="str">
+        <v>BCN</v>
+      </c>
+      <c r="E85" t="str">
+        <v>One Way</v>
+      </c>
+      <c r="F85" t="str">
+        <v>Economy</v>
+      </c>
+      <c r="G85" t="str">
+        <v>Light</v>
+      </c>
+      <c r="H85" t="str">
+        <v>Economy</v>
+      </c>
+      <c r="I85" t="str">
+        <v>Light</v>
+      </c>
+      <c r="J85">
+        <v>2</v>
+      </c>
+      <c r="K85">
+        <v>0</v>
+      </c>
+      <c r="L85">
+        <v>0</v>
+      </c>
+      <c r="M85" t="str">
+        <v>EN</v>
+      </c>
+      <c r="N85" t="str">
+        <v>Prueba</v>
+      </c>
+      <c r="O85" t="str">
+        <v>Hola</v>
+      </c>
+      <c r="P85" t="str">
+        <v>sofiainkoova@gmail.com</v>
+      </c>
+      <c r="Q85" t="str">
+        <v>+93 791234567</v>
+      </c>
+      <c r="R85" t="str">
+        <v>5577 0000 5577 0004</v>
+      </c>
+      <c r="S85" t="str">
+        <v>Sofia Martínez</v>
+      </c>
+      <c r="T85" t="str">
+        <v>OUTBOUND</v>
+      </c>
+      <c r="U85" t="str">
+        <v>Sat, Aug 30</v>
+      </c>
+      <c r="V85" t="str">
+        <v>Economy</v>
+      </c>
+      <c r="W85" t="str">
+        <v>Light</v>
+      </c>
+      <c r="X85" t="str">
+        <v>Economy Light</v>
+      </c>
+      <c r="Y85" t="str">
+        <v>SCL</v>
+      </c>
+      <c r="Z85" t="str">
+        <v>Santiago</v>
+      </c>
+      <c r="AA85" t="str">
+        <v>BCN</v>
+      </c>
+      <c r="AB85" t="str">
+        <v>Barcelona</v>
+      </c>
+      <c r="AC85" t="str">
+        <v>10:25</v>
+      </c>
+      <c r="AD85" t="str">
+        <v>06:10</v>
+      </c>
+      <c r="AE85" t="str">
+        <v>13h 45m</v>
+      </c>
+      <c r="AF85" t="str">
+        <v>Yes</v>
+      </c>
+      <c r="AG85" t="str">
+        <v>IB</v>
+      </c>
+      <c r="AH85" t="str">
+        <v>ECONOMY</v>
+      </c>
+      <c r="AI85" t="str">
+        <v>$831</v>
+      </c>
+      <c r="AJ85" t="str">
+        <v>PREMIUM</v>
+      </c>
+      <c r="AK85" t="str">
+        <v>$1,580</v>
+      </c>
+      <c r="AL85" t="str">
+        <v>Prueba</v>
+      </c>
+      <c r="AM85" t="str">
+        <v>Hola</v>
+      </c>
+      <c r="AN85" t="str">
+        <v>25</v>
+      </c>
+      <c r="AO85" t="str">
+        <v>Afghanistan</v>
+      </c>
+      <c r="AP85" t="str">
+        <v>Female</v>
+      </c>
+      <c r="AQ85" t="str">
+        <v/>
+      </c>
+      <c r="AR85" t="str">
+        <v>Sofía</v>
+      </c>
+      <c r="AS85" t="str">
+        <v>Pérez</v>
+      </c>
+      <c r="AT85" t="str">
+        <v>34</v>
+      </c>
+      <c r="AU85" t="str">
+        <v>Afghanistan</v>
+      </c>
+      <c r="AV85" t="str">
+        <v>Female</v>
+      </c>
+      <c r="AW85" t="str">
+        <v/>
+      </c>
+    </row>
+    <row r="86">
+      <c r="A86" t="str">
+        <v>NELBB</v>
+      </c>
+      <c r="B86" t="str">
+        <v>7/3/2025, 13:54:05</v>
+      </c>
+      <c r="C86" t="str">
+        <v>SCL</v>
+      </c>
+      <c r="D86" t="str">
+        <v>BCN</v>
+      </c>
+      <c r="E86" t="str">
+        <v>One Way</v>
+      </c>
+      <c r="F86" t="str">
+        <v>Economy</v>
+      </c>
+      <c r="G86" t="str">
+        <v>Light</v>
+      </c>
+      <c r="H86" t="str">
+        <v>Economy</v>
+      </c>
+      <c r="I86" t="str">
+        <v>Light</v>
+      </c>
+      <c r="J86">
+        <v>1</v>
+      </c>
+      <c r="K86">
+        <v>1</v>
+      </c>
+      <c r="L86">
+        <v>0</v>
+      </c>
+      <c r="M86" t="str">
+        <v>EN</v>
+      </c>
+      <c r="N86" t="str">
+        <v>Juan</v>
+      </c>
+      <c r="O86" t="str">
+        <v>Perez</v>
+      </c>
+      <c r="P86" t="str">
+        <v>sofiainkoova@gmail.com</v>
+      </c>
+      <c r="Q86" t="str">
+        <v>+93 791234567</v>
+      </c>
+      <c r="R86" t="str">
+        <v>5555 4444 3333 1111</v>
+      </c>
+      <c r="S86" t="str">
+        <v>Test Consumer</v>
+      </c>
+      <c r="T86" t="str">
+        <v>OUTBOUND</v>
+      </c>
+      <c r="U86" t="str">
+        <v>Thu, Jul 24</v>
+      </c>
+      <c r="V86" t="str">
+        <v>Economy</v>
+      </c>
+      <c r="W86" t="str">
+        <v>Light</v>
+      </c>
+      <c r="X86" t="str">
+        <v>Economy Light</v>
+      </c>
+      <c r="Y86" t="str">
+        <v>SCL</v>
+      </c>
+      <c r="Z86" t="str">
+        <v>Santiago</v>
+      </c>
+      <c r="AA86" t="str">
+        <v>BCN</v>
+      </c>
+      <c r="AB86" t="str">
+        <v>Barcelona</v>
+      </c>
+      <c r="AC86" t="str">
+        <v>10:25</v>
+      </c>
+      <c r="AD86" t="str">
+        <v>06:10</v>
+      </c>
+      <c r="AE86" t="str">
+        <v>13h 45m</v>
+      </c>
+      <c r="AF86" t="str">
+        <v>Yes</v>
+      </c>
+      <c r="AG86" t="str">
+        <v>IB</v>
+      </c>
+      <c r="AH86" t="str">
+        <v>ECONOMY</v>
+      </c>
+      <c r="AI86" t="str">
+        <v>$565</v>
+      </c>
+      <c r="AJ86" t="str">
+        <v>PREMIUM</v>
+      </c>
+      <c r="AK86" t="str">
+        <v>$751</v>
+      </c>
+      <c r="AL86" t="str">
+        <v>Juan</v>
+      </c>
+      <c r="AM86" t="str">
+        <v>Perez</v>
+      </c>
+      <c r="AN86" t="str">
+        <v>15</v>
+      </c>
+      <c r="AO86" t="str">
+        <v>Afghanistan</v>
+      </c>
+      <c r="AP86" t="str">
+        <v>Female</v>
+      </c>
+      <c r="AQ86" t="str">
+        <v/>
+      </c>
+      <c r="AX86" t="str">
+        <v>Mateo</v>
+      </c>
+      <c r="AY86" t="str">
+        <v>Ramírez</v>
+      </c>
+      <c r="AZ86" t="str">
+        <v>11</v>
+      </c>
+      <c r="BA86" t="str">
+        <v>Argentina</v>
+      </c>
+      <c r="BB86" t="str">
+        <v>Visual difficulty</v>
+      </c>
+    </row>
+    <row r="87">
+      <c r="A87" t="str">
+        <v>NELBE</v>
+      </c>
+      <c r="B87" t="str">
+        <v>7/3/2025, 13:54:09</v>
+      </c>
+      <c r="C87" t="str">
+        <v>SCL</v>
+      </c>
+      <c r="D87" t="str">
+        <v>BCN</v>
+      </c>
+      <c r="E87" t="str">
+        <v>One Way</v>
+      </c>
+      <c r="F87" t="str">
+        <v>Economy</v>
+      </c>
+      <c r="G87" t="str">
+        <v>Light</v>
+      </c>
+      <c r="H87" t="str">
+        <v>Economy</v>
+      </c>
+      <c r="I87" t="str">
+        <v>Light</v>
+      </c>
+      <c r="J87">
+        <v>1</v>
+      </c>
+      <c r="K87">
+        <v>1</v>
+      </c>
+      <c r="L87">
+        <v>0</v>
+      </c>
+      <c r="M87" t="str">
+        <v>EN</v>
+      </c>
+      <c r="N87" t="str">
+        <v>Juan</v>
+      </c>
+      <c r="O87" t="str">
+        <v>Perez</v>
+      </c>
+      <c r="P87" t="str">
+        <v>sofiainkoova@gmail.com</v>
+      </c>
+      <c r="Q87" t="str">
+        <v>+93 791234567</v>
+      </c>
+      <c r="R87" t="str">
+        <v>4444 3333 2222 1111</v>
+      </c>
+      <c r="S87" t="str">
+        <v>Test Corporate</v>
+      </c>
+      <c r="T87" t="str">
+        <v>OUTBOUND</v>
+      </c>
+      <c r="U87" t="str">
+        <v>Wed, Jul 23</v>
+      </c>
+      <c r="V87" t="str">
+        <v>Economy</v>
+      </c>
+      <c r="W87" t="str">
+        <v>Light</v>
+      </c>
+      <c r="X87" t="str">
+        <v>Economy Light</v>
+      </c>
+      <c r="Y87" t="str">
+        <v>SCL</v>
+      </c>
+      <c r="Z87" t="str">
+        <v>Santiago</v>
+      </c>
+      <c r="AA87" t="str">
+        <v>BCN</v>
+      </c>
+      <c r="AB87" t="str">
+        <v>Barcelona</v>
+      </c>
+      <c r="AC87" t="str">
+        <v>10:25</v>
+      </c>
+      <c r="AD87" t="str">
+        <v>06:10</v>
+      </c>
+      <c r="AE87" t="str">
+        <v>13h 45m</v>
+      </c>
+      <c r="AF87" t="str">
+        <v>Yes</v>
+      </c>
+      <c r="AG87" t="str">
+        <v>IB</v>
+      </c>
+      <c r="AH87" t="str">
+        <v>ECONOMY</v>
+      </c>
+      <c r="AI87" t="str">
+        <v>$565</v>
+      </c>
+      <c r="AJ87" t="str">
+        <v>PREMIUM</v>
+      </c>
+      <c r="AK87" t="str">
+        <v>$751</v>
+      </c>
+      <c r="AL87" t="str">
+        <v>Juan</v>
+      </c>
+      <c r="AM87" t="str">
+        <v>Perez</v>
+      </c>
+      <c r="AN87" t="str">
+        <v>15</v>
+      </c>
+      <c r="AO87" t="str">
+        <v>Afghanistan</v>
+      </c>
+      <c r="AP87" t="str">
+        <v>Female</v>
+      </c>
+      <c r="AQ87" t="str">
+        <v/>
+      </c>
+      <c r="AX87" t="str">
+        <v>Valería M.</v>
+      </c>
+      <c r="AY87" t="str">
+        <v>García</v>
+      </c>
+      <c r="AZ87" t="str">
+        <v>10</v>
+      </c>
+      <c r="BA87" t="str">
+        <v>Mexico</v>
+      </c>
+      <c r="BB87" t="str">
+        <v/>
+      </c>
+    </row>
+    <row r="88">
+      <c r="A88" t="str">
+        <v>NELBS</v>
+      </c>
+      <c r="B88" t="str">
+        <v>7/3/2025, 13:54:44</v>
+      </c>
+      <c r="C88" t="str">
+        <v>SCL</v>
+      </c>
+      <c r="D88" t="str">
+        <v>BCN</v>
+      </c>
+      <c r="E88" t="str">
+        <v>One Way</v>
+      </c>
+      <c r="F88" t="str">
+        <v>Economy</v>
+      </c>
+      <c r="G88" t="str">
+        <v>Light</v>
+      </c>
+      <c r="H88" t="str">
+        <v>Economy</v>
+      </c>
+      <c r="I88" t="str">
+        <v>Light</v>
+      </c>
+      <c r="J88">
+        <v>1</v>
+      </c>
+      <c r="K88">
+        <v>3</v>
+      </c>
+      <c r="L88">
+        <v>0</v>
+      </c>
+      <c r="M88" t="str">
+        <v>EN</v>
+      </c>
+      <c r="N88" t="str">
+        <v>Juan</v>
+      </c>
+      <c r="O88" t="str">
+        <v>Perez</v>
+      </c>
+      <c r="P88" t="str">
+        <v>sofiainkoova@gmail.com</v>
+      </c>
+      <c r="Q88" t="str">
+        <v>+93 791234567</v>
+      </c>
+      <c r="R88" t="str">
+        <v>2222 4107 4036 0010</v>
+      </c>
+      <c r="S88" t="str">
+        <v>Test Corporate</v>
+      </c>
+      <c r="T88" t="str">
+        <v>OUTBOUND</v>
+      </c>
+      <c r="U88" t="str">
+        <v>Sat, Sep 6</v>
+      </c>
+      <c r="V88" t="str">
+        <v>Economy</v>
+      </c>
+      <c r="W88" t="str">
+        <v>Light</v>
+      </c>
+      <c r="X88" t="str">
+        <v>Economy Light</v>
+      </c>
+      <c r="Y88" t="str">
+        <v>SCL</v>
+      </c>
+      <c r="Z88" t="str">
+        <v>Santiago</v>
+      </c>
+      <c r="AA88" t="str">
+        <v>BCN</v>
+      </c>
+      <c r="AB88" t="str">
+        <v>Barcelona</v>
+      </c>
+      <c r="AC88" t="str">
+        <v>10:25</v>
+      </c>
+      <c r="AD88" t="str">
+        <v>06:10</v>
+      </c>
+      <c r="AE88" t="str">
+        <v>13h 45m</v>
+      </c>
+      <c r="AF88" t="str">
+        <v>Yes</v>
+      </c>
+      <c r="AG88" t="str">
+        <v>IB</v>
+      </c>
+      <c r="AH88" t="str">
+        <v>ECONOMY</v>
+      </c>
+      <c r="AI88" t="str">
+        <v>$831</v>
+      </c>
+      <c r="AJ88" t="str">
+        <v>PREMIUM</v>
+      </c>
+      <c r="AK88" t="str">
+        <v>$1,580</v>
+      </c>
+      <c r="AL88" t="str">
+        <v>Juan</v>
+      </c>
+      <c r="AM88" t="str">
+        <v>Perez</v>
+      </c>
+      <c r="AN88" t="str">
+        <v>15</v>
+      </c>
+      <c r="AO88" t="str">
+        <v>Afghanistan</v>
+      </c>
+      <c r="AP88" t="str">
+        <v>Female</v>
+      </c>
+      <c r="AQ88" t="str">
+        <v/>
+      </c>
+      <c r="AX88" t="str">
+        <v>Daniel</v>
+      </c>
+      <c r="AY88" t="str">
+        <v>Cruz</v>
+      </c>
+      <c r="AZ88" t="str">
+        <v>10</v>
+      </c>
+      <c r="BA88" t="str">
+        <v>Peru</v>
+      </c>
+      <c r="BB88" t="str">
+        <v>Help with climbing and descending stairs. I can move around the plane without difficulty</v>
+      </c>
+      <c r="BC88" t="str">
+        <v>Isabella</v>
+      </c>
+      <c r="BD88" t="str">
+        <v>Sánchez</v>
+      </c>
+      <c r="BE88" t="str">
+        <v>4</v>
+      </c>
+      <c r="BF88" t="str">
+        <v>Colombia</v>
+      </c>
+      <c r="BG88" t="str">
+        <v/>
+      </c>
+      <c r="BH88" t="str">
+        <v>Diego</v>
+      </c>
+      <c r="BI88" t="str">
+        <v>Martínez</v>
+      </c>
+      <c r="BJ88" t="str">
+        <v>8</v>
+      </c>
+      <c r="BK88" t="str">
+        <v>Chile</v>
+      </c>
+      <c r="BL88" t="str">
+        <v/>
+      </c>
+    </row>
+    <row r="89">
+      <c r="A89" t="str">
+        <v>NELC7</v>
+      </c>
+      <c r="B89" t="str">
+        <v>7/3/2025, 13:55:14</v>
+      </c>
+      <c r="C89" t="str">
+        <v>SCL</v>
+      </c>
+      <c r="D89" t="str">
+        <v>BCN</v>
+      </c>
+      <c r="E89" t="str">
+        <v>One Way</v>
+      </c>
+      <c r="F89" t="str">
+        <v>Economy</v>
+      </c>
+      <c r="G89" t="str">
+        <v>Extra</v>
+      </c>
+      <c r="H89" t="str">
+        <v>Economy</v>
+      </c>
+      <c r="I89" t="str">
+        <v>Light</v>
+      </c>
+      <c r="J89">
+        <v>1</v>
+      </c>
+      <c r="K89">
+        <v>0</v>
+      </c>
+      <c r="L89">
+        <v>0</v>
+      </c>
+      <c r="M89" t="str">
+        <v>EN</v>
+      </c>
+      <c r="N89" t="str">
+        <v>Juan</v>
+      </c>
+      <c r="O89" t="str">
+        <v>Perez</v>
+      </c>
+      <c r="P89" t="str">
+        <v>sofiainkoova@gmail.com</v>
+      </c>
+      <c r="Q89" t="str">
+        <v>+93 791234567</v>
+      </c>
+      <c r="R89" t="str">
+        <v>3607 0500 0010 20</v>
+      </c>
+      <c r="S89" t="str">
+        <v>Test Diners NL</v>
+      </c>
+      <c r="T89" t="str">
+        <v>OUTBOUND</v>
+      </c>
+      <c r="U89" t="str">
+        <v>Tue, Aug 5</v>
+      </c>
+      <c r="V89" t="str">
+        <v>Economy</v>
+      </c>
+      <c r="W89" t="str">
+        <v>Extra</v>
+      </c>
+      <c r="X89" t="str">
+        <v>Economy Extra</v>
+      </c>
+      <c r="Y89" t="str">
+        <v>SCL</v>
+      </c>
+      <c r="Z89" t="str">
+        <v>Santiago</v>
+      </c>
+      <c r="AA89" t="str">
+        <v>BCN</v>
+      </c>
+      <c r="AB89" t="str">
+        <v>Barcelona</v>
+      </c>
+      <c r="AC89" t="str">
+        <v>10:25</v>
+      </c>
+      <c r="AD89" t="str">
+        <v>06:10</v>
+      </c>
+      <c r="AE89" t="str">
+        <v>13h 45m</v>
+      </c>
+      <c r="AF89" t="str">
+        <v>Yes</v>
+      </c>
+      <c r="AG89" t="str">
+        <v>IB</v>
+      </c>
+      <c r="AH89" t="str">
+        <v>ECONOMY</v>
+      </c>
+      <c r="AI89" t="str">
+        <v>$565</v>
+      </c>
+      <c r="AJ89" t="str">
+        <v>PREMIUM</v>
+      </c>
+      <c r="AK89" t="str">
+        <v>$751</v>
+      </c>
+      <c r="AL89" t="str">
+        <v>Juan</v>
+      </c>
+      <c r="AM89" t="str">
+        <v>Perez</v>
+      </c>
+      <c r="AN89" t="str">
+        <v>15</v>
+      </c>
+      <c r="AO89" t="str">
+        <v>Afghanistan</v>
+      </c>
+      <c r="AP89" t="str">
+        <v>Female</v>
+      </c>
+      <c r="AQ89" t="str">
+        <v/>
+      </c>
+    </row>
+    <row r="90">
+      <c r="A90" t="str">
+        <v>NELC3</v>
+      </c>
+      <c r="B90" t="str">
+        <v>7/3/2025, 13:55:17</v>
+      </c>
+      <c r="C90" t="str">
+        <v>SCL</v>
+      </c>
+      <c r="D90" t="str">
+        <v>BCN</v>
+      </c>
+      <c r="E90" t="str">
+        <v>One Way</v>
+      </c>
+      <c r="F90" t="str">
+        <v>Economy</v>
+      </c>
+      <c r="G90" t="str">
+        <v>Light</v>
+      </c>
+      <c r="H90" t="str">
+        <v>Economy</v>
+      </c>
+      <c r="I90" t="str">
+        <v>Light</v>
+      </c>
+      <c r="J90">
+        <v>1</v>
+      </c>
+      <c r="K90">
+        <v>0</v>
+      </c>
+      <c r="L90">
+        <v>0</v>
+      </c>
+      <c r="M90" t="str">
+        <v>EN</v>
+      </c>
+      <c r="N90" t="str">
+        <v>Juan</v>
+      </c>
+      <c r="O90" t="str">
+        <v>Perez</v>
+      </c>
+      <c r="P90" t="str">
+        <v>sofiainkoova@gmail.com</v>
+      </c>
+      <c r="Q90" t="str">
+        <v>+93 791234567</v>
+      </c>
+      <c r="R90" t="str">
+        <v>6445 6445 6445 6445</v>
+      </c>
+      <c r="S90" t="str">
+        <v>Test Discover GB</v>
+      </c>
+      <c r="T90" t="str">
+        <v>OUTBOUND</v>
+      </c>
+      <c r="U90" t="str">
+        <v>Wed, Aug 20</v>
+      </c>
+      <c r="V90" t="str">
+        <v>Economy</v>
+      </c>
+      <c r="W90" t="str">
+        <v>Light</v>
+      </c>
+      <c r="X90" t="str">
+        <v>Economy Light</v>
+      </c>
+      <c r="Y90" t="str">
+        <v>SCL</v>
+      </c>
+      <c r="Z90" t="str">
+        <v>Santiago</v>
+      </c>
+      <c r="AA90" t="str">
+        <v>BCN</v>
+      </c>
+      <c r="AB90" t="str">
+        <v>Barcelona</v>
+      </c>
+      <c r="AC90" t="str">
+        <v>10:25</v>
+      </c>
+      <c r="AD90" t="str">
+        <v>06:10</v>
+      </c>
+      <c r="AE90" t="str">
+        <v>13h 45m</v>
+      </c>
+      <c r="AF90" t="str">
+        <v>Yes</v>
+      </c>
+      <c r="AG90" t="str">
+        <v>IB</v>
+      </c>
+      <c r="AH90" t="str">
+        <v>ECONOMY</v>
+      </c>
+      <c r="AI90" t="str">
+        <v>$565</v>
+      </c>
+      <c r="AJ90" t="str">
+        <v>PREMIUM</v>
+      </c>
+      <c r="AK90" t="str">
+        <v>$751</v>
+      </c>
+      <c r="AL90" t="str">
+        <v>Juan</v>
+      </c>
+      <c r="AM90" t="str">
+        <v>Perez</v>
+      </c>
+      <c r="AN90" t="str">
+        <v>15</v>
+      </c>
+      <c r="AO90" t="str">
+        <v>Afghanistan</v>
+      </c>
+      <c r="AP90" t="str">
+        <v>Female</v>
+      </c>
+      <c r="AQ90" t="str">
+        <v/>
+      </c>
+    </row>
+    <row r="91">
+      <c r="A91" t="str">
+        <v>NELC9</v>
+      </c>
+      <c r="B91" t="str">
+        <v>7/3/2025, 13:55:18</v>
+      </c>
+      <c r="C91" t="str">
+        <v>SCL</v>
+      </c>
+      <c r="D91" t="str">
+        <v>BCN</v>
+      </c>
+      <c r="E91" t="str">
+        <v>One Way</v>
+      </c>
+      <c r="F91" t="str">
+        <v>Economy</v>
+      </c>
+      <c r="G91" t="str">
+        <v>Comfort</v>
+      </c>
+      <c r="H91" t="str">
+        <v>Economy</v>
+      </c>
+      <c r="I91" t="str">
+        <v>Comfort</v>
+      </c>
+      <c r="J91">
+        <v>1</v>
+      </c>
+      <c r="K91">
+        <v>0</v>
+      </c>
+      <c r="L91">
+        <v>0</v>
+      </c>
+      <c r="M91" t="str">
+        <v>EN</v>
+      </c>
+      <c r="N91" t="str">
+        <v>Juan</v>
+      </c>
+      <c r="O91" t="str">
+        <v>Perez</v>
+      </c>
+      <c r="P91" t="str">
+        <v>sofiainkoova@gmail.com</v>
+      </c>
+      <c r="Q91" t="str">
+        <v>+93 791234567</v>
+      </c>
+      <c r="R91" t="str">
+        <v>3600 6666 3333 44</v>
+      </c>
+      <c r="S91" t="str">
+        <v>Test Diners</v>
+      </c>
+      <c r="T91" t="str">
+        <v>OUTBOUND</v>
+      </c>
+      <c r="U91" t="str">
+        <v>Tue, Jul 29</v>
+      </c>
+      <c r="V91" t="str">
+        <v>Economy</v>
+      </c>
+      <c r="W91" t="str">
+        <v>Comfort</v>
+      </c>
+      <c r="X91" t="str">
+        <v>Economy Comfort</v>
+      </c>
+      <c r="Y91" t="str">
+        <v>SCL</v>
+      </c>
+      <c r="Z91" t="str">
+        <v>Santiago</v>
+      </c>
+      <c r="AA91" t="str">
+        <v>BCN</v>
+      </c>
+      <c r="AB91" t="str">
+        <v>Barcelona</v>
+      </c>
+      <c r="AC91" t="str">
+        <v>10:25</v>
+      </c>
+      <c r="AD91" t="str">
+        <v>06:10</v>
+      </c>
+      <c r="AE91" t="str">
+        <v>13h 45m</v>
+      </c>
+      <c r="AF91" t="str">
+        <v>Yes</v>
+      </c>
+      <c r="AG91" t="str">
+        <v>IB</v>
+      </c>
+      <c r="AH91" t="str">
+        <v>ECONOMY</v>
+      </c>
+      <c r="AI91" t="str">
+        <v>$565</v>
+      </c>
+      <c r="AJ91" t="str">
+        <v>PREMIUM</v>
+      </c>
+      <c r="AK91" t="str">
+        <v>$751</v>
+      </c>
+      <c r="AL91" t="str">
+        <v>Juan</v>
+      </c>
+      <c r="AM91" t="str">
+        <v>Perez</v>
+      </c>
+      <c r="AN91" t="str">
+        <v>15</v>
+      </c>
+      <c r="AO91" t="str">
+        <v>Afghanistan</v>
+      </c>
+      <c r="AP91" t="str">
+        <v>Female</v>
+      </c>
+      <c r="AQ91" t="str">
+        <v/>
+      </c>
+    </row>
+    <row r="92">
+      <c r="A92" t="str">
+        <v>NELC4</v>
+      </c>
+      <c r="B92" t="str">
+        <v>7/3/2025, 13:55:19</v>
+      </c>
+      <c r="C92" t="str">
+        <v>SCL</v>
+      </c>
+      <c r="D92" t="str">
+        <v>BCN</v>
+      </c>
+      <c r="E92" t="str">
+        <v>One Way</v>
+      </c>
+      <c r="F92" t="str">
+        <v>Economy</v>
+      </c>
+      <c r="G92" t="str">
+        <v>Light</v>
+      </c>
+      <c r="H92" t="str">
+        <v>Economy</v>
+      </c>
+      <c r="I92" t="str">
+        <v>Light</v>
+      </c>
+      <c r="J92">
+        <v>1</v>
+      </c>
+      <c r="K92">
+        <v>0</v>
+      </c>
+      <c r="L92">
+        <v>1</v>
+      </c>
+      <c r="M92" t="str">
+        <v>EN</v>
+      </c>
+      <c r="N92" t="str">
+        <v>Juan</v>
+      </c>
+      <c r="O92" t="str">
+        <v>Perez</v>
+      </c>
+      <c r="P92" t="str">
+        <v>sofiainkoova@gmail.com</v>
+      </c>
+      <c r="Q92" t="str">
+        <v>+93 791234567</v>
+      </c>
+      <c r="R92" t="str">
+        <v>6011 6011 6011 6611</v>
+      </c>
+      <c r="S92" t="str">
+        <v>Test Discover</v>
+      </c>
+      <c r="T92" t="str">
+        <v>OUTBOUND</v>
+      </c>
+      <c r="U92" t="str">
+        <v>Wed, Aug 20</v>
+      </c>
+      <c r="V92" t="str">
+        <v>Economy</v>
+      </c>
+      <c r="W92" t="str">
+        <v>Light</v>
+      </c>
+      <c r="X92" t="str">
+        <v>Economy Light</v>
+      </c>
+      <c r="Y92" t="str">
+        <v>SCL</v>
+      </c>
+      <c r="Z92" t="str">
+        <v>Santiago</v>
+      </c>
+      <c r="AA92" t="str">
+        <v>BCN</v>
+      </c>
+      <c r="AB92" t="str">
+        <v>Barcelona</v>
+      </c>
+      <c r="AC92" t="str">
+        <v>10:25</v>
+      </c>
+      <c r="AD92" t="str">
+        <v>06:10</v>
+      </c>
+      <c r="AE92" t="str">
+        <v>13h 45m</v>
+      </c>
+      <c r="AF92" t="str">
+        <v>Yes</v>
+      </c>
+      <c r="AG92" t="str">
+        <v>IB</v>
+      </c>
+      <c r="AH92" t="str">
+        <v>ECONOMY</v>
+      </c>
+      <c r="AI92" t="str">
+        <v>$565</v>
+      </c>
+      <c r="AJ92" t="str">
+        <v>PREMIUM</v>
+      </c>
+      <c r="AK92" t="str">
+        <v>$751</v>
+      </c>
+      <c r="AL92" t="str">
+        <v>Juan</v>
+      </c>
+      <c r="AM92" t="str">
+        <v>Perez</v>
+      </c>
+      <c r="AN92" t="str">
+        <v>15</v>
+      </c>
+      <c r="AO92" t="str">
+        <v>Afghanistan</v>
+      </c>
+      <c r="AP92" t="str">
+        <v>Female</v>
+      </c>
+      <c r="AQ92" t="str">
+        <v/>
+      </c>
+      <c r="BM92" t="str">
+        <v>Mateó</v>
+      </c>
+      <c r="BN92" t="str">
+        <v>Rodríguez</v>
+      </c>
+      <c r="BO92" t="str">
+        <v>0</v>
+      </c>
+      <c r="BP92" t="str">
+        <v>Chile</v>
+      </c>
+    </row>
+    <row r="93">
+      <c r="A93" t="str">
+        <v>NELCD</v>
+      </c>
+      <c r="B93" t="str">
+        <v>7/3/2025, 13:55:49</v>
+      </c>
+      <c r="C93" t="str">
+        <v>SCL</v>
+      </c>
+      <c r="D93" t="str">
+        <v>BCN</v>
+      </c>
+      <c r="E93" t="str">
+        <v>One Way</v>
+      </c>
+      <c r="F93" t="str">
+        <v>Premium</v>
+      </c>
+      <c r="G93" t="str">
+        <v>Light</v>
+      </c>
+      <c r="H93" t="str">
+        <v>Economy</v>
+      </c>
+      <c r="I93" t="str">
+        <v>Light</v>
+      </c>
+      <c r="J93">
+        <v>1</v>
+      </c>
+      <c r="K93">
+        <v>0</v>
+      </c>
+      <c r="L93">
+        <v>0</v>
+      </c>
+      <c r="M93" t="str">
+        <v>EN</v>
+      </c>
+      <c r="N93" t="str">
+        <v>Juan</v>
+      </c>
+      <c r="O93" t="str">
+        <v>Perez</v>
+      </c>
+      <c r="P93" t="str">
+        <v>sofiainkoova@gmail.com</v>
+      </c>
+      <c r="Q93" t="str">
+        <v>+93 791234567</v>
+      </c>
+      <c r="R93" t="str">
+        <v>2222 4000 7000 0005</v>
+      </c>
+      <c r="S93" t="str">
+        <v>Juan Pablo Antonio Maximiliano Alejandro Fernández de Córdoba Sánchez</v>
+      </c>
+      <c r="T93" t="str">
+        <v>OUTBOUND</v>
+      </c>
+      <c r="U93" t="str">
+        <v>Tue, Jul 15</v>
+      </c>
+      <c r="V93" t="str">
+        <v>Premium</v>
+      </c>
+      <c r="W93" t="str">
+        <v>Light</v>
+      </c>
+      <c r="X93" t="str">
+        <v>Premium Light</v>
+      </c>
+      <c r="Y93" t="str">
+        <v>SCL</v>
+      </c>
+      <c r="Z93" t="str">
+        <v>Santiago</v>
+      </c>
+      <c r="AA93" t="str">
+        <v>BCN</v>
+      </c>
+      <c r="AB93" t="str">
+        <v>Barcelona</v>
+      </c>
+      <c r="AC93" t="str">
+        <v>10:25</v>
+      </c>
+      <c r="AD93" t="str">
+        <v>06:10</v>
+      </c>
+      <c r="AE93" t="str">
+        <v>13h 45m</v>
+      </c>
+      <c r="AF93" t="str">
+        <v>Yes</v>
+      </c>
+      <c r="AG93" t="str">
+        <v>IB</v>
+      </c>
+      <c r="AH93" t="str">
+        <v>ECONOMY</v>
+      </c>
+      <c r="AI93" t="str">
+        <v>$601</v>
+      </c>
+      <c r="AJ93" t="str">
+        <v>PREMIUM</v>
+      </c>
+      <c r="AK93" t="str">
+        <v>$751</v>
+      </c>
+      <c r="AL93" t="str">
+        <v>Juan</v>
+      </c>
+      <c r="AM93" t="str">
+        <v>Perez</v>
+      </c>
+      <c r="AN93" t="str">
+        <v>15</v>
+      </c>
+      <c r="AO93" t="str">
+        <v>Afghanistan</v>
+      </c>
+      <c r="AP93" t="str">
+        <v>Female</v>
+      </c>
+      <c r="AQ93" t="str">
+        <v/>
+      </c>
+    </row>
+    <row r="94">
+      <c r="A94" t="str">
+        <v>NELCE</v>
+      </c>
+      <c r="B94" t="str">
+        <v>7/3/2025, 13:56:20</v>
+      </c>
+      <c r="C94" t="str">
+        <v>SCL</v>
+      </c>
+      <c r="D94" t="str">
+        <v>BCN</v>
+      </c>
+      <c r="E94" t="str">
+        <v>One Way</v>
+      </c>
+      <c r="F94" t="str">
+        <v>Premium</v>
+      </c>
+      <c r="G94" t="str">
+        <v>Light</v>
+      </c>
+      <c r="H94" t="str">
+        <v>Economy</v>
+      </c>
+      <c r="I94" t="str">
+        <v>Comfort</v>
+      </c>
+      <c r="J94">
+        <v>1</v>
+      </c>
+      <c r="K94">
+        <v>0</v>
+      </c>
+      <c r="L94">
+        <v>0</v>
+      </c>
+      <c r="M94" t="str">
+        <v>EN</v>
+      </c>
+      <c r="N94" t="str">
+        <v>Juan</v>
+      </c>
+      <c r="O94" t="str">
+        <v>Perez</v>
+      </c>
+      <c r="P94" t="str">
+        <v>sofiainkoova@gmail.com</v>
+      </c>
+      <c r="Q94" t="str">
+        <v>+93 791234567</v>
+      </c>
+      <c r="R94" t="str">
+        <v>5577 0000 5577 0004</v>
+      </c>
+      <c r="S94" t="str">
+        <v>Sofia Martínez</v>
+      </c>
+      <c r="T94" t="str">
+        <v>OUTBOUND</v>
+      </c>
+      <c r="U94" t="str">
+        <v>Sat, Aug 23</v>
+      </c>
+      <c r="V94" t="str">
+        <v>Premium</v>
+      </c>
+      <c r="W94" t="str">
+        <v>Light</v>
+      </c>
+      <c r="X94" t="str">
+        <v>Premium Light</v>
+      </c>
+      <c r="Y94" t="str">
+        <v>SCL</v>
+      </c>
+      <c r="Z94" t="str">
+        <v>Santiago</v>
+      </c>
+      <c r="AA94" t="str">
+        <v>BCN</v>
+      </c>
+      <c r="AB94" t="str">
+        <v>Barcelona</v>
+      </c>
+      <c r="AC94" t="str">
+        <v>10:25</v>
+      </c>
+      <c r="AD94" t="str">
+        <v>06:10</v>
+      </c>
+      <c r="AE94" t="str">
+        <v>13h 45m</v>
+      </c>
+      <c r="AF94" t="str">
+        <v>Yes</v>
+      </c>
+      <c r="AG94" t="str">
+        <v>IB</v>
+      </c>
+      <c r="AH94" t="str">
+        <v>ECONOMY</v>
+      </c>
+      <c r="AI94" t="str">
+        <v>$637</v>
+      </c>
+      <c r="AJ94" t="str">
+        <v>PREMIUM</v>
+      </c>
+      <c r="AK94" t="str">
+        <v>$751</v>
+      </c>
+      <c r="AL94" t="str">
+        <v>Juan</v>
+      </c>
+      <c r="AM94" t="str">
+        <v>Perez</v>
+      </c>
+      <c r="AN94" t="str">
+        <v>15</v>
+      </c>
+      <c r="AO94" t="str">
+        <v>Afghanistan</v>
+      </c>
+      <c r="AP94" t="str">
+        <v>Female</v>
+      </c>
+      <c r="AQ94" t="str">
+        <v/>
+      </c>
+    </row>
+    <row r="95">
+      <c r="A95" t="str">
+        <v>NELCF</v>
+      </c>
+      <c r="B95" t="str">
+        <v>7/3/2025, 13:56:25</v>
+      </c>
+      <c r="C95" t="str">
+        <v>SCL</v>
+      </c>
+      <c r="D95" t="str">
+        <v>BCN</v>
+      </c>
+      <c r="E95" t="str">
+        <v>One Way</v>
+      </c>
+      <c r="F95" t="str">
+        <v>Premium</v>
+      </c>
+      <c r="G95" t="str">
+        <v>Extra</v>
+      </c>
+      <c r="H95" t="str">
+        <v>Economy</v>
+      </c>
+      <c r="I95" t="str">
+        <v>Light</v>
+      </c>
+      <c r="J95">
+        <v>1</v>
+      </c>
+      <c r="K95">
+        <v>0</v>
+      </c>
+      <c r="L95">
+        <v>0</v>
+      </c>
+      <c r="M95" t="str">
+        <v>EN</v>
+      </c>
+      <c r="N95" t="str">
+        <v>Juan</v>
+      </c>
+      <c r="O95" t="str">
+        <v>Perez</v>
+      </c>
+      <c r="P95" t="str">
+        <v>sofiainkoova@gmail.com</v>
+      </c>
+      <c r="Q95" t="str">
+        <v>+93 791234567</v>
+      </c>
+      <c r="R95" t="str">
+        <v>4444 3333 2222 1111</v>
+      </c>
+      <c r="S95" t="str">
+        <v>Test Corporate</v>
+      </c>
+      <c r="T95" t="str">
+        <v>OUTBOUND</v>
+      </c>
+      <c r="U95" t="str">
+        <v>Sat, Aug 16</v>
+      </c>
+      <c r="V95" t="str">
+        <v>Premium</v>
+      </c>
+      <c r="W95" t="str">
+        <v>Extra</v>
+      </c>
+      <c r="X95" t="str">
+        <v>Premium Extra</v>
+      </c>
+      <c r="Y95" t="str">
+        <v>SCL</v>
+      </c>
+      <c r="Z95" t="str">
+        <v>Santiago</v>
+      </c>
+      <c r="AA95" t="str">
+        <v>BCN</v>
+      </c>
+      <c r="AB95" t="str">
+        <v>Barcelona</v>
+      </c>
+      <c r="AC95" t="str">
+        <v>10:25</v>
+      </c>
+      <c r="AD95" t="str">
+        <v>06:10</v>
+      </c>
+      <c r="AE95" t="str">
+        <v>13h 45m</v>
+      </c>
+      <c r="AF95" t="str">
+        <v>Yes</v>
+      </c>
+      <c r="AG95" t="str">
+        <v>IB</v>
+      </c>
+      <c r="AH95" t="str">
+        <v>ECONOMY</v>
+      </c>
+      <c r="AI95" t="str">
+        <v>$601</v>
+      </c>
+      <c r="AJ95" t="str">
+        <v>PREMIUM</v>
+      </c>
+      <c r="AK95" t="str">
+        <v>$751</v>
+      </c>
+      <c r="AL95" t="str">
+        <v>Juan</v>
+      </c>
+      <c r="AM95" t="str">
+        <v>Perez</v>
+      </c>
+      <c r="AN95" t="str">
+        <v>15</v>
+      </c>
+      <c r="AO95" t="str">
+        <v>Afghanistan</v>
+      </c>
+      <c r="AP95" t="str">
+        <v>Female</v>
+      </c>
+      <c r="AQ95" t="str">
+        <v/>
+      </c>
+    </row>
+    <row r="96">
+      <c r="A96" t="str">
+        <v>NELCH</v>
+      </c>
+      <c r="B96" t="str">
+        <v>7/3/2025, 13:56:26</v>
+      </c>
+      <c r="C96" t="str">
+        <v>SCL</v>
+      </c>
+      <c r="D96" t="str">
+        <v>BCN</v>
+      </c>
+      <c r="E96" t="str">
+        <v>One Way</v>
+      </c>
+      <c r="F96" t="str">
+        <v>Premium</v>
+      </c>
+      <c r="G96" t="str">
+        <v>Comfort</v>
+      </c>
+      <c r="H96" t="str">
+        <v>Economy</v>
+      </c>
+      <c r="I96" t="str">
+        <v>Extra</v>
+      </c>
+      <c r="J96">
+        <v>1</v>
+      </c>
+      <c r="K96">
+        <v>0</v>
+      </c>
+      <c r="L96">
+        <v>0</v>
+      </c>
+      <c r="M96" t="str">
+        <v>EN</v>
+      </c>
+      <c r="N96" t="str">
+        <v>Juan</v>
+      </c>
+      <c r="O96" t="str">
+        <v>Perez</v>
+      </c>
+      <c r="P96" t="str">
+        <v>sofiainkoova@gmail.com</v>
+      </c>
+      <c r="Q96" t="str">
+        <v>+93 791234567</v>
+      </c>
+      <c r="R96" t="str">
+        <v>4111 1111 1111 1111</v>
+      </c>
+      <c r="S96" t="str">
+        <v>Test User</v>
+      </c>
+      <c r="T96" t="str">
+        <v>OUTBOUND</v>
+      </c>
+      <c r="U96" t="str">
+        <v>Sat, Aug 9</v>
+      </c>
+      <c r="V96" t="str">
+        <v>Premium</v>
+      </c>
+      <c r="W96" t="str">
+        <v>Comfort</v>
+      </c>
+      <c r="X96" t="str">
+        <v>Premium Comfort</v>
+      </c>
+      <c r="Y96" t="str">
+        <v>SCL</v>
+      </c>
+      <c r="Z96" t="str">
+        <v>Santiago</v>
+      </c>
+      <c r="AA96" t="str">
+        <v>BCN</v>
+      </c>
+      <c r="AB96" t="str">
+        <v>Barcelona</v>
+      </c>
+      <c r="AC96" t="str">
+        <v>10:25</v>
+      </c>
+      <c r="AD96" t="str">
+        <v>06:10</v>
+      </c>
+      <c r="AE96" t="str">
+        <v>13h 45m</v>
+      </c>
+      <c r="AF96" t="str">
+        <v>Yes</v>
+      </c>
+      <c r="AG96" t="str">
+        <v>IB</v>
+      </c>
+      <c r="AH96" t="str">
+        <v>ECONOMY</v>
+      </c>
+      <c r="AI96" t="str">
+        <v>$565</v>
+      </c>
+      <c r="AJ96" t="str">
+        <v>PREMIUM</v>
+      </c>
+      <c r="AK96" t="str">
+        <v>$751</v>
+      </c>
+      <c r="AL96" t="str">
+        <v>Juan</v>
+      </c>
+      <c r="AM96" t="str">
+        <v>Perez</v>
+      </c>
+      <c r="AN96" t="str">
+        <v>15</v>
+      </c>
+      <c r="AO96" t="str">
+        <v>Afghanistan</v>
+      </c>
+      <c r="AP96" t="str">
+        <v>Female</v>
+      </c>
+      <c r="AQ96" t="str">
+        <v/>
+      </c>
+    </row>
+    <row r="97">
+      <c r="A97" t="str">
+        <v>NELCJ</v>
+      </c>
+      <c r="B97" t="str">
+        <v>7/3/2025, 13:56:32</v>
+      </c>
+      <c r="C97" t="str">
+        <v>SCL</v>
+      </c>
+      <c r="D97" t="str">
+        <v>BCN</v>
+      </c>
+      <c r="E97" t="str">
+        <v>Round Trip</v>
+      </c>
+      <c r="F97" t="str">
+        <v>Economy</v>
+      </c>
+      <c r="G97" t="str">
+        <v>Light</v>
+      </c>
+      <c r="H97" t="str">
+        <v>Economy</v>
+      </c>
+      <c r="I97" t="str">
+        <v>Light</v>
+      </c>
+      <c r="J97">
+        <v>1</v>
+      </c>
+      <c r="K97">
+        <v>0</v>
+      </c>
+      <c r="L97">
+        <v>0</v>
+      </c>
+      <c r="M97" t="str">
+        <v>EN</v>
+      </c>
+      <c r="N97" t="str">
+        <v>Juan</v>
+      </c>
+      <c r="O97" t="str">
+        <v>Perez</v>
+      </c>
+      <c r="P97" t="str">
+        <v>sofiainkoova@gmail.com</v>
+      </c>
+      <c r="Q97" t="str">
+        <v>+93 791234567</v>
+      </c>
+      <c r="R97" t="str">
+        <v>2222 4000 7000 0005</v>
+      </c>
+      <c r="S97" t="str">
+        <v>Juan Pablo Antonio Maximiliano Alejandro Fernández de Córdoba Sánchez</v>
+      </c>
+      <c r="T97" t="str">
+        <v>OUTBOUND</v>
+      </c>
+      <c r="U97" t="str">
+        <v>Tue, Aug 19</v>
+      </c>
+      <c r="V97" t="str">
+        <v>Economy</v>
+      </c>
+      <c r="W97" t="str">
+        <v>Light</v>
+      </c>
+      <c r="X97" t="str">
+        <v>Economy Light</v>
+      </c>
+      <c r="Y97" t="str">
+        <v>SCL</v>
+      </c>
+      <c r="Z97" t="str">
+        <v>Santiago</v>
+      </c>
+      <c r="AA97" t="str">
+        <v>BCN</v>
+      </c>
+      <c r="AB97" t="str">
+        <v>Barcelona</v>
+      </c>
+      <c r="AC97" t="str">
+        <v>10:25</v>
+      </c>
+      <c r="AD97" t="str">
+        <v>06:10</v>
+      </c>
+      <c r="AE97" t="str">
+        <v>13h 45m</v>
+      </c>
+      <c r="AF97" t="str">
+        <v>Yes</v>
+      </c>
+      <c r="AG97" t="str">
+        <v>IB</v>
+      </c>
+      <c r="AH97" t="str">
+        <v>ECONOMY</v>
+      </c>
+      <c r="AI97" t="str">
+        <v>$605</v>
+      </c>
+      <c r="AJ97" t="str">
+        <v>PREMIUM</v>
+      </c>
+      <c r="AK97" t="str">
+        <v>$630</v>
+      </c>
+      <c r="AL97" t="str">
+        <v>Juan</v>
+      </c>
+      <c r="AM97" t="str">
+        <v>Perez</v>
+      </c>
+      <c r="AN97" t="str">
+        <v>15</v>
+      </c>
+      <c r="AO97" t="str">
+        <v>Afghanistan</v>
+      </c>
+      <c r="AP97" t="str">
+        <v>Female</v>
+      </c>
+      <c r="AQ97" t="str">
+        <v/>
+      </c>
+      <c r="BQ97" t="str">
+        <v>INBOUND</v>
+      </c>
+      <c r="BR97" t="str">
+        <v>Wed, Aug 20</v>
+      </c>
+      <c r="BS97" t="str">
+        <v>Economy</v>
+      </c>
+      <c r="BT97" t="str">
+        <v>Light</v>
+      </c>
+      <c r="BU97" t="str">
+        <v>Economy Light</v>
+      </c>
+      <c r="BV97" t="str">
+        <v>BCN</v>
+      </c>
+      <c r="BW97" t="str">
+        <v>Barcelona</v>
+      </c>
+      <c r="BX97" t="str">
+        <v>SCL</v>
+      </c>
+      <c r="BY97" t="str">
+        <v>Santiago</v>
+      </c>
+      <c r="BZ97" t="str">
+        <v>00:05</v>
+      </c>
+      <c r="CA97" t="str">
+        <v>08:40</v>
+      </c>
+      <c r="CB97" t="str">
+        <v>14h 35m</v>
+      </c>
+      <c r="CC97" t="str">
+        <v>IB</v>
+      </c>
+      <c r="CD97" t="str">
+        <v>ECONOMY</v>
+      </c>
+      <c r="CE97" t="str">
+        <v>$601</v>
+      </c>
+      <c r="CF97" t="str">
+        <v>PREMIUM</v>
+      </c>
+      <c r="CG97" t="str">
+        <v>$626</v>
+      </c>
+    </row>
+    <row r="98">
+      <c r="A98" t="str">
+        <v>NELCP</v>
+      </c>
+      <c r="B98" t="str">
+        <v>7/3/2025, 13:57:19</v>
+      </c>
+      <c r="C98" t="str">
+        <v>SCL</v>
+      </c>
+      <c r="D98" t="str">
+        <v>BCN</v>
+      </c>
+      <c r="E98" t="str">
+        <v>Round Trip</v>
+      </c>
+      <c r="F98" t="str">
+        <v>Economy</v>
+      </c>
+      <c r="G98" t="str">
+        <v>Light</v>
+      </c>
+      <c r="H98" t="str">
+        <v>Economy</v>
+      </c>
+      <c r="I98" t="str">
+        <v>Light</v>
+      </c>
+      <c r="J98">
+        <v>2</v>
+      </c>
+      <c r="K98">
+        <v>0</v>
+      </c>
+      <c r="L98">
+        <v>0</v>
+      </c>
+      <c r="M98" t="str">
+        <v>EN</v>
+      </c>
+      <c r="N98" t="str">
+        <v>Prueba</v>
+      </c>
+      <c r="O98" t="str">
+        <v>Hola</v>
+      </c>
+      <c r="P98" t="str">
+        <v>sofiainkoova@gmail.com</v>
+      </c>
+      <c r="Q98" t="str">
+        <v>+93 791234567</v>
+      </c>
+      <c r="R98" t="str">
+        <v>5577 0000 5577 0004</v>
+      </c>
+      <c r="S98" t="str">
+        <v>Sofia Martínez</v>
+      </c>
+      <c r="T98" t="str">
+        <v>OUTBOUND</v>
+      </c>
+      <c r="U98" t="str">
+        <v>Tue, Jul 29</v>
+      </c>
+      <c r="V98" t="str">
+        <v>Economy</v>
+      </c>
+      <c r="W98" t="str">
+        <v>Light</v>
+      </c>
+      <c r="X98" t="str">
+        <v>Economy Light</v>
+      </c>
+      <c r="Y98" t="str">
+        <v>SCL</v>
+      </c>
+      <c r="Z98" t="str">
+        <v>Santiago</v>
+      </c>
+      <c r="AA98" t="str">
+        <v>BCN</v>
+      </c>
+      <c r="AB98" t="str">
+        <v>Barcelona</v>
+      </c>
+      <c r="AC98" t="str">
+        <v>10:25</v>
+      </c>
+      <c r="AD98" t="str">
+        <v>06:10</v>
+      </c>
+      <c r="AE98" t="str">
+        <v>13h 45m</v>
+      </c>
+      <c r="AF98" t="str">
+        <v>Yes</v>
+      </c>
+      <c r="AG98" t="str">
+        <v>IB</v>
+      </c>
+      <c r="AH98" t="str">
+        <v>ECONOMY</v>
+      </c>
+      <c r="AI98" t="str">
+        <v>$605</v>
+      </c>
+      <c r="AJ98" t="str">
+        <v>PREMIUM</v>
+      </c>
+      <c r="AK98" t="str">
+        <v>$630</v>
+      </c>
+      <c r="AL98" t="str">
+        <v>Prueba</v>
+      </c>
+      <c r="AM98" t="str">
+        <v>Hola</v>
+      </c>
+      <c r="AN98" t="str">
+        <v>25</v>
+      </c>
+      <c r="AO98" t="str">
+        <v>Afghanistan</v>
+      </c>
+      <c r="AP98" t="str">
+        <v>Female</v>
+      </c>
+      <c r="AQ98" t="str">
+        <v/>
+      </c>
+      <c r="AR98" t="str">
+        <v>Sofía</v>
+      </c>
+      <c r="AS98" t="str">
+        <v>Pérez</v>
+      </c>
+      <c r="AT98" t="str">
+        <v>34</v>
+      </c>
+      <c r="AU98" t="str">
+        <v>Afghanistan</v>
+      </c>
+      <c r="AV98" t="str">
+        <v>Female</v>
+      </c>
+      <c r="AW98" t="str">
+        <v/>
+      </c>
+      <c r="BQ98" t="str">
+        <v>INBOUND</v>
+      </c>
+      <c r="BR98" t="str">
+        <v>Wed, Jul 30</v>
+      </c>
+      <c r="BS98" t="str">
+        <v>Economy</v>
+      </c>
+      <c r="BT98" t="str">
+        <v>Light</v>
+      </c>
+      <c r="BU98" t="str">
+        <v>Economy Light</v>
+      </c>
+      <c r="BV98" t="str">
+        <v>BCN</v>
+      </c>
+      <c r="BW98" t="str">
+        <v>Barcelona</v>
+      </c>
+      <c r="BX98" t="str">
+        <v>SCL</v>
+      </c>
+      <c r="BY98" t="str">
+        <v>Santiago</v>
+      </c>
+      <c r="BZ98" t="str">
+        <v>00:05</v>
+      </c>
+      <c r="CA98" t="str">
+        <v>08:40</v>
+      </c>
+      <c r="CB98" t="str">
+        <v>14h 35m</v>
+      </c>
+      <c r="CC98" t="str">
+        <v>IB</v>
+      </c>
+      <c r="CD98" t="str">
+        <v>ECONOMY</v>
+      </c>
+      <c r="CE98" t="str">
+        <v>$771</v>
+      </c>
+      <c r="CF98" t="str">
+        <v>PREMIUM</v>
+      </c>
+      <c r="CG98" t="str">
+        <v>$1,217</v>
+      </c>
+    </row>
+    <row r="99">
+      <c r="A99" t="str">
+        <v>NELDF</v>
+      </c>
+      <c r="B99" t="str">
+        <v>7/3/2025, 13:57:59</v>
+      </c>
+      <c r="C99" t="str">
+        <v>SCL</v>
+      </c>
+      <c r="D99" t="str">
+        <v>BCN</v>
+      </c>
+      <c r="E99" t="str">
+        <v>Round Trip</v>
+      </c>
+      <c r="F99" t="str">
+        <v>Economy</v>
+      </c>
+      <c r="G99" t="str">
+        <v>Light</v>
+      </c>
+      <c r="H99" t="str">
+        <v>Economy</v>
+      </c>
+      <c r="I99" t="str">
+        <v>Light</v>
+      </c>
+      <c r="J99">
+        <v>1</v>
+      </c>
+      <c r="K99">
+        <v>1</v>
+      </c>
+      <c r="L99">
+        <v>0</v>
+      </c>
+      <c r="M99" t="str">
+        <v>EN</v>
+      </c>
+      <c r="N99" t="str">
+        <v>Juan</v>
+      </c>
+      <c r="O99" t="str">
+        <v>Perez</v>
+      </c>
+      <c r="P99" t="str">
+        <v>sofiainkoova@gmail.com</v>
+      </c>
+      <c r="Q99" t="str">
+        <v>+93 791234567</v>
+      </c>
+      <c r="R99" t="str">
+        <v>5555 4444 3333 1111</v>
+      </c>
+      <c r="S99" t="str">
+        <v>Test Consumer</v>
+      </c>
+      <c r="T99" t="str">
+        <v>OUTBOUND</v>
+      </c>
+      <c r="U99" t="str">
+        <v>Tue, Aug 5</v>
+      </c>
+      <c r="V99" t="str">
+        <v>Economy</v>
+      </c>
+      <c r="W99" t="str">
+        <v>Light</v>
+      </c>
+      <c r="X99" t="str">
+        <v>Economy Light</v>
+      </c>
+      <c r="Y99" t="str">
+        <v>SCL</v>
+      </c>
+      <c r="Z99" t="str">
+        <v>Santiago</v>
+      </c>
+      <c r="AA99" t="str">
+        <v>BCN</v>
+      </c>
+      <c r="AB99" t="str">
+        <v>Barcelona</v>
+      </c>
+      <c r="AC99" t="str">
+        <v>10:25</v>
+      </c>
+      <c r="AD99" t="str">
+        <v>06:10</v>
+      </c>
+      <c r="AE99" t="str">
+        <v>13h 45m</v>
+      </c>
+      <c r="AF99" t="str">
+        <v>Yes</v>
+      </c>
+      <c r="AG99" t="str">
+        <v>IB</v>
+      </c>
+      <c r="AH99" t="str">
+        <v>ECONOMY</v>
+      </c>
+      <c r="AI99" t="str">
+        <v>$605</v>
+      </c>
+      <c r="AJ99" t="str">
+        <v>PREMIUM</v>
+      </c>
+      <c r="AK99" t="str">
+        <v>$630</v>
+      </c>
+      <c r="AL99" t="str">
+        <v>Juan</v>
+      </c>
+      <c r="AM99" t="str">
+        <v>Perez</v>
+      </c>
+      <c r="AN99" t="str">
+        <v>15</v>
+      </c>
+      <c r="AO99" t="str">
+        <v>Afghanistan</v>
+      </c>
+      <c r="AP99" t="str">
+        <v>Female</v>
+      </c>
+      <c r="AQ99" t="str">
+        <v/>
+      </c>
+      <c r="AX99" t="str">
+        <v>Mateo</v>
+      </c>
+      <c r="AY99" t="str">
+        <v>Ramírez</v>
+      </c>
+      <c r="AZ99" t="str">
+        <v>11</v>
+      </c>
+      <c r="BA99" t="str">
+        <v>Argentina</v>
+      </c>
+      <c r="BB99" t="str">
+        <v>Visual difficulty</v>
+      </c>
+      <c r="BQ99" t="str">
+        <v>INBOUND</v>
+      </c>
+      <c r="BR99" t="str">
+        <v>Wed, Aug 6</v>
+      </c>
+      <c r="BS99" t="str">
+        <v>Economy</v>
+      </c>
+      <c r="BT99" t="str">
+        <v>Light</v>
+      </c>
+      <c r="BU99" t="str">
+        <v>Economy Light</v>
+      </c>
+      <c r="BV99" t="str">
+        <v>BCN</v>
+      </c>
+      <c r="BW99" t="str">
+        <v>Barcelona</v>
+      </c>
+      <c r="BX99" t="str">
+        <v>SCL</v>
+      </c>
+      <c r="BY99" t="str">
+        <v>Santiago</v>
+      </c>
+      <c r="BZ99" t="str">
+        <v>00:05</v>
+      </c>
+      <c r="CA99" t="str">
+        <v>08:40</v>
+      </c>
+      <c r="CB99" t="str">
+        <v>14h 35m</v>
+      </c>
+      <c r="CC99" t="str">
+        <v>IB</v>
+      </c>
+      <c r="CD99" t="str">
+        <v>ECONOMY</v>
+      </c>
+      <c r="CE99" t="str">
+        <v>$771</v>
+      </c>
+      <c r="CF99" t="str">
+        <v>PREMIUM</v>
+      </c>
+      <c r="CG99" t="str">
+        <v>$917</v>
+      </c>
+    </row>
+    <row r="100">
+      <c r="A100" t="str">
+        <v>NELD7</v>
+      </c>
+      <c r="B100" t="str">
+        <v>7/3/2025, 13:58:01</v>
+      </c>
+      <c r="C100" t="str">
+        <v>SCL</v>
+      </c>
+      <c r="D100" t="str">
+        <v>BCN</v>
+      </c>
+      <c r="E100" t="str">
+        <v>Round Trip</v>
+      </c>
+      <c r="F100" t="str">
+        <v>Economy</v>
+      </c>
+      <c r="G100" t="str">
+        <v>Light</v>
+      </c>
+      <c r="H100" t="str">
+        <v>Economy</v>
+      </c>
+      <c r="I100" t="str">
+        <v>Light</v>
+      </c>
+      <c r="J100">
+        <v>1</v>
+      </c>
+      <c r="K100">
+        <v>1</v>
+      </c>
+      <c r="L100">
+        <v>0</v>
+      </c>
+      <c r="M100" t="str">
+        <v>EN</v>
+      </c>
+      <c r="N100" t="str">
+        <v>Juan</v>
+      </c>
+      <c r="O100" t="str">
+        <v>Perez</v>
+      </c>
+      <c r="P100" t="str">
+        <v>sofiainkoova@gmail.com</v>
+      </c>
+      <c r="Q100" t="str">
+        <v>+93 791234567</v>
+      </c>
+      <c r="R100" t="str">
+        <v>4444 3333 2222 1111</v>
+      </c>
+      <c r="S100" t="str">
+        <v>Test Corporate</v>
+      </c>
+      <c r="T100" t="str">
+        <v>OUTBOUND</v>
+      </c>
+      <c r="U100" t="str">
+        <v>Thu, Jul 24</v>
+      </c>
+      <c r="V100" t="str">
+        <v>Economy</v>
+      </c>
+      <c r="W100" t="str">
+        <v>Light</v>
+      </c>
+      <c r="X100" t="str">
+        <v>Economy Light</v>
+      </c>
+      <c r="Y100" t="str">
+        <v>SCL</v>
+      </c>
+      <c r="Z100" t="str">
+        <v>Santiago</v>
+      </c>
+      <c r="AA100" t="str">
+        <v>BCN</v>
+      </c>
+      <c r="AB100" t="str">
+        <v>Barcelona</v>
+      </c>
+      <c r="AC100" t="str">
+        <v>10:25</v>
+      </c>
+      <c r="AD100" t="str">
+        <v>06:10</v>
+      </c>
+      <c r="AE100" t="str">
+        <v>13h 45m</v>
+      </c>
+      <c r="AF100" t="str">
+        <v>Yes</v>
+      </c>
+      <c r="AG100" t="str">
+        <v>IB</v>
+      </c>
+      <c r="AH100" t="str">
+        <v>ECONOMY</v>
+      </c>
+      <c r="AI100" t="str">
+        <v>$407</v>
+      </c>
+      <c r="AJ100" t="str">
+        <v>PREMIUM</v>
+      </c>
+      <c r="AK100" t="str">
+        <v>$630</v>
+      </c>
+      <c r="AL100" t="str">
+        <v>Juan</v>
+      </c>
+      <c r="AM100" t="str">
+        <v>Perez</v>
+      </c>
+      <c r="AN100" t="str">
+        <v>15</v>
+      </c>
+      <c r="AO100" t="str">
+        <v>Afghanistan</v>
+      </c>
+      <c r="AP100" t="str">
+        <v>Female</v>
+      </c>
+      <c r="AQ100" t="str">
+        <v/>
+      </c>
+      <c r="AX100" t="str">
+        <v>Valería M.</v>
+      </c>
+      <c r="AY100" t="str">
+        <v>García</v>
+      </c>
+      <c r="AZ100" t="str">
+        <v>10</v>
+      </c>
+      <c r="BA100" t="str">
+        <v>Mexico</v>
+      </c>
+      <c r="BB100" t="str">
+        <v/>
+      </c>
+      <c r="BQ100" t="str">
+        <v>INBOUND</v>
+      </c>
+      <c r="BR100" t="str">
+        <v>Sat, Jul 26</v>
+      </c>
+      <c r="BS100" t="str">
+        <v>Economy</v>
+      </c>
+      <c r="BT100" t="str">
+        <v>Light</v>
+      </c>
+      <c r="BU100" t="str">
+        <v>Economy Light</v>
+      </c>
+      <c r="BV100" t="str">
+        <v>BCN</v>
+      </c>
+      <c r="BW100" t="str">
+        <v>Barcelona</v>
+      </c>
+      <c r="BX100" t="str">
+        <v>SCL</v>
+      </c>
+      <c r="BY100" t="str">
+        <v>Santiago</v>
+      </c>
+      <c r="BZ100" t="str">
+        <v>00:05</v>
+      </c>
+      <c r="CA100" t="str">
+        <v>08:40</v>
+      </c>
+      <c r="CB100" t="str">
+        <v>14h 35m</v>
+      </c>
+      <c r="CC100" t="str">
+        <v>IB</v>
+      </c>
+      <c r="CD100" t="str">
+        <v>ECONOMY</v>
+      </c>
+      <c r="CE100" t="str">
+        <v>$641</v>
+      </c>
+      <c r="CF100" t="str">
+        <v>PREMIUM</v>
+      </c>
+      <c r="CG100" t="str">
+        <v>$1,217</v>
+      </c>
+    </row>
+    <row r="101">
+      <c r="A101" t="str">
+        <v>NELDS</v>
+      </c>
+      <c r="B101" t="str">
+        <v>7/3/2025, 13:58:38</v>
+      </c>
+      <c r="C101" t="str">
+        <v>SCL</v>
+      </c>
+      <c r="D101" t="str">
+        <v>BCN</v>
+      </c>
+      <c r="E101" t="str">
+        <v>Round Trip</v>
+      </c>
+      <c r="F101" t="str">
+        <v>Economy</v>
+      </c>
+      <c r="G101" t="str">
+        <v>Light</v>
+      </c>
+      <c r="H101" t="str">
+        <v>Economy</v>
+      </c>
+      <c r="I101" t="str">
+        <v>Light</v>
+      </c>
+      <c r="J101">
+        <v>1</v>
+      </c>
+      <c r="K101">
+        <v>0</v>
+      </c>
+      <c r="L101">
+        <v>1</v>
+      </c>
+      <c r="M101" t="str">
+        <v>EN</v>
+      </c>
+      <c r="N101" t="str">
+        <v>Juan</v>
+      </c>
+      <c r="O101" t="str">
+        <v>Perez</v>
+      </c>
+      <c r="P101" t="str">
+        <v>sofiainkoova@gmail.com</v>
+      </c>
+      <c r="Q101" t="str">
+        <v>+93 791234567</v>
+      </c>
+      <c r="R101" t="str">
+        <v>6011 6011 6011 6611</v>
+      </c>
+      <c r="S101" t="str">
+        <v>Test Discover</v>
+      </c>
+      <c r="T101" t="str">
+        <v>OUTBOUND</v>
+      </c>
+      <c r="U101" t="str">
+        <v>Tue, Sep 9</v>
+      </c>
+      <c r="V101" t="str">
+        <v>Economy</v>
+      </c>
+      <c r="W101" t="str">
+        <v>Light</v>
+      </c>
+      <c r="X101" t="str">
+        <v>Economy Light</v>
+      </c>
+      <c r="Y101" t="str">
+        <v>SCL</v>
+      </c>
+      <c r="Z101" t="str">
+        <v>Santiago</v>
+      </c>
+      <c r="AA101" t="str">
+        <v>BCN</v>
+      </c>
+      <c r="AB101" t="str">
+        <v>Barcelona</v>
+      </c>
+      <c r="AC101" t="str">
+        <v>11:25</v>
+      </c>
+      <c r="AD101" t="str">
+        <v>06:10</v>
+      </c>
+      <c r="AE101" t="str">
+        <v>13h 45m</v>
+      </c>
+      <c r="AF101" t="str">
+        <v>Yes</v>
+      </c>
+      <c r="AG101" t="str">
+        <v>IB</v>
+      </c>
+      <c r="AH101" t="str">
+        <v>ECONOMY</v>
+      </c>
+      <c r="AI101" t="str">
+        <v>$775</v>
+      </c>
+      <c r="AJ101" t="str">
+        <v>PREMIUM</v>
+      </c>
+      <c r="AK101" t="str">
+        <v>$921</v>
+      </c>
+      <c r="AL101" t="str">
+        <v>Juan</v>
+      </c>
+      <c r="AM101" t="str">
+        <v>Perez</v>
+      </c>
+      <c r="AN101" t="str">
+        <v>15</v>
+      </c>
+      <c r="AO101" t="str">
+        <v>Afghanistan</v>
+      </c>
+      <c r="AP101" t="str">
+        <v>Female</v>
+      </c>
+      <c r="AQ101" t="str">
+        <v/>
+      </c>
+      <c r="BM101" t="str">
+        <v>Mateó</v>
+      </c>
+      <c r="BN101" t="str">
+        <v>Rodríguez</v>
+      </c>
+      <c r="BO101" t="str">
+        <v>0</v>
+      </c>
+      <c r="BP101" t="str">
+        <v>Chile</v>
+      </c>
+      <c r="BQ101" t="str">
+        <v>INBOUND</v>
+      </c>
+      <c r="BR101" t="str">
+        <v>Wed, Sep 10</v>
+      </c>
+      <c r="BS101" t="str">
+        <v>Economy</v>
+      </c>
+      <c r="BT101" t="str">
+        <v>Light</v>
+      </c>
+      <c r="BU101" t="str">
+        <v>Economy Light</v>
+      </c>
+      <c r="BV101" t="str">
+        <v>BCN</v>
+      </c>
+      <c r="BW101" t="str">
+        <v>Barcelona</v>
+      </c>
+      <c r="BX101" t="str">
+        <v>SCL</v>
+      </c>
+      <c r="BY101" t="str">
+        <v>Santiago</v>
+      </c>
+      <c r="BZ101" t="str">
+        <v>00:05</v>
+      </c>
+      <c r="CA101" t="str">
+        <v>09:40</v>
+      </c>
+      <c r="CB101" t="str">
+        <v>14h 35m</v>
+      </c>
+      <c r="CC101" t="str">
+        <v>IB</v>
+      </c>
+      <c r="CD101" t="str">
+        <v>ECONOMY</v>
+      </c>
+      <c r="CE101" t="str">
+        <v>$601</v>
+      </c>
+      <c r="CF101" t="str">
+        <v>PREMIUM</v>
+      </c>
+      <c r="CG101" t="str">
+        <v>$626</v>
+      </c>
+    </row>
+    <row r="102">
+      <c r="A102" t="str">
+        <v>NELDT</v>
+      </c>
+      <c r="B102" t="str">
+        <v>7/3/2025, 13:59:12</v>
+      </c>
+      <c r="C102" t="str">
+        <v>SCL</v>
+      </c>
+      <c r="D102" t="str">
+        <v>BCN</v>
+      </c>
+      <c r="E102" t="str">
+        <v>Round Trip</v>
+      </c>
+      <c r="F102" t="str">
+        <v>Economy</v>
+      </c>
+      <c r="G102" t="str">
+        <v>Comfort</v>
+      </c>
+      <c r="H102" t="str">
+        <v>Economy</v>
+      </c>
+      <c r="I102" t="str">
+        <v>Comfort</v>
+      </c>
+      <c r="J102">
+        <v>1</v>
+      </c>
+      <c r="K102">
+        <v>0</v>
+      </c>
+      <c r="L102">
+        <v>0</v>
+      </c>
+      <c r="M102" t="str">
+        <v>EN</v>
+      </c>
+      <c r="N102" t="str">
+        <v>Juan</v>
+      </c>
+      <c r="O102" t="str">
+        <v>Perez</v>
+      </c>
+      <c r="P102" t="str">
+        <v>sofiainkoova@gmail.com</v>
+      </c>
+      <c r="Q102" t="str">
+        <v>+93 791234567</v>
+      </c>
+      <c r="R102" t="str">
+        <v>3600 6666 3333 44</v>
+      </c>
+      <c r="S102" t="str">
+        <v>Test Diners</v>
+      </c>
+      <c r="T102" t="str">
+        <v>OUTBOUND</v>
+      </c>
+      <c r="U102" t="str">
+        <v>Thu, Jul 17</v>
+      </c>
+      <c r="V102" t="str">
+        <v>Economy</v>
+      </c>
+      <c r="W102" t="str">
+        <v>Comfort</v>
+      </c>
+      <c r="X102" t="str">
+        <v>Economy Comfort</v>
+      </c>
+      <c r="Y102" t="str">
+        <v>SCL</v>
+      </c>
+      <c r="Z102" t="str">
+        <v>Santiago</v>
+      </c>
+      <c r="AA102" t="str">
+        <v>BCN</v>
+      </c>
+      <c r="AB102" t="str">
+        <v>Barcelona</v>
+      </c>
+      <c r="AC102" t="str">
+        <v>10:25</v>
+      </c>
+      <c r="AD102" t="str">
+        <v>06:10</v>
+      </c>
+      <c r="AE102" t="str">
+        <v>13h 45m</v>
+      </c>
+      <c r="AF102" t="str">
+        <v>Yes</v>
+      </c>
+      <c r="AG102" t="str">
+        <v>IB</v>
+      </c>
+      <c r="AH102" t="str">
+        <v>ECONOMY</v>
+      </c>
+      <c r="AI102" t="str">
+        <v>$407</v>
+      </c>
+      <c r="AJ102" t="str">
+        <v>PREMIUM</v>
+      </c>
+      <c r="AK102" t="str">
+        <v>$630</v>
+      </c>
+      <c r="AL102" t="str">
+        <v>Juan</v>
+      </c>
+      <c r="AM102" t="str">
+        <v>Perez</v>
+      </c>
+      <c r="AN102" t="str">
+        <v>15</v>
+      </c>
+      <c r="AO102" t="str">
+        <v>Afghanistan</v>
+      </c>
+      <c r="AP102" t="str">
+        <v>Female</v>
+      </c>
+      <c r="AQ102" t="str">
+        <v/>
+      </c>
+      <c r="BQ102" t="str">
+        <v>INBOUND</v>
+      </c>
+      <c r="BR102" t="str">
+        <v>Sat, Jul 19</v>
+      </c>
+      <c r="BS102" t="str">
+        <v>Economy</v>
+      </c>
+      <c r="BT102" t="str">
+        <v>Comfort</v>
+      </c>
+      <c r="BU102" t="str">
+        <v>Economy Comfort</v>
+      </c>
+      <c r="BV102" t="str">
+        <v>BCN</v>
+      </c>
+      <c r="BW102" t="str">
+        <v>Barcelona</v>
+      </c>
+      <c r="BX102" t="str">
+        <v>SCL</v>
+      </c>
+      <c r="BY102" t="str">
+        <v>Santiago</v>
+      </c>
+      <c r="BZ102" t="str">
+        <v>00:05</v>
+      </c>
+      <c r="CA102" t="str">
+        <v>08:40</v>
+      </c>
+      <c r="CB102" t="str">
+        <v>14h 35m</v>
+      </c>
+      <c r="CC102" t="str">
+        <v>IB</v>
+      </c>
+      <c r="CD102" t="str">
+        <v>ECONOMY</v>
+      </c>
+      <c r="CE102" t="str">
+        <v>$591</v>
+      </c>
+      <c r="CF102" t="str">
+        <v>PREMIUM</v>
+      </c>
+      <c r="CG102" t="str">
+        <v>$917</v>
+      </c>
+    </row>
+    <row r="103">
+      <c r="A103" t="str">
+        <v>NELE3</v>
+      </c>
+      <c r="B103" t="str">
+        <v>7/3/2025, 13:59:18</v>
+      </c>
+      <c r="C103" t="str">
+        <v>SCL</v>
+      </c>
+      <c r="D103" t="str">
+        <v>BCN</v>
+      </c>
+      <c r="E103" t="str">
+        <v>Round Trip</v>
+      </c>
+      <c r="F103" t="str">
+        <v>Economy</v>
+      </c>
+      <c r="G103" t="str">
+        <v>Light</v>
+      </c>
+      <c r="H103" t="str">
+        <v>Economy</v>
+      </c>
+      <c r="I103" t="str">
+        <v>Light</v>
+      </c>
+      <c r="J103">
+        <v>1</v>
+      </c>
+      <c r="K103">
+        <v>0</v>
+      </c>
+      <c r="L103">
+        <v>0</v>
+      </c>
+      <c r="M103" t="str">
+        <v>EN</v>
+      </c>
+      <c r="N103" t="str">
+        <v>Juan</v>
+      </c>
+      <c r="O103" t="str">
+        <v>Perez</v>
+      </c>
+      <c r="P103" t="str">
+        <v>sofiainkoova@gmail.com</v>
+      </c>
+      <c r="Q103" t="str">
+        <v>+93 791234567</v>
+      </c>
+      <c r="R103" t="str">
+        <v>6445 6445 6445 6445</v>
+      </c>
+      <c r="S103" t="str">
+        <v>Test Discover GB</v>
+      </c>
+      <c r="T103" t="str">
+        <v>OUTBOUND</v>
+      </c>
+      <c r="U103" t="str">
+        <v>Tue, Jul 15</v>
+      </c>
+      <c r="V103" t="str">
+        <v>Economy</v>
+      </c>
+      <c r="W103" t="str">
+        <v>Light</v>
+      </c>
+      <c r="X103" t="str">
+        <v>Economy Light</v>
+      </c>
+      <c r="Y103" t="str">
+        <v>SCL</v>
+      </c>
+      <c r="Z103" t="str">
+        <v>Santiago</v>
+      </c>
+      <c r="AA103" t="str">
+        <v>BCN</v>
+      </c>
+      <c r="AB103" t="str">
+        <v>Barcelona</v>
+      </c>
+      <c r="AC103" t="str">
+        <v>10:25</v>
+      </c>
+      <c r="AD103" t="str">
+        <v>06:10</v>
+      </c>
+      <c r="AE103" t="str">
+        <v>13h 45m</v>
+      </c>
+      <c r="AF103" t="str">
+        <v>Yes</v>
+      </c>
+      <c r="AG103" t="str">
+        <v>IB</v>
+      </c>
+      <c r="AH103" t="str">
+        <v>ECONOMY</v>
+      </c>
+      <c r="AI103" t="str">
+        <v>$605</v>
+      </c>
+      <c r="AJ103" t="str">
+        <v>PREMIUM</v>
+      </c>
+      <c r="AK103" t="str">
+        <v>$630</v>
+      </c>
+      <c r="AL103" t="str">
+        <v>Juan</v>
+      </c>
+      <c r="AM103" t="str">
+        <v>Perez</v>
+      </c>
+      <c r="AN103" t="str">
+        <v>15</v>
+      </c>
+      <c r="AO103" t="str">
+        <v>Afghanistan</v>
+      </c>
+      <c r="AP103" t="str">
+        <v>Female</v>
+      </c>
+      <c r="AQ103" t="str">
+        <v/>
+      </c>
+      <c r="BQ103" t="str">
+        <v>INBOUND</v>
+      </c>
+      <c r="BR103" t="str">
+        <v>Wed, Jul 16</v>
+      </c>
+      <c r="BS103" t="str">
+        <v>Economy</v>
+      </c>
+      <c r="BT103" t="str">
+        <v>Light</v>
+      </c>
+      <c r="BU103" t="str">
+        <v>Economy Light</v>
+      </c>
+      <c r="BV103" t="str">
+        <v>BCN</v>
+      </c>
+      <c r="BW103" t="str">
+        <v>Barcelona</v>
+      </c>
+      <c r="BX103" t="str">
+        <v>SCL</v>
+      </c>
+      <c r="BY103" t="str">
+        <v>Santiago</v>
+      </c>
+      <c r="BZ103" t="str">
+        <v>00:05</v>
+      </c>
+      <c r="CA103" t="str">
+        <v>08:40</v>
+      </c>
+      <c r="CB103" t="str">
+        <v>14h 35m</v>
+      </c>
+      <c r="CC103" t="str">
+        <v>IB</v>
+      </c>
+      <c r="CD103" t="str">
+        <v>ECONOMY</v>
+      </c>
+      <c r="CE103" t="str">
+        <v>$771</v>
+      </c>
+      <c r="CF103" t="str">
+        <v>PREMIUM</v>
+      </c>
+      <c r="CG103" t="str">
+        <v>$917</v>
+      </c>
+    </row>
+    <row r="104">
+      <c r="A104" t="str">
+        <v>NELEL</v>
+      </c>
+      <c r="B104" t="str">
+        <v>7/3/2025, 14:01:17</v>
+      </c>
+      <c r="C104" t="str">
+        <v>SCL</v>
+      </c>
+      <c r="D104" t="str">
+        <v>BCN</v>
+      </c>
+      <c r="E104" t="str">
+        <v>Round Trip</v>
+      </c>
+      <c r="F104" t="str">
+        <v>Economy</v>
+      </c>
+      <c r="G104" t="str">
+        <v>Extra</v>
+      </c>
+      <c r="H104" t="str">
+        <v>Economy</v>
+      </c>
+      <c r="I104" t="str">
+        <v>Light</v>
+      </c>
+      <c r="J104">
+        <v>1</v>
+      </c>
+      <c r="K104">
+        <v>0</v>
+      </c>
+      <c r="L104">
+        <v>0</v>
+      </c>
+      <c r="M104" t="str">
+        <v>EN</v>
+      </c>
+      <c r="N104" t="str">
+        <v>Juan</v>
+      </c>
+      <c r="O104" t="str">
+        <v>Perez</v>
+      </c>
+      <c r="P104" t="str">
+        <v>sofiainkoova@gmail.com</v>
+      </c>
+      <c r="Q104" t="str">
+        <v>+93 791234567</v>
+      </c>
+      <c r="R104" t="str">
+        <v>3607 0500 0010 20</v>
+      </c>
+      <c r="S104" t="str">
+        <v>Test Diners NL</v>
+      </c>
+      <c r="T104" t="str">
+        <v>OUTBOUND</v>
+      </c>
+      <c r="U104" t="str">
+        <v>Sat, Jul 26</v>
+      </c>
+      <c r="V104" t="str">
+        <v>Economy</v>
+      </c>
+      <c r="W104" t="str">
+        <v>Extra</v>
+      </c>
+      <c r="X104" t="str">
+        <v>Economy Extra</v>
+      </c>
+      <c r="Y104" t="str">
+        <v>SCL</v>
+      </c>
+      <c r="Z104" t="str">
+        <v>Santiago</v>
+      </c>
+      <c r="AA104" t="str">
+        <v>BCN</v>
+      </c>
+      <c r="AB104" t="str">
+        <v>Barcelona</v>
+      </c>
+      <c r="AC104" t="str">
+        <v>10:25</v>
+      </c>
+      <c r="AD104" t="str">
+        <v>06:10</v>
+      </c>
+      <c r="AE104" t="str">
+        <v>13h 45m</v>
+      </c>
+      <c r="AF104" t="str">
+        <v>Yes</v>
+      </c>
+      <c r="AG104" t="str">
+        <v>IB</v>
+      </c>
+      <c r="AH104" t="str">
+        <v>ECONOMY</v>
+      </c>
+      <c r="AI104" t="str">
+        <v>$475</v>
+      </c>
+      <c r="AJ104" t="str">
+        <v>PREMIUM</v>
+      </c>
+      <c r="AK104" t="str">
+        <v>$630</v>
+      </c>
+      <c r="AL104" t="str">
+        <v>Juan</v>
+      </c>
+      <c r="AM104" t="str">
+        <v>Perez</v>
+      </c>
+      <c r="AN104" t="str">
+        <v>15</v>
+      </c>
+      <c r="AO104" t="str">
+        <v>Afghanistan</v>
+      </c>
+      <c r="AP104" t="str">
+        <v>Female</v>
+      </c>
+      <c r="AQ104" t="str">
+        <v/>
+      </c>
+      <c r="BQ104" t="str">
+        <v>INBOUND</v>
+      </c>
+      <c r="BR104" t="str">
+        <v>Tue, Jul 29</v>
+      </c>
+      <c r="BS104" t="str">
+        <v>Economy</v>
+      </c>
+      <c r="BT104" t="str">
+        <v>Light</v>
+      </c>
+      <c r="BU104" t="str">
+        <v>Economy Light</v>
+      </c>
+      <c r="BV104" t="str">
+        <v>BCN</v>
+      </c>
+      <c r="BW104" t="str">
+        <v>Barcelona</v>
+      </c>
+      <c r="BX104" t="str">
+        <v>SCL</v>
+      </c>
+      <c r="BY104" t="str">
+        <v>Santiago</v>
+      </c>
+      <c r="BZ104" t="str">
+        <v>00:05</v>
+      </c>
+      <c r="CA104" t="str">
+        <v>08:40</v>
+      </c>
+      <c r="CB104" t="str">
+        <v>14h 35m</v>
+      </c>
+      <c r="CC104" t="str">
+        <v>IB</v>
+      </c>
+      <c r="CD104" t="str">
+        <v>ECONOMY</v>
+      </c>
+      <c r="CE104" t="str">
+        <v>$701</v>
+      </c>
+      <c r="CF104" t="str">
+        <v>PREMIUM</v>
+      </c>
+      <c r="CG104" t="str">
+        <v>$1,217</v>
+      </c>
+    </row>
+    <row r="105">
+      <c r="A105" t="str">
+        <v>NELEV</v>
+      </c>
+      <c r="B105" t="str">
+        <v>7/3/2025, 14:01:37</v>
+      </c>
+      <c r="C105" t="str">
+        <v>SCL</v>
+      </c>
+      <c r="D105" t="str">
+        <v>BCN</v>
+      </c>
+      <c r="E105" t="str">
+        <v>Round Trip</v>
+      </c>
+      <c r="F105" t="str">
+        <v>Premium</v>
+      </c>
+      <c r="G105" t="str">
+        <v>Light</v>
+      </c>
+      <c r="H105" t="str">
+        <v>Economy</v>
+      </c>
+      <c r="I105" t="str">
+        <v>Comfort</v>
+      </c>
+      <c r="J105">
+        <v>1</v>
+      </c>
+      <c r="K105">
+        <v>0</v>
+      </c>
+      <c r="L105">
+        <v>0</v>
+      </c>
+      <c r="M105" t="str">
+        <v>EN</v>
+      </c>
+      <c r="N105" t="str">
+        <v>Juan</v>
+      </c>
+      <c r="O105" t="str">
+        <v>Perez</v>
+      </c>
+      <c r="P105" t="str">
+        <v>sofiainkoova@gmail.com</v>
+      </c>
+      <c r="Q105" t="str">
+        <v>+93 791234567</v>
+      </c>
+      <c r="R105" t="str">
+        <v>5577 0000 5577 0004</v>
+      </c>
+      <c r="S105" t="str">
+        <v>Sofia Martínez</v>
+      </c>
+      <c r="T105" t="str">
+        <v>OUTBOUND</v>
+      </c>
+      <c r="U105" t="str">
+        <v>Sat, Sep 6</v>
+      </c>
+      <c r="V105" t="str">
+        <v>Premium</v>
+      </c>
+      <c r="W105" t="str">
+        <v>Light</v>
+      </c>
+      <c r="X105" t="str">
+        <v>Premium Light</v>
+      </c>
+      <c r="Y105" t="str">
+        <v>SCL</v>
+      </c>
+      <c r="Z105" t="str">
+        <v>Santiago</v>
+      </c>
+      <c r="AA105" t="str">
+        <v>BCN</v>
+      </c>
+      <c r="AB105" t="str">
+        <v>Barcelona</v>
+      </c>
+      <c r="AC105" t="str">
+        <v>10:25</v>
+      </c>
+      <c r="AD105" t="str">
+        <v>06:10</v>
+      </c>
+      <c r="AE105" t="str">
+        <v>13h 45m</v>
+      </c>
+      <c r="AF105" t="str">
+        <v>Yes</v>
+      </c>
+      <c r="AG105" t="str">
+        <v>IB</v>
+      </c>
+      <c r="AH105" t="str">
+        <v>ECONOMY</v>
+      </c>
+      <c r="AI105" t="str">
+        <v>$645</v>
+      </c>
+      <c r="AJ105" t="str">
+        <v>PREMIUM</v>
+      </c>
+      <c r="AK105" t="str">
+        <v>$1,221</v>
+      </c>
+      <c r="AL105" t="str">
+        <v>Juan</v>
+      </c>
+      <c r="AM105" t="str">
+        <v>Perez</v>
+      </c>
+      <c r="AN105" t="str">
+        <v>15</v>
+      </c>
+      <c r="AO105" t="str">
+        <v>Afghanistan</v>
+      </c>
+      <c r="AP105" t="str">
+        <v>Female</v>
+      </c>
+      <c r="AQ105" t="str">
+        <v/>
+      </c>
+      <c r="BQ105" t="str">
+        <v>INBOUND</v>
+      </c>
+      <c r="BR105" t="str">
+        <v>Tue, Sep 9</v>
+      </c>
+      <c r="BS105" t="str">
+        <v>Economy</v>
+      </c>
+      <c r="BT105" t="str">
+        <v>Comfort</v>
+      </c>
+      <c r="BU105" t="str">
+        <v>Economy Comfort</v>
+      </c>
+      <c r="BV105" t="str">
+        <v>BCN</v>
+      </c>
+      <c r="BW105" t="str">
+        <v>Barcelona</v>
+      </c>
+      <c r="BX105" t="str">
+        <v>SCL</v>
+      </c>
+      <c r="BY105" t="str">
+        <v>Santiago</v>
+      </c>
+      <c r="BZ105" t="str">
+        <v>00:05</v>
+      </c>
+      <c r="CA105" t="str">
+        <v>09:40</v>
+      </c>
+      <c r="CB105" t="str">
+        <v>14h 35m</v>
+      </c>
+      <c r="CC105" t="str">
+        <v>IB</v>
+      </c>
+      <c r="CD105" t="str">
+        <v>ECONOMY</v>
+      </c>
+      <c r="CE105" t="str">
+        <v>$471</v>
+      </c>
+      <c r="CF105" t="str">
+        <v>PREMIUM</v>
+      </c>
+      <c r="CG105" t="str">
+        <v>$626</v>
+      </c>
+    </row>
+    <row r="106">
+      <c r="A106" t="str">
+        <v>NELEZ</v>
+      </c>
+      <c r="B106" t="str">
+        <v>7/3/2025, 14:02:38</v>
+      </c>
+      <c r="C106" t="str">
+        <v>SCL</v>
+      </c>
+      <c r="D106" t="str">
+        <v>BCN</v>
+      </c>
+      <c r="E106" t="str">
+        <v>Round Trip</v>
+      </c>
+      <c r="F106" t="str">
+        <v>Premium</v>
+      </c>
+      <c r="G106" t="str">
+        <v>Extra</v>
+      </c>
+      <c r="H106" t="str">
+        <v>Economy</v>
+      </c>
+      <c r="I106" t="str">
+        <v>Light</v>
+      </c>
+      <c r="J106">
+        <v>1</v>
+      </c>
+      <c r="K106">
+        <v>0</v>
+      </c>
+      <c r="L106">
+        <v>0</v>
+      </c>
+      <c r="M106" t="str">
+        <v>EN</v>
+      </c>
+      <c r="N106" t="str">
+        <v>Juan</v>
+      </c>
+      <c r="O106" t="str">
+        <v>Perez</v>
+      </c>
+      <c r="P106" t="str">
+        <v>sofiainkoova@gmail.com</v>
+      </c>
+      <c r="Q106" t="str">
+        <v>+93 791234567</v>
+      </c>
+      <c r="R106" t="str">
+        <v>4444 3333 2222 1111</v>
+      </c>
+      <c r="S106" t="str">
+        <v>Test Corporate</v>
+      </c>
+      <c r="T106" t="str">
+        <v>OUTBOUND</v>
+      </c>
+      <c r="U106" t="str">
+        <v>Wed, Sep 3</v>
+      </c>
+      <c r="V106" t="str">
+        <v>Premium</v>
+      </c>
+      <c r="W106" t="str">
+        <v>Extra</v>
+      </c>
+      <c r="X106" t="str">
+        <v>Premium Extra</v>
+      </c>
+      <c r="Y106" t="str">
+        <v>SCL</v>
+      </c>
+      <c r="Z106" t="str">
+        <v>Santiago</v>
+      </c>
+      <c r="AA106" t="str">
+        <v>BCN</v>
+      </c>
+      <c r="AB106" t="str">
+        <v>Barcelona</v>
+      </c>
+      <c r="AC106" t="str">
+        <v>10:25</v>
+      </c>
+      <c r="AD106" t="str">
+        <v>06:10</v>
+      </c>
+      <c r="AE106" t="str">
+        <v>13h 45m</v>
+      </c>
+      <c r="AF106" t="str">
+        <v>Yes</v>
+      </c>
+      <c r="AG106" t="str">
+        <v>IB</v>
+      </c>
+      <c r="AH106" t="str">
+        <v>ECONOMY</v>
+      </c>
+      <c r="AI106" t="str">
+        <v>$775</v>
+      </c>
+      <c r="AJ106" t="str">
+        <v>PREMIUM</v>
+      </c>
+      <c r="AK106" t="str">
+        <v>$921</v>
+      </c>
+      <c r="AL106" t="str">
+        <v>Juan</v>
+      </c>
+      <c r="AM106" t="str">
+        <v>Perez</v>
+      </c>
+      <c r="AN106" t="str">
+        <v>15</v>
+      </c>
+      <c r="AO106" t="str">
+        <v>Afghanistan</v>
+      </c>
+      <c r="AP106" t="str">
+        <v>Female</v>
+      </c>
+      <c r="AQ106" t="str">
+        <v/>
+      </c>
+      <c r="BQ106" t="str">
+        <v>INBOUND</v>
+      </c>
+      <c r="BR106" t="str">
+        <v>Thu, Sep 4</v>
+      </c>
+      <c r="BS106" t="str">
+        <v>Economy</v>
+      </c>
+      <c r="BT106" t="str">
+        <v>Light</v>
+      </c>
+      <c r="BU106" t="str">
+        <v>Economy Light</v>
+      </c>
+      <c r="BV106" t="str">
+        <v>BCN</v>
+      </c>
+      <c r="BW106" t="str">
+        <v>Barcelona</v>
+      </c>
+      <c r="BX106" t="str">
+        <v>SCL</v>
+      </c>
+      <c r="BY106" t="str">
+        <v>Santiago</v>
+      </c>
+      <c r="BZ106" t="str">
+        <v>00:05</v>
+      </c>
+      <c r="CA106" t="str">
+        <v>08:40</v>
+      </c>
+      <c r="CB106" t="str">
+        <v>14h 35m</v>
+      </c>
+      <c r="CC106" t="str">
+        <v>IB</v>
+      </c>
+      <c r="CD106" t="str">
+        <v>ECONOMY</v>
+      </c>
+      <c r="CE106" t="str">
+        <v>$601</v>
+      </c>
+      <c r="CF106" t="str">
+        <v>PREMIUM</v>
+      </c>
+      <c r="CG106" t="str">
+        <v>$626</v>
+      </c>
+    </row>
+    <row r="107">
+      <c r="A107" t="str">
+        <v>NELQT</v>
+      </c>
+      <c r="B107" t="str">
+        <v>7/3/2025, 15:04:48</v>
+      </c>
+      <c r="C107" t="str">
+        <v>SCL</v>
+      </c>
+      <c r="D107" t="str">
+        <v>BCN</v>
+      </c>
+      <c r="E107" t="str">
+        <v>One Way</v>
+      </c>
+      <c r="F107" t="str">
+        <v>Economy</v>
+      </c>
+      <c r="G107" t="str">
+        <v>Light</v>
+      </c>
+      <c r="H107" t="str">
+        <v>Economy</v>
+      </c>
+      <c r="I107" t="str">
+        <v>Light</v>
+      </c>
+      <c r="J107">
+        <v>1</v>
+      </c>
+      <c r="K107">
+        <v>0</v>
+      </c>
+      <c r="L107">
+        <v>0</v>
+      </c>
+      <c r="M107" t="str">
+        <v>EN</v>
+      </c>
+      <c r="N107" t="str">
+        <v>Juan</v>
+      </c>
+      <c r="O107" t="str">
+        <v>Perez</v>
+      </c>
+      <c r="P107" t="str">
+        <v>sofiainkoova@gmail.com</v>
+      </c>
+      <c r="Q107" t="str">
+        <v>+93 791234567</v>
+      </c>
+      <c r="R107" t="str">
+        <v>2222 4000 7000 0005</v>
+      </c>
+      <c r="S107" t="str">
+        <v>Juan Pablo Antonio Maximiliano Alejandro Fernández de Córdoba Sánchez</v>
+      </c>
+      <c r="T107" t="str">
+        <v>OUTBOUND</v>
+      </c>
+      <c r="U107" t="str">
+        <v>Wed, Jul 9</v>
+      </c>
+      <c r="V107" t="str">
+        <v>Economy</v>
+      </c>
+      <c r="W107" t="str">
+        <v>Light</v>
+      </c>
+      <c r="X107" t="str">
+        <v>Economy Light</v>
+      </c>
+      <c r="Y107" t="str">
+        <v>SCL</v>
+      </c>
+      <c r="Z107" t="str">
+        <v>Santiago</v>
+      </c>
+      <c r="AA107" t="str">
+        <v>BCN</v>
+      </c>
+      <c r="AB107" t="str">
+        <v>Barcelona</v>
+      </c>
+      <c r="AC107" t="str">
+        <v>10:25</v>
+      </c>
+      <c r="AD107" t="str">
+        <v>06:10</v>
+      </c>
+      <c r="AE107" t="str">
+        <v>13h 45m</v>
+      </c>
+      <c r="AF107" t="str">
+        <v>Yes</v>
+      </c>
+      <c r="AG107" t="str">
+        <v>IB</v>
+      </c>
+      <c r="AH107" t="str">
+        <v>ECONOMY</v>
+      </c>
+      <c r="AI107" t="str">
+        <v>$601</v>
+      </c>
+      <c r="AJ107" t="str">
+        <v>PREMIUM</v>
+      </c>
+      <c r="AK107" t="str">
+        <v>$751</v>
+      </c>
+      <c r="AL107" t="str">
+        <v>Juan</v>
+      </c>
+      <c r="AM107" t="str">
+        <v>Perez</v>
+      </c>
+      <c r="AN107" t="str">
+        <v>15</v>
+      </c>
+      <c r="AO107" t="str">
+        <v>Afghanistan</v>
+      </c>
+      <c r="AP107" t="str">
+        <v>Female</v>
+      </c>
+      <c r="AQ107" t="str">
+        <v/>
+      </c>
+    </row>
+    <row r="108">
+      <c r="A108" t="str">
+        <v>NELQV</v>
+      </c>
+      <c r="B108" t="str">
+        <v>7/3/2025, 15:04:54</v>
+      </c>
+      <c r="C108" t="str">
+        <v>SCL</v>
+      </c>
+      <c r="D108" t="str">
+        <v>BCN</v>
+      </c>
+      <c r="E108" t="str">
+        <v>One Way</v>
+      </c>
+      <c r="F108" t="str">
+        <v>Economy</v>
+      </c>
+      <c r="G108" t="str">
+        <v>Light</v>
+      </c>
+      <c r="H108" t="str">
+        <v>Economy</v>
+      </c>
+      <c r="I108" t="str">
+        <v>Light</v>
+      </c>
+      <c r="J108">
+        <v>1</v>
+      </c>
+      <c r="K108">
+        <v>1</v>
+      </c>
+      <c r="L108">
+        <v>0</v>
+      </c>
+      <c r="M108" t="str">
+        <v>EN</v>
+      </c>
+      <c r="N108" t="str">
+        <v>Juan</v>
+      </c>
+      <c r="O108" t="str">
+        <v>Perez</v>
+      </c>
+      <c r="P108" t="str">
+        <v>sofiainkoova@gmail.com</v>
+      </c>
+      <c r="Q108" t="str">
+        <v>+93 791234567</v>
+      </c>
+      <c r="R108" t="str">
+        <v>4444 3333 2222 1111</v>
+      </c>
+      <c r="S108" t="str">
+        <v>Test Corporate</v>
+      </c>
+      <c r="T108" t="str">
+        <v>OUTBOUND</v>
+      </c>
+      <c r="U108" t="str">
+        <v>Sat, Aug 16</v>
+      </c>
+      <c r="V108" t="str">
+        <v>Economy</v>
+      </c>
+      <c r="W108" t="str">
+        <v>Light</v>
+      </c>
+      <c r="X108" t="str">
+        <v>Economy Light</v>
+      </c>
+      <c r="Y108" t="str">
+        <v>SCL</v>
+      </c>
+      <c r="Z108" t="str">
+        <v>Santiago</v>
+      </c>
+      <c r="AA108" t="str">
+        <v>BCN</v>
+      </c>
+      <c r="AB108" t="str">
+        <v>Barcelona</v>
+      </c>
+      <c r="AC108" t="str">
+        <v>10:25</v>
+      </c>
+      <c r="AD108" t="str">
+        <v>06:10</v>
+      </c>
+      <c r="AE108" t="str">
+        <v>13h 45m</v>
+      </c>
+      <c r="AF108" t="str">
+        <v>Yes</v>
+      </c>
+      <c r="AG108" t="str">
+        <v>IB</v>
+      </c>
+      <c r="AH108" t="str">
+        <v>ECONOMY</v>
+      </c>
+      <c r="AI108" t="str">
+        <v>$601</v>
+      </c>
+      <c r="AJ108" t="str">
+        <v>PREMIUM</v>
+      </c>
+      <c r="AK108" t="str">
+        <v>$751</v>
+      </c>
+      <c r="AL108" t="str">
+        <v>Juan</v>
+      </c>
+      <c r="AM108" t="str">
+        <v>Perez</v>
+      </c>
+      <c r="AN108" t="str">
+        <v>15</v>
+      </c>
+      <c r="AO108" t="str">
+        <v>Afghanistan</v>
+      </c>
+      <c r="AP108" t="str">
+        <v>Female</v>
+      </c>
+      <c r="AQ108" t="str">
+        <v/>
+      </c>
+      <c r="AX108" t="str">
+        <v>Valería M.</v>
+      </c>
+      <c r="AY108" t="str">
+        <v>García</v>
+      </c>
+      <c r="AZ108" t="str">
+        <v>10</v>
+      </c>
+      <c r="BA108" t="str">
+        <v>Mexico</v>
+      </c>
+      <c r="BB108" t="str">
+        <v/>
+      </c>
+    </row>
+    <row r="109">
+      <c r="A109" t="str">
+        <v>NELQW</v>
+      </c>
+      <c r="B109" t="str">
+        <v>7/3/2025, 15:04:57</v>
+      </c>
+      <c r="C109" t="str">
+        <v>SCL</v>
+      </c>
+      <c r="D109" t="str">
+        <v>BCN</v>
+      </c>
+      <c r="E109" t="str">
+        <v>One Way</v>
+      </c>
+      <c r="F109" t="str">
+        <v>Economy</v>
+      </c>
+      <c r="G109" t="str">
+        <v>Light</v>
+      </c>
+      <c r="H109" t="str">
+        <v>Economy</v>
+      </c>
+      <c r="I109" t="str">
+        <v>Light</v>
+      </c>
+      <c r="J109">
+        <v>2</v>
+      </c>
+      <c r="K109">
+        <v>0</v>
+      </c>
+      <c r="L109">
+        <v>0</v>
+      </c>
+      <c r="M109" t="str">
+        <v>EN</v>
+      </c>
+      <c r="N109" t="str">
+        <v>Prueba</v>
+      </c>
+      <c r="O109" t="str">
+        <v>Hola</v>
+      </c>
+      <c r="P109" t="str">
+        <v>sofiainkoova@gmail.com</v>
+      </c>
+      <c r="Q109" t="str">
+        <v>+93 791234567</v>
+      </c>
+      <c r="R109" t="str">
+        <v>5577 0000 5577 0004</v>
+      </c>
+      <c r="S109" t="str">
+        <v>Sofia Martínez</v>
+      </c>
+      <c r="T109" t="str">
+        <v>OUTBOUND</v>
+      </c>
+      <c r="U109" t="str">
+        <v>Tue, Jul 22</v>
+      </c>
+      <c r="V109" t="str">
+        <v>Economy</v>
+      </c>
+      <c r="W109" t="str">
+        <v>Light</v>
+      </c>
+      <c r="X109" t="str">
+        <v>Economy Light</v>
+      </c>
+      <c r="Y109" t="str">
+        <v>SCL</v>
+      </c>
+      <c r="Z109" t="str">
+        <v>Santiago</v>
+      </c>
+      <c r="AA109" t="str">
+        <v>BCN</v>
+      </c>
+      <c r="AB109" t="str">
+        <v>Barcelona</v>
+      </c>
+      <c r="AC109" t="str">
+        <v>10:25</v>
+      </c>
+      <c r="AD109" t="str">
+        <v>06:10</v>
+      </c>
+      <c r="AE109" t="str">
+        <v>13h 45m</v>
+      </c>
+      <c r="AF109" t="str">
+        <v>Yes</v>
+      </c>
+      <c r="AG109" t="str">
+        <v>IB</v>
+      </c>
+      <c r="AH109" t="str">
+        <v>ECONOMY</v>
+      </c>
+      <c r="AI109" t="str">
+        <v>$565</v>
+      </c>
+      <c r="AJ109" t="str">
+        <v>PREMIUM</v>
+      </c>
+      <c r="AK109" t="str">
+        <v>$751</v>
+      </c>
+      <c r="AL109" t="str">
+        <v>Prueba</v>
+      </c>
+      <c r="AM109" t="str">
+        <v>Hola</v>
+      </c>
+      <c r="AN109" t="str">
+        <v>25</v>
+      </c>
+      <c r="AO109" t="str">
+        <v>Afghanistan</v>
+      </c>
+      <c r="AP109" t="str">
+        <v>Female</v>
+      </c>
+      <c r="AQ109" t="str">
+        <v/>
+      </c>
+      <c r="AR109" t="str">
+        <v>Sofía</v>
+      </c>
+      <c r="AS109" t="str">
+        <v>Pérez</v>
+      </c>
+      <c r="AT109" t="str">
+        <v>34</v>
+      </c>
+      <c r="AU109" t="str">
+        <v>Afghanistan</v>
+      </c>
+      <c r="AV109" t="str">
+        <v>Female</v>
+      </c>
+      <c r="AW109" t="str">
+        <v/>
+      </c>
+    </row>
+    <row r="110">
+      <c r="A110" t="str">
+        <v>LF6ZH</v>
+      </c>
+      <c r="B110" t="str">
+        <v>10/3/2025, 9:00:46</v>
+      </c>
+      <c r="C110" t="str">
+        <v>SCL</v>
+      </c>
+      <c r="D110" t="str">
+        <v>BCN</v>
+      </c>
+      <c r="E110" t="str">
+        <v>Round Trip</v>
+      </c>
+      <c r="F110" t="str">
+        <v>Economy</v>
+      </c>
+      <c r="G110" t="str">
+        <v>Light</v>
+      </c>
+      <c r="H110" t="str">
+        <v>Economy</v>
+      </c>
+      <c r="I110" t="str">
+        <v>Light</v>
+      </c>
+      <c r="J110">
+        <v>1</v>
+      </c>
+      <c r="K110">
+        <v>0</v>
+      </c>
+      <c r="L110">
+        <v>0</v>
+      </c>
+      <c r="M110" t="str">
+        <v>EN</v>
+      </c>
+      <c r="N110" t="str">
+        <v>Juan</v>
+      </c>
+      <c r="O110" t="str">
+        <v>Perez</v>
+      </c>
+      <c r="P110" t="str">
+        <v>sofiainkoova@gmail.com</v>
+      </c>
+      <c r="Q110" t="str">
+        <v>+93 791234567</v>
+      </c>
+      <c r="R110" t="str">
+        <v>5555 4444 3333 1111</v>
+      </c>
+      <c r="S110" t="str">
+        <v>Test Consumer</v>
+      </c>
+      <c r="T110" t="str">
+        <v>OUTBOUND</v>
+      </c>
+      <c r="U110" t="str">
+        <v>Thu, Aug 7</v>
+      </c>
+      <c r="V110" t="str">
+        <v>Economy</v>
+      </c>
+      <c r="W110" t="str">
+        <v>Light</v>
+      </c>
+      <c r="X110" t="str">
+        <v>Economy Light</v>
+      </c>
+      <c r="Y110" t="str">
+        <v>SCL</v>
+      </c>
+      <c r="Z110" t="str">
+        <v>Santiago</v>
+      </c>
+      <c r="AA110" t="str">
+        <v>BCN</v>
+      </c>
+      <c r="AB110" t="str">
+        <v>Barcelona</v>
+      </c>
+      <c r="AC110" t="str">
+        <v>10:25</v>
+      </c>
+      <c r="AD110" t="str">
+        <v>06:10</v>
+      </c>
+      <c r="AE110" t="str">
+        <v>13h 45m</v>
+      </c>
+      <c r="AF110" t="str">
+        <v>Yes</v>
+      </c>
+      <c r="AG110" t="str">
+        <v>IB</v>
+      </c>
+      <c r="AH110" t="str">
+        <v>ECONOMY</v>
+      </c>
+      <c r="AI110" t="str">
+        <v>$475</v>
+      </c>
+      <c r="AJ110" t="str">
+        <v>PREMIUM</v>
+      </c>
+      <c r="AK110" t="str">
+        <v>$630</v>
+      </c>
+      <c r="AL110" t="str">
+        <v>Juan</v>
+      </c>
+      <c r="AM110" t="str">
+        <v>Perez</v>
+      </c>
+      <c r="AN110" t="str">
+        <v>15</v>
+      </c>
+      <c r="AO110" t="str">
+        <v>Afghanistan</v>
+      </c>
+      <c r="AP110" t="str">
+        <v>Female</v>
+      </c>
+      <c r="AQ110" t="str">
+        <v/>
+      </c>
+      <c r="BQ110" t="str">
+        <v>INBOUND</v>
+      </c>
+      <c r="BR110" t="str">
+        <v>Sat, Aug 9</v>
+      </c>
+      <c r="BS110" t="str">
+        <v>Economy</v>
+      </c>
+      <c r="BT110" t="str">
+        <v>Light</v>
+      </c>
+      <c r="BU110" t="str">
+        <v>Economy Light</v>
+      </c>
+      <c r="BV110" t="str">
+        <v>BCN</v>
+      </c>
+      <c r="BW110" t="str">
+        <v>Barcelona</v>
+      </c>
+      <c r="BX110" t="str">
+        <v>SCL</v>
+      </c>
+      <c r="BY110" t="str">
+        <v>Santiago</v>
+      </c>
+      <c r="BZ110" t="str">
+        <v>00:05</v>
+      </c>
+      <c r="CA110" t="str">
+        <v>08:40</v>
+      </c>
+      <c r="CB110" t="str">
+        <v>14h 35m</v>
+      </c>
+      <c r="CC110" t="str">
+        <v>IB</v>
+      </c>
+      <c r="CD110" t="str">
+        <v>ECONOMY</v>
+      </c>
+      <c r="CE110" t="str">
+        <v>$592</v>
+      </c>
+      <c r="CF110" t="str">
+        <v>PREMIUM</v>
+      </c>
+      <c r="CG110" t="str">
+        <v>$918</v>
+      </c>
+    </row>
+    <row r="111">
+      <c r="A111" t="str">
+        <v>LF70Z</v>
+      </c>
+      <c r="B111" t="str">
+        <v>10/3/2025, 9:07:30</v>
+      </c>
+      <c r="C111" t="str">
+        <v>SCL</v>
+      </c>
+      <c r="D111" t="str">
+        <v>BCN</v>
+      </c>
+      <c r="E111" t="str">
+        <v>One Way</v>
+      </c>
+      <c r="F111" t="str">
+        <v>Economy</v>
+      </c>
+      <c r="G111" t="str">
+        <v>Light</v>
+      </c>
+      <c r="H111" t="str">
+        <v>Economy</v>
+      </c>
+      <c r="I111" t="str">
+        <v>Light</v>
+      </c>
+      <c r="J111">
+        <v>1</v>
+      </c>
+      <c r="K111">
+        <v>0</v>
+      </c>
+      <c r="L111">
+        <v>0</v>
+      </c>
+      <c r="M111" t="str">
+        <v>EN</v>
+      </c>
+      <c r="N111" t="str">
+        <v>Juan</v>
+      </c>
+      <c r="O111" t="str">
+        <v>Perez</v>
+      </c>
+      <c r="P111" t="str">
+        <v>sofiainkoova@gmail.com</v>
+      </c>
+      <c r="Q111" t="str">
+        <v>+93 791234567</v>
+      </c>
+      <c r="R111" t="str">
+        <v>2222 4000 7000 0005</v>
+      </c>
+      <c r="S111" t="str">
+        <v>Juan Pablo Antonio Maximiliano Alejandro Fernández de Córdoba Sánchez</v>
+      </c>
+      <c r="T111" t="str">
+        <v>OUTBOUND</v>
+      </c>
+      <c r="U111" t="str">
+        <v>Tue, Aug 26</v>
+      </c>
+      <c r="V111" t="str">
+        <v>Economy</v>
+      </c>
+      <c r="W111" t="str">
+        <v>Light</v>
+      </c>
+      <c r="X111" t="str">
+        <v>Economy Light</v>
+      </c>
+      <c r="Y111" t="str">
+        <v>SCL</v>
+      </c>
+      <c r="Z111" t="str">
+        <v>Santiago</v>
+      </c>
+      <c r="AA111" t="str">
+        <v>BCN</v>
+      </c>
+      <c r="AB111" t="str">
+        <v>Barcelona</v>
+      </c>
+      <c r="AC111" t="str">
+        <v>10:25</v>
+      </c>
+      <c r="AD111" t="str">
+        <v>06:10</v>
+      </c>
+      <c r="AE111" t="str">
+        <v>13h 45m</v>
+      </c>
+      <c r="AF111" t="str">
+        <v>Yes</v>
+      </c>
+      <c r="AG111" t="str">
+        <v>IB</v>
+      </c>
+      <c r="AH111" t="str">
+        <v>ECONOMY</v>
+      </c>
+      <c r="AI111" t="str">
+        <v>$714</v>
+      </c>
+      <c r="AJ111" t="str">
+        <v>PREMIUM</v>
+      </c>
+      <c r="AK111" t="str">
+        <v>$1,190</v>
+      </c>
+      <c r="AL111" t="str">
+        <v>Juan</v>
+      </c>
+      <c r="AM111" t="str">
+        <v>Perez</v>
+      </c>
+      <c r="AN111" t="str">
+        <v>15</v>
+      </c>
+      <c r="AO111" t="str">
+        <v>Afghanistan</v>
+      </c>
+      <c r="AP111" t="str">
+        <v>Female</v>
+      </c>
+      <c r="AQ111" t="str">
+        <v/>
+      </c>
+    </row>
+    <row r="112">
+      <c r="A112" t="str">
+        <v>LF71T</v>
+      </c>
+      <c r="B112" t="str">
+        <v>10/3/2025, 9:13:24</v>
+      </c>
+      <c r="C112" t="str">
+        <v>SCL</v>
+      </c>
+      <c r="D112" t="str">
+        <v>BCN</v>
+      </c>
+      <c r="E112" t="str">
+        <v>One Way</v>
+      </c>
+      <c r="F112" t="str">
+        <v>Economy</v>
+      </c>
+      <c r="G112" t="str">
+        <v>Light</v>
+      </c>
+      <c r="H112" t="str">
+        <v>Economy</v>
+      </c>
+      <c r="I112" t="str">
+        <v>Light</v>
+      </c>
+      <c r="J112">
+        <v>1</v>
+      </c>
+      <c r="K112">
+        <v>1</v>
+      </c>
+      <c r="L112">
+        <v>0</v>
+      </c>
+      <c r="M112" t="str">
+        <v>EN</v>
+      </c>
+      <c r="N112" t="str">
+        <v>Juan</v>
+      </c>
+      <c r="O112" t="str">
+        <v>Perez</v>
+      </c>
+      <c r="P112" t="str">
+        <v>sofiainkoova@gmail.com</v>
+      </c>
+      <c r="Q112" t="str">
+        <v>+93 791234567</v>
+      </c>
+      <c r="R112" t="str">
+        <v>4444 3333 2222 1111</v>
+      </c>
+      <c r="S112" t="str">
+        <v>Test Corporate</v>
+      </c>
+      <c r="T112" t="str">
+        <v>OUTBOUND</v>
+      </c>
+      <c r="U112" t="str">
+        <v>Wed, Aug 6</v>
+      </c>
+      <c r="V112" t="str">
+        <v>Economy</v>
+      </c>
+      <c r="W112" t="str">
+        <v>Light</v>
+      </c>
+      <c r="X112" t="str">
+        <v>Economy Light</v>
+      </c>
+      <c r="Y112" t="str">
+        <v>SCL</v>
+      </c>
+      <c r="Z112" t="str">
+        <v>Santiago</v>
+      </c>
+      <c r="AA112" t="str">
+        <v>BCN</v>
+      </c>
+      <c r="AB112" t="str">
+        <v>Barcelona</v>
+      </c>
+      <c r="AC112" t="str">
+        <v>10:25</v>
+      </c>
+      <c r="AD112" t="str">
+        <v>06:10</v>
+      </c>
+      <c r="AE112" t="str">
+        <v>13h 45m</v>
+      </c>
+      <c r="AF112" t="str">
+        <v>Yes</v>
+      </c>
+      <c r="AG112" t="str">
+        <v>IB</v>
+      </c>
+      <c r="AH112" t="str">
+        <v>ECONOMY</v>
+      </c>
+      <c r="AI112" t="str">
+        <v>$565</v>
+      </c>
+      <c r="AJ112" t="str">
+        <v>PREMIUM</v>
+      </c>
+      <c r="AK112" t="str">
+        <v>$751</v>
+      </c>
+      <c r="AL112" t="str">
+        <v>Juan</v>
+      </c>
+      <c r="AM112" t="str">
+        <v>Perez</v>
+      </c>
+      <c r="AN112" t="str">
+        <v>15</v>
+      </c>
+      <c r="AO112" t="str">
+        <v>Afghanistan</v>
+      </c>
+      <c r="AP112" t="str">
+        <v>Female</v>
+      </c>
+      <c r="AQ112" t="str">
+        <v/>
+      </c>
+      <c r="AX112" t="str">
+        <v>Valería M.</v>
+      </c>
+      <c r="AY112" t="str">
+        <v>García</v>
+      </c>
+      <c r="AZ112" t="str">
+        <v>10</v>
+      </c>
+      <c r="BA112" t="str">
+        <v>Mexico</v>
+      </c>
+      <c r="BB112" t="str">
+        <v/>
+      </c>
+    </row>
+    <row r="113">
+      <c r="A113" t="str">
+        <v>LF71W</v>
+      </c>
+      <c r="B113" t="str">
+        <v>10/3/2025, 9:13:45</v>
+      </c>
+      <c r="C113" t="str">
+        <v>SCL</v>
+      </c>
+      <c r="D113" t="str">
+        <v>BCN</v>
+      </c>
+      <c r="E113" t="str">
+        <v>One Way</v>
+      </c>
+      <c r="F113" t="str">
+        <v>Economy</v>
+      </c>
+      <c r="G113" t="str">
+        <v>Light</v>
+      </c>
+      <c r="H113" t="str">
+        <v>Economy</v>
+      </c>
+      <c r="I113" t="str">
+        <v>Light</v>
+      </c>
+      <c r="J113">
+        <v>1</v>
+      </c>
+      <c r="K113">
+        <v>0</v>
+      </c>
+      <c r="L113">
+        <v>1</v>
+      </c>
+      <c r="M113" t="str">
+        <v>EN</v>
+      </c>
+      <c r="N113" t="str">
+        <v>Juan</v>
+      </c>
+      <c r="O113" t="str">
+        <v>Perez</v>
+      </c>
+      <c r="P113" t="str">
+        <v>sofiainkoova@gmail.com</v>
+      </c>
+      <c r="Q113" t="str">
+        <v>+93 791234567</v>
+      </c>
+      <c r="R113" t="str">
+        <v>6011 6011 6011 6611</v>
+      </c>
+      <c r="S113" t="str">
+        <v>Test Discover</v>
+      </c>
+      <c r="T113" t="str">
+        <v>OUTBOUND</v>
+      </c>
+      <c r="U113" t="str">
+        <v>Tue, Aug 19</v>
+      </c>
+      <c r="V113" t="str">
+        <v>Economy</v>
+      </c>
+      <c r="W113" t="str">
+        <v>Light</v>
+      </c>
+      <c r="X113" t="str">
+        <v>Economy Light</v>
+      </c>
+      <c r="Y113" t="str">
+        <v>SCL</v>
+      </c>
+      <c r="Z113" t="str">
+        <v>Santiago</v>
+      </c>
+      <c r="AA113" t="str">
+        <v>BCN</v>
+      </c>
+      <c r="AB113" t="str">
+        <v>Barcelona</v>
+      </c>
+      <c r="AC113" t="str">
+        <v>10:25</v>
+      </c>
+      <c r="AD113" t="str">
+        <v>06:10</v>
+      </c>
+      <c r="AE113" t="str">
+        <v>13h 45m</v>
+      </c>
+      <c r="AF113" t="str">
+        <v>Yes</v>
+      </c>
+      <c r="AG113" t="str">
+        <v>IB</v>
+      </c>
+      <c r="AH113" t="str">
+        <v>ECONOMY</v>
+      </c>
+      <c r="AI113" t="str">
+        <v>$565</v>
+      </c>
+      <c r="AJ113" t="str">
+        <v>PREMIUM</v>
+      </c>
+      <c r="AK113" t="str">
+        <v>$751</v>
+      </c>
+      <c r="AL113" t="str">
+        <v>Juan</v>
+      </c>
+      <c r="AM113" t="str">
+        <v>Perez</v>
+      </c>
+      <c r="AN113" t="str">
+        <v>15</v>
+      </c>
+      <c r="AO113" t="str">
+        <v>Afghanistan</v>
+      </c>
+      <c r="AP113" t="str">
+        <v>Female</v>
+      </c>
+      <c r="AQ113" t="str">
+        <v/>
+      </c>
+      <c r="BM113" t="str">
+        <v>Mateó</v>
+      </c>
+      <c r="BN113" t="str">
+        <v>Rodríguez</v>
+      </c>
+      <c r="BO113" t="str">
+        <v>0</v>
+      </c>
+      <c r="BP113" t="str">
+        <v>Chile</v>
+      </c>
+    </row>
+    <row r="114">
+      <c r="A114" t="str">
+        <v>LF71Y</v>
+      </c>
+      <c r="B114" t="str">
+        <v>10/3/2025, 9:13:49</v>
+      </c>
+      <c r="C114" t="str">
+        <v>SCL</v>
+      </c>
+      <c r="D114" t="str">
+        <v>BCN</v>
+      </c>
+      <c r="E114" t="str">
+        <v>One Way</v>
+      </c>
+      <c r="F114" t="str">
+        <v>Economy</v>
+      </c>
+      <c r="G114" t="str">
+        <v>Light</v>
+      </c>
+      <c r="H114" t="str">
+        <v>Economy</v>
+      </c>
+      <c r="I114" t="str">
+        <v>Light</v>
+      </c>
+      <c r="J114">
+        <v>1</v>
+      </c>
+      <c r="K114">
+        <v>3</v>
+      </c>
+      <c r="L114">
+        <v>0</v>
+      </c>
+      <c r="M114" t="str">
+        <v>EN</v>
+      </c>
+      <c r="N114" t="str">
+        <v>Juan</v>
+      </c>
+      <c r="O114" t="str">
+        <v>Perez</v>
+      </c>
+      <c r="P114" t="str">
+        <v>sofiainkoova@gmail.com</v>
+      </c>
+      <c r="Q114" t="str">
+        <v>+93 791234567</v>
+      </c>
+      <c r="R114" t="str">
+        <v>2222 4107 4036 0010</v>
+      </c>
+      <c r="S114" t="str">
+        <v>Test Corporate</v>
+      </c>
+      <c r="T114" t="str">
+        <v>OUTBOUND</v>
+      </c>
+      <c r="U114" t="str">
+        <v>Wed, Jul 30</v>
+      </c>
+      <c r="V114" t="str">
+        <v>Economy</v>
+      </c>
+      <c r="W114" t="str">
+        <v>Light</v>
+      </c>
+      <c r="X114" t="str">
+        <v>Economy Light</v>
+      </c>
+      <c r="Y114" t="str">
+        <v>SCL</v>
+      </c>
+      <c r="Z114" t="str">
+        <v>Santiago</v>
+      </c>
+      <c r="AA114" t="str">
+        <v>BCN</v>
+      </c>
+      <c r="AB114" t="str">
+        <v>Barcelona</v>
+      </c>
+      <c r="AC114" t="str">
+        <v>10:25</v>
+      </c>
+      <c r="AD114" t="str">
+        <v>06:10</v>
+      </c>
+      <c r="AE114" t="str">
+        <v>13h 45m</v>
+      </c>
+      <c r="AF114" t="str">
+        <v>Yes</v>
+      </c>
+      <c r="AG114" t="str">
+        <v>IB</v>
+      </c>
+      <c r="AH114" t="str">
+        <v>ECONOMY</v>
+      </c>
+      <c r="AI114" t="str">
+        <v>$565</v>
+      </c>
+      <c r="AJ114" t="str">
+        <v>PREMIUM</v>
+      </c>
+      <c r="AK114" t="str">
+        <v>$751</v>
+      </c>
+      <c r="AL114" t="str">
+        <v>Juan</v>
+      </c>
+      <c r="AM114" t="str">
+        <v>Perez</v>
+      </c>
+      <c r="AN114" t="str">
+        <v>15</v>
+      </c>
+      <c r="AO114" t="str">
+        <v>Afghanistan</v>
+      </c>
+      <c r="AP114" t="str">
+        <v>Female</v>
+      </c>
+      <c r="AQ114" t="str">
+        <v/>
+      </c>
+      <c r="AX114" t="str">
+        <v>Daniel</v>
+      </c>
+      <c r="AY114" t="str">
+        <v>Cruz</v>
+      </c>
+      <c r="AZ114" t="str">
+        <v>10</v>
+      </c>
+      <c r="BA114" t="str">
+        <v>Peru</v>
+      </c>
+      <c r="BB114" t="str">
+        <v>Help with climbing and descending stairs. I can move around the plane without difficulty</v>
+      </c>
+      <c r="BC114" t="str">
+        <v>Isabella</v>
+      </c>
+      <c r="BD114" t="str">
+        <v>Sánchez</v>
+      </c>
+      <c r="BE114" t="str">
+        <v>4</v>
+      </c>
+      <c r="BF114" t="str">
+        <v>Colombia</v>
+      </c>
+      <c r="BG114" t="str">
+        <v/>
+      </c>
+      <c r="BH114" t="str">
+        <v>Diego</v>
+      </c>
+      <c r="BI114" t="str">
+        <v>Martínez</v>
+      </c>
+      <c r="BJ114" t="str">
+        <v>8</v>
+      </c>
+      <c r="BK114" t="str">
+        <v>Chile</v>
+      </c>
+      <c r="BL114" t="str">
+        <v/>
+      </c>
+    </row>
+    <row r="115">
+      <c r="A115" t="str">
+        <v>LF729</v>
+      </c>
+      <c r="B115" t="str">
+        <v>10/3/2025, 9:15:38</v>
+      </c>
+      <c r="C115" t="str">
+        <v>SCL</v>
+      </c>
+      <c r="D115" t="str">
+        <v>BCN</v>
+      </c>
+      <c r="E115" t="str">
+        <v>One Way</v>
+      </c>
+      <c r="F115" t="str">
+        <v>Economy</v>
+      </c>
+      <c r="G115" t="str">
+        <v>Comfort</v>
+      </c>
+      <c r="H115" t="str">
+        <v>Economy</v>
+      </c>
+      <c r="I115" t="str">
+        <v>Comfort</v>
+      </c>
+      <c r="J115">
+        <v>1</v>
+      </c>
+      <c r="K115">
+        <v>0</v>
+      </c>
+      <c r="L115">
+        <v>0</v>
+      </c>
+      <c r="M115" t="str">
+        <v>EN</v>
+      </c>
+      <c r="N115" t="str">
+        <v>Juan</v>
+      </c>
+      <c r="O115" t="str">
+        <v>Perez</v>
+      </c>
+      <c r="P115" t="str">
+        <v>sofiainkoova@gmail.com</v>
+      </c>
+      <c r="Q115" t="str">
+        <v>+93 791234567</v>
+      </c>
+      <c r="R115" t="str">
+        <v>3600 6666 3333 44</v>
+      </c>
+      <c r="S115" t="str">
+        <v>Test Diners</v>
+      </c>
+      <c r="T115" t="str">
+        <v>OUTBOUND</v>
+      </c>
+      <c r="U115" t="str">
+        <v>Tue, Aug 5</v>
+      </c>
+      <c r="V115" t="str">
+        <v>Economy</v>
+      </c>
+      <c r="W115" t="str">
+        <v>Comfort</v>
+      </c>
+      <c r="X115" t="str">
+        <v>Economy Comfort</v>
+      </c>
+      <c r="Y115" t="str">
+        <v>SCL</v>
+      </c>
+      <c r="Z115" t="str">
+        <v>Santiago</v>
+      </c>
+      <c r="AA115" t="str">
+        <v>BCN</v>
+      </c>
+      <c r="AB115" t="str">
+        <v>Barcelona</v>
+      </c>
+      <c r="AC115" t="str">
+        <v>10:25</v>
+      </c>
+      <c r="AD115" t="str">
+        <v>06:10</v>
+      </c>
+      <c r="AE115" t="str">
+        <v>13h 45m</v>
+      </c>
+      <c r="AF115" t="str">
+        <v>Yes</v>
+      </c>
+      <c r="AG115" t="str">
+        <v>IB</v>
+      </c>
+      <c r="AH115" t="str">
+        <v>ECONOMY</v>
+      </c>
+      <c r="AI115" t="str">
+        <v>$565</v>
+      </c>
+      <c r="AJ115" t="str">
+        <v>PREMIUM</v>
+      </c>
+      <c r="AK115" t="str">
+        <v>$751</v>
+      </c>
+      <c r="AL115" t="str">
+        <v>Juan</v>
+      </c>
+      <c r="AM115" t="str">
+        <v>Perez</v>
+      </c>
+      <c r="AN115" t="str">
+        <v>15</v>
+      </c>
+      <c r="AO115" t="str">
+        <v>Afghanistan</v>
+      </c>
+      <c r="AP115" t="str">
+        <v>Female</v>
+      </c>
+      <c r="AQ115" t="str">
+        <v/>
+      </c>
+    </row>
+    <row r="116">
+      <c r="A116" t="str">
+        <v>LF72B</v>
+      </c>
+      <c r="B116" t="str">
+        <v>10/3/2025, 9:16:01</v>
+      </c>
+      <c r="C116" t="str">
+        <v>SCL</v>
+      </c>
+      <c r="D116" t="str">
+        <v>BCN</v>
+      </c>
+      <c r="E116" t="str">
+        <v>One Way</v>
+      </c>
+      <c r="F116" t="str">
+        <v>Premium</v>
+      </c>
+      <c r="G116" t="str">
+        <v>Light</v>
+      </c>
+      <c r="H116" t="str">
+        <v>Economy</v>
+      </c>
+      <c r="I116" t="str">
+        <v>Comfort</v>
+      </c>
+      <c r="J116">
+        <v>1</v>
+      </c>
+      <c r="K116">
+        <v>0</v>
+      </c>
+      <c r="L116">
+        <v>0</v>
+      </c>
+      <c r="M116" t="str">
+        <v>EN</v>
+      </c>
+      <c r="N116" t="str">
+        <v>Juan</v>
+      </c>
+      <c r="O116" t="str">
+        <v>Perez</v>
+      </c>
+      <c r="P116" t="str">
+        <v>sofiainkoova@gmail.com</v>
+      </c>
+      <c r="Q116" t="str">
+        <v>+93 791234567</v>
+      </c>
+      <c r="R116" t="str">
+        <v>5577 0000 5577 0004</v>
+      </c>
+      <c r="S116" t="str">
+        <v>Sofia Martínez</v>
+      </c>
+      <c r="T116" t="str">
+        <v>OUTBOUND</v>
+      </c>
+      <c r="U116" t="str">
+        <v>Sat, Jul 19</v>
+      </c>
+      <c r="V116" t="str">
+        <v>Premium</v>
+      </c>
+      <c r="W116" t="str">
+        <v>Light</v>
+      </c>
+      <c r="X116" t="str">
+        <v>Premium Light</v>
+      </c>
+      <c r="Y116" t="str">
+        <v>SCL</v>
+      </c>
+      <c r="Z116" t="str">
+        <v>Santiago</v>
+      </c>
+      <c r="AA116" t="str">
+        <v>BCN</v>
+      </c>
+      <c r="AB116" t="str">
+        <v>Barcelona</v>
+      </c>
+      <c r="AC116" t="str">
+        <v>10:25</v>
+      </c>
+      <c r="AD116" t="str">
+        <v>06:10</v>
+      </c>
+      <c r="AE116" t="str">
+        <v>13h 45m</v>
+      </c>
+      <c r="AF116" t="str">
+        <v>Yes</v>
+      </c>
+      <c r="AG116" t="str">
+        <v>IB</v>
+      </c>
+      <c r="AH116" t="str">
+        <v>ECONOMY</v>
+      </c>
+      <c r="AI116" t="str">
+        <v>$601</v>
+      </c>
+      <c r="AJ116" t="str">
+        <v>PREMIUM</v>
+      </c>
+      <c r="AK116" t="str">
+        <v>$751</v>
+      </c>
+      <c r="AL116" t="str">
+        <v>Juan</v>
+      </c>
+      <c r="AM116" t="str">
+        <v>Perez</v>
+      </c>
+      <c r="AN116" t="str">
+        <v>15</v>
+      </c>
+      <c r="AO116" t="str">
+        <v>Afghanistan</v>
+      </c>
+      <c r="AP116" t="str">
+        <v>Female</v>
+      </c>
+      <c r="AQ116" t="str">
+        <v/>
+      </c>
+    </row>
+    <row r="117">
+      <c r="A117" t="str">
+        <v>LF72C</v>
+      </c>
+      <c r="B117" t="str">
+        <v>10/3/2025, 9:16:03</v>
+      </c>
+      <c r="C117" t="str">
+        <v>SCL</v>
+      </c>
+      <c r="D117" t="str">
+        <v>BCN</v>
+      </c>
+      <c r="E117" t="str">
+        <v>One Way</v>
+      </c>
+      <c r="F117" t="str">
+        <v>Economy</v>
+      </c>
+      <c r="G117" t="str">
+        <v>Extra</v>
+      </c>
+      <c r="H117" t="str">
+        <v>Economy</v>
+      </c>
+      <c r="I117" t="str">
+        <v>Light</v>
+      </c>
+      <c r="J117">
+        <v>1</v>
+      </c>
+      <c r="K117">
+        <v>0</v>
+      </c>
+      <c r="L117">
+        <v>0</v>
+      </c>
+      <c r="M117" t="str">
+        <v>EN</v>
+      </c>
+      <c r="N117" t="str">
+        <v>Juan</v>
+      </c>
+      <c r="O117" t="str">
+        <v>Perez</v>
+      </c>
+      <c r="P117" t="str">
+        <v>sofiainkoova@gmail.com</v>
+      </c>
+      <c r="Q117" t="str">
+        <v>+93 791234567</v>
+      </c>
+      <c r="R117" t="str">
+        <v>3607 0500 0010 20</v>
+      </c>
+      <c r="S117" t="str">
+        <v>Test Diners NL</v>
+      </c>
+      <c r="T117" t="str">
+        <v>OUTBOUND</v>
+      </c>
+      <c r="U117" t="str">
+        <v>Wed, Aug 6</v>
+      </c>
+      <c r="V117" t="str">
+        <v>Economy</v>
+      </c>
+      <c r="W117" t="str">
+        <v>Extra</v>
+      </c>
+      <c r="X117" t="str">
+        <v>Economy Extra</v>
+      </c>
+      <c r="Y117" t="str">
+        <v>SCL</v>
+      </c>
+      <c r="Z117" t="str">
+        <v>Santiago</v>
+      </c>
+      <c r="AA117" t="str">
+        <v>BCN</v>
+      </c>
+      <c r="AB117" t="str">
+        <v>Barcelona</v>
+      </c>
+      <c r="AC117" t="str">
+        <v>10:25</v>
+      </c>
+      <c r="AD117" t="str">
+        <v>06:10</v>
+      </c>
+      <c r="AE117" t="str">
+        <v>13h 45m</v>
+      </c>
+      <c r="AF117" t="str">
+        <v>Yes</v>
+      </c>
+      <c r="AG117" t="str">
+        <v>IB</v>
+      </c>
+      <c r="AH117" t="str">
+        <v>ECONOMY</v>
+      </c>
+      <c r="AI117" t="str">
+        <v>$565</v>
+      </c>
+      <c r="AJ117" t="str">
+        <v>PREMIUM</v>
+      </c>
+      <c r="AK117" t="str">
+        <v>$751</v>
+      </c>
+      <c r="AL117" t="str">
+        <v>Juan</v>
+      </c>
+      <c r="AM117" t="str">
+        <v>Perez</v>
+      </c>
+      <c r="AN117" t="str">
+        <v>15</v>
+      </c>
+      <c r="AO117" t="str">
+        <v>Afghanistan</v>
+      </c>
+      <c r="AP117" t="str">
+        <v>Female</v>
+      </c>
+      <c r="AQ117" t="str">
+        <v/>
+      </c>
+    </row>
+    <row r="118">
+      <c r="A118" t="str">
+        <v>LF72E</v>
+      </c>
+      <c r="B118" t="str">
+        <v>10/3/2025, 9:16:10</v>
+      </c>
+      <c r="C118" t="str">
+        <v>SCL</v>
+      </c>
+      <c r="D118" t="str">
+        <v>BCN</v>
+      </c>
+      <c r="E118" t="str">
+        <v>One Way</v>
+      </c>
+      <c r="F118" t="str">
+        <v>Premium</v>
+      </c>
+      <c r="G118" t="str">
+        <v>Light</v>
+      </c>
+      <c r="H118" t="str">
+        <v>Economy</v>
+      </c>
+      <c r="I118" t="str">
+        <v>Light</v>
+      </c>
+      <c r="J118">
+        <v>1</v>
+      </c>
+      <c r="K118">
+        <v>0</v>
+      </c>
+      <c r="L118">
+        <v>0</v>
+      </c>
+      <c r="M118" t="str">
+        <v>EN</v>
+      </c>
+      <c r="N118" t="str">
+        <v>Juan</v>
+      </c>
+      <c r="O118" t="str">
+        <v>Perez</v>
+      </c>
+      <c r="P118" t="str">
+        <v>sofiainkoova@gmail.com</v>
+      </c>
+      <c r="Q118" t="str">
+        <v>+93 791234567</v>
+      </c>
+      <c r="R118" t="str">
+        <v>2222 4000 7000 0005</v>
+      </c>
+      <c r="S118" t="str">
+        <v>Juan Pablo Antonio Maximiliano Alejandro Fernández de Córdoba Sánchez</v>
+      </c>
+      <c r="T118" t="str">
+        <v>OUTBOUND</v>
+      </c>
+      <c r="U118" t="str">
+        <v>Sat, Aug 2</v>
+      </c>
+      <c r="V118" t="str">
+        <v>Premium</v>
+      </c>
+      <c r="W118" t="str">
+        <v>Light</v>
+      </c>
+      <c r="X118" t="str">
+        <v>Premium Light</v>
+      </c>
+      <c r="Y118" t="str">
+        <v>SCL</v>
+      </c>
+      <c r="Z118" t="str">
+        <v>Santiago</v>
+      </c>
+      <c r="AA118" t="str">
+        <v>BCN</v>
+      </c>
+      <c r="AB118" t="str">
+        <v>Barcelona</v>
+      </c>
+      <c r="AC118" t="str">
+        <v>10:25</v>
+      </c>
+      <c r="AD118" t="str">
+        <v>06:10</v>
+      </c>
+      <c r="AE118" t="str">
+        <v>13h 45m</v>
+      </c>
+      <c r="AF118" t="str">
+        <v>Yes</v>
+      </c>
+      <c r="AG118" t="str">
+        <v>IB</v>
+      </c>
+      <c r="AH118" t="str">
+        <v>ECONOMY</v>
+      </c>
+      <c r="AI118" t="str">
+        <v>$565</v>
+      </c>
+      <c r="AJ118" t="str">
+        <v>PREMIUM</v>
+      </c>
+      <c r="AK118" t="str">
+        <v>$751</v>
+      </c>
+      <c r="AL118" t="str">
+        <v>Juan</v>
+      </c>
+      <c r="AM118" t="str">
+        <v>Perez</v>
+      </c>
+      <c r="AN118" t="str">
+        <v>15</v>
+      </c>
+      <c r="AO118" t="str">
+        <v>Afghanistan</v>
+      </c>
+      <c r="AP118" t="str">
+        <v>Female</v>
+      </c>
+      <c r="AQ118" t="str">
+        <v/>
+      </c>
+    </row>
+    <row r="119">
+      <c r="A119" t="str">
+        <v>LF72T</v>
+      </c>
+      <c r="B119" t="str">
+        <v>10/3/2025, 9:18:06</v>
+      </c>
+      <c r="C119" t="str">
+        <v>SCL</v>
+      </c>
+      <c r="D119" t="str">
+        <v>BCN</v>
+      </c>
+      <c r="E119" t="str">
+        <v>One Way</v>
+      </c>
+      <c r="F119" t="str">
+        <v>Premium</v>
+      </c>
+      <c r="G119" t="str">
+        <v>Comfort</v>
+      </c>
+      <c r="H119" t="str">
+        <v>Economy</v>
+      </c>
+      <c r="I119" t="str">
+        <v>Extra</v>
+      </c>
+      <c r="J119">
+        <v>1</v>
+      </c>
+      <c r="K119">
+        <v>0</v>
+      </c>
+      <c r="L119">
+        <v>0</v>
+      </c>
+      <c r="M119" t="str">
+        <v>EN</v>
+      </c>
+      <c r="N119" t="str">
+        <v>Juan</v>
+      </c>
+      <c r="O119" t="str">
+        <v>Perez</v>
+      </c>
+      <c r="P119" t="str">
+        <v>sofiainkoova@gmail.com</v>
+      </c>
+      <c r="Q119" t="str">
+        <v>+93 791234567</v>
+      </c>
+      <c r="R119" t="str">
+        <v>4111 1111 1111 1111</v>
+      </c>
+      <c r="S119" t="str">
+        <v>Test User</v>
+      </c>
+      <c r="T119" t="str">
+        <v>OUTBOUND</v>
+      </c>
+      <c r="U119" t="str">
+        <v>Sat, Jul 12</v>
+      </c>
+      <c r="V119" t="str">
+        <v>Premium</v>
+      </c>
+      <c r="W119" t="str">
+        <v>Comfort</v>
+      </c>
+      <c r="X119" t="str">
+        <v>Premium Comfort</v>
+      </c>
+      <c r="Y119" t="str">
+        <v>SCL</v>
+      </c>
+      <c r="Z119" t="str">
+        <v>Santiago</v>
+      </c>
+      <c r="AA119" t="str">
+        <v>BCN</v>
+      </c>
+      <c r="AB119" t="str">
+        <v>Barcelona</v>
+      </c>
+      <c r="AC119" t="str">
+        <v>10:25</v>
+      </c>
+      <c r="AD119" t="str">
+        <v>06:10</v>
+      </c>
+      <c r="AE119" t="str">
+        <v>13h 45m</v>
+      </c>
+      <c r="AF119" t="str">
+        <v>Yes</v>
+      </c>
+      <c r="AG119" t="str">
+        <v>IB</v>
+      </c>
+      <c r="AH119" t="str">
+        <v>ECONOMY</v>
+      </c>
+      <c r="AI119" t="str">
+        <v>$637</v>
+      </c>
+      <c r="AJ119" t="str">
+        <v>PREMIUM</v>
+      </c>
+      <c r="AK119" t="str">
+        <v>$1,039</v>
+      </c>
+      <c r="AL119" t="str">
+        <v>Juan</v>
+      </c>
+      <c r="AM119" t="str">
+        <v>Perez</v>
+      </c>
+      <c r="AN119" t="str">
+        <v>15</v>
+      </c>
+      <c r="AO119" t="str">
+        <v>Afghanistan</v>
+      </c>
+      <c r="AP119" t="str">
+        <v>Female</v>
+      </c>
+      <c r="AQ119" t="str">
+        <v/>
+      </c>
+    </row>
+    <row r="120">
+      <c r="A120" t="str">
+        <v>LF72W</v>
+      </c>
+      <c r="B120" t="str">
+        <v>10/3/2025, 9:18:34</v>
+      </c>
+      <c r="C120" t="str">
+        <v>SCL</v>
+      </c>
+      <c r="D120" t="str">
+        <v>BCN</v>
+      </c>
+      <c r="E120" t="str">
+        <v>One Way</v>
+      </c>
+      <c r="F120" t="str">
+        <v>Premium</v>
+      </c>
+      <c r="G120" t="str">
+        <v>Extra</v>
+      </c>
+      <c r="H120" t="str">
+        <v>Economy</v>
+      </c>
+      <c r="I120" t="str">
+        <v>Light</v>
+      </c>
+      <c r="J120">
+        <v>1</v>
+      </c>
+      <c r="K120">
+        <v>0</v>
+      </c>
+      <c r="L120">
+        <v>0</v>
+      </c>
+      <c r="M120" t="str">
+        <v>EN</v>
+      </c>
+      <c r="N120" t="str">
+        <v>Juan</v>
+      </c>
+      <c r="O120" t="str">
+        <v>Perez</v>
+      </c>
+      <c r="P120" t="str">
+        <v>sofiainkoova@gmail.com</v>
+      </c>
+      <c r="Q120" t="str">
+        <v>+93 791234567</v>
+      </c>
+      <c r="R120" t="str">
+        <v>4444 3333 2222 1111</v>
+      </c>
+      <c r="S120" t="str">
+        <v>Test Corporate</v>
+      </c>
+      <c r="T120" t="str">
+        <v>OUTBOUND</v>
+      </c>
+      <c r="U120" t="str">
+        <v>Thu, Aug 21</v>
+      </c>
+      <c r="V120" t="str">
+        <v>Premium</v>
+      </c>
+      <c r="W120" t="str">
+        <v>Extra</v>
+      </c>
+      <c r="X120" t="str">
+        <v>Premium Extra</v>
+      </c>
+      <c r="Y120" t="str">
+        <v>SCL</v>
+      </c>
+      <c r="Z120" t="str">
+        <v>Santiago</v>
+      </c>
+      <c r="AA120" t="str">
+        <v>BCN</v>
+      </c>
+      <c r="AB120" t="str">
+        <v>Barcelona</v>
+      </c>
+      <c r="AC120" t="str">
+        <v>10:25</v>
+      </c>
+      <c r="AD120" t="str">
+        <v>06:10</v>
+      </c>
+      <c r="AE120" t="str">
+        <v>13h 45m</v>
+      </c>
+      <c r="AF120" t="str">
+        <v>Yes</v>
+      </c>
+      <c r="AG120" t="str">
+        <v>IB</v>
+      </c>
+      <c r="AH120" t="str">
+        <v>ECONOMY</v>
+      </c>
+      <c r="AI120" t="str">
+        <v>$565</v>
+      </c>
+      <c r="AJ120" t="str">
+        <v>PREMIUM</v>
+      </c>
+      <c r="AK120" t="str">
+        <v>$751</v>
+      </c>
+      <c r="AL120" t="str">
+        <v>Juan</v>
+      </c>
+      <c r="AM120" t="str">
+        <v>Perez</v>
+      </c>
+      <c r="AN120" t="str">
+        <v>15</v>
+      </c>
+      <c r="AO120" t="str">
+        <v>Afghanistan</v>
+      </c>
+      <c r="AP120" t="str">
+        <v>Female</v>
+      </c>
+      <c r="AQ120" t="str">
+        <v/>
+      </c>
+    </row>
+    <row r="121">
+      <c r="A121" t="str">
+        <v>LF762</v>
+      </c>
+      <c r="B121" t="str">
+        <v>10/3/2025, 9:31:10</v>
+      </c>
+      <c r="C121" t="str">
+        <v>SCL</v>
+      </c>
+      <c r="D121" t="str">
+        <v>BCN</v>
+      </c>
+      <c r="E121" t="str">
+        <v>Round Trip</v>
+      </c>
+      <c r="F121" t="str">
+        <v>Premium</v>
+      </c>
+      <c r="G121" t="str">
+        <v>Comfort</v>
+      </c>
+      <c r="H121" t="str">
+        <v>Economy</v>
+      </c>
+      <c r="I121" t="str">
+        <v>Extra</v>
+      </c>
+      <c r="J121">
+        <v>1</v>
+      </c>
+      <c r="K121">
+        <v>0</v>
+      </c>
+      <c r="L121">
+        <v>0</v>
+      </c>
+      <c r="M121" t="str">
+        <v>EN</v>
+      </c>
+      <c r="N121" t="str">
+        <v>Juan</v>
+      </c>
+      <c r="O121" t="str">
+        <v>Perez</v>
+      </c>
+      <c r="P121" t="str">
+        <v>sofiainkoova@gmail.com</v>
+      </c>
+      <c r="Q121" t="str">
+        <v>+93 791234567</v>
+      </c>
+      <c r="R121" t="str">
+        <v>4111 1111 1111 1111</v>
+      </c>
+      <c r="S121" t="str">
+        <v>Test User</v>
+      </c>
+      <c r="T121" t="str">
+        <v>OUTBOUND</v>
+      </c>
+      <c r="U121" t="str">
+        <v>Sat, Aug 2</v>
+      </c>
+      <c r="V121" t="str">
+        <v>Premium</v>
+      </c>
+      <c r="W121" t="str">
+        <v>Comfort</v>
+      </c>
+      <c r="X121" t="str">
+        <v>Premium Comfort</v>
+      </c>
+      <c r="Y121" t="str">
+        <v>SCL</v>
+      </c>
+      <c r="Z121" t="str">
+        <v>Santiago</v>
+      </c>
+      <c r="AA121" t="str">
+        <v>BCN</v>
+      </c>
+      <c r="AB121" t="str">
+        <v>Barcelona</v>
+      </c>
+      <c r="AC121" t="str">
+        <v>10:25</v>
+      </c>
+      <c r="AD121" t="str">
+        <v>06:10</v>
+      </c>
+      <c r="AE121" t="str">
+        <v>13h 45m</v>
+      </c>
+      <c r="AF121" t="str">
+        <v>Yes</v>
+      </c>
+      <c r="AG121" t="str">
+        <v>IB</v>
+      </c>
+      <c r="AH121" t="str">
+        <v>ECONOMY</v>
+      </c>
+      <c r="AI121" t="str">
+        <v>$475</v>
+      </c>
+      <c r="AJ121" t="str">
+        <v>PREMIUM</v>
+      </c>
+      <c r="AK121" t="str">
+        <v>$630</v>
+      </c>
+      <c r="AL121" t="str">
+        <v>Juan</v>
+      </c>
+      <c r="AM121" t="str">
+        <v>Perez</v>
+      </c>
+      <c r="AN121" t="str">
+        <v>15</v>
+      </c>
+      <c r="AO121" t="str">
+        <v>Afghanistan</v>
+      </c>
+      <c r="AP121" t="str">
+        <v>Female</v>
+      </c>
+      <c r="AQ121" t="str">
+        <v/>
+      </c>
+      <c r="BQ121" t="str">
+        <v>INBOUND</v>
+      </c>
+      <c r="BR121" t="str">
+        <v>Tue, Aug 5</v>
+      </c>
+      <c r="BS121" t="str">
+        <v>Economy</v>
+      </c>
+      <c r="BT121" t="str">
+        <v>Extra</v>
+      </c>
+      <c r="BU121" t="str">
+        <v>Economy Extra</v>
+      </c>
+      <c r="BV121" t="str">
+        <v>BCN</v>
+      </c>
+      <c r="BW121" t="str">
+        <v>Barcelona</v>
+      </c>
+      <c r="BX121" t="str">
+        <v>SCL</v>
+      </c>
+      <c r="BY121" t="str">
+        <v>Santiago</v>
+      </c>
+      <c r="BZ121" t="str">
+        <v>00:05</v>
+      </c>
+      <c r="CA121" t="str">
+        <v>08:40</v>
+      </c>
+      <c r="CB121" t="str">
+        <v>14h 35m</v>
+      </c>
+      <c r="CC121" t="str">
+        <v>IB</v>
+      </c>
+      <c r="CD121" t="str">
+        <v>ECONOMY</v>
+      </c>
+      <c r="CE121" t="str">
+        <v>$592</v>
+      </c>
+      <c r="CF121" t="str">
+        <v>PREMIUM</v>
+      </c>
+      <c r="CG121" t="str">
+        <v>$1,218</v>
+      </c>
+    </row>
+    <row r="122">
+      <c r="A122" t="str">
+        <v>LF7D6</v>
+      </c>
+      <c r="B122" t="str">
+        <v>10/3/2025, 9:54:42</v>
+      </c>
+      <c r="C122" t="str">
+        <v>SCL</v>
+      </c>
+      <c r="D122" t="str">
+        <v>BCN</v>
+      </c>
+      <c r="E122" t="str">
+        <v>One Way</v>
+      </c>
+      <c r="F122" t="str">
+        <v>Economy</v>
+      </c>
+      <c r="G122" t="str">
+        <v>Light</v>
+      </c>
+      <c r="H122" t="str">
+        <v>Economy</v>
+      </c>
+      <c r="I122" t="str">
+        <v>Light</v>
+      </c>
+      <c r="J122">
+        <v>2</v>
+      </c>
+      <c r="K122">
+        <v>0</v>
+      </c>
+      <c r="L122">
+        <v>0</v>
+      </c>
+      <c r="M122" t="str">
+        <v>EN</v>
+      </c>
+      <c r="N122" t="str">
+        <v>Prueba</v>
+      </c>
+      <c r="O122" t="str">
+        <v>Hola</v>
+      </c>
+      <c r="P122" t="str">
+        <v>sofiainkoova@gmail.com</v>
+      </c>
+      <c r="Q122" t="str">
+        <v>+93 791234567</v>
+      </c>
+      <c r="R122" t="str">
+        <v>5577 0000 5577 0004</v>
+      </c>
+      <c r="S122" t="str">
+        <v>Sofia Martínez</v>
+      </c>
+      <c r="T122" t="str">
+        <v>OUTBOUND</v>
+      </c>
+      <c r="U122" t="str">
+        <v>Wed, Aug 20</v>
+      </c>
+      <c r="V122" t="str">
+        <v>Economy</v>
+      </c>
+      <c r="W122" t="str">
+        <v>Light</v>
+      </c>
+      <c r="X122" t="str">
+        <v>Economy Light</v>
+      </c>
+      <c r="Y122" t="str">
+        <v>SCL</v>
+      </c>
+      <c r="Z122" t="str">
+        <v>Santiago</v>
+      </c>
+      <c r="AA122" t="str">
+        <v>BCN</v>
+      </c>
+      <c r="AB122" t="str">
+        <v>Barcelona</v>
+      </c>
+      <c r="AC122" t="str">
+        <v>10:25</v>
+      </c>
+      <c r="AD122" t="str">
+        <v>06:10</v>
+      </c>
+      <c r="AE122" t="str">
+        <v>13h 45m</v>
+      </c>
+      <c r="AF122" t="str">
+        <v>Yes</v>
+      </c>
+      <c r="AG122" t="str">
+        <v>IB</v>
+      </c>
+      <c r="AH122" t="str">
+        <v>ECONOMY</v>
+      </c>
+      <c r="AI122" t="str">
+        <v>$565</v>
+      </c>
+      <c r="AJ122" t="str">
+        <v>PREMIUM</v>
+      </c>
+      <c r="AK122" t="str">
+        <v>$751</v>
+      </c>
+      <c r="AL122" t="str">
+        <v>Prueba</v>
+      </c>
+      <c r="AM122" t="str">
+        <v>Hola</v>
+      </c>
+      <c r="AN122" t="str">
+        <v>25</v>
+      </c>
+      <c r="AO122" t="str">
+        <v>Afghanistan</v>
+      </c>
+      <c r="AP122" t="str">
+        <v>Female</v>
+      </c>
+      <c r="AQ122" t="str">
+        <v/>
+      </c>
+      <c r="AR122" t="str">
+        <v>Sofía</v>
+      </c>
+      <c r="AS122" t="str">
+        <v>Pérez</v>
+      </c>
+      <c r="AT122" t="str">
+        <v>34</v>
+      </c>
+      <c r="AU122" t="str">
+        <v>Afghanistan</v>
+      </c>
+      <c r="AV122" t="str">
+        <v>Female</v>
+      </c>
+      <c r="AW122" t="str">
+        <v/>
+      </c>
+    </row>
+    <row r="123">
+      <c r="A123" t="str">
+        <v>LF7DB</v>
+      </c>
+      <c r="B123" t="str">
+        <v>10/3/2025, 9:57:33</v>
+      </c>
+      <c r="C123" t="str">
+        <v>SCL</v>
+      </c>
+      <c r="D123" t="str">
+        <v>BCN</v>
+      </c>
+      <c r="E123" t="str">
+        <v>One Way</v>
+      </c>
+      <c r="F123" t="str">
+        <v>Economy</v>
+      </c>
+      <c r="G123" t="str">
+        <v>Light</v>
+      </c>
+      <c r="H123" t="str">
+        <v>Economy</v>
+      </c>
+      <c r="I123" t="str">
+        <v>Light</v>
+      </c>
+      <c r="J123">
+        <v>1</v>
+      </c>
+      <c r="K123">
+        <v>1</v>
+      </c>
+      <c r="L123">
+        <v>0</v>
+      </c>
+      <c r="M123" t="str">
+        <v>EN</v>
+      </c>
+      <c r="N123" t="str">
+        <v>Juan</v>
+      </c>
+      <c r="O123" t="str">
+        <v>Perez</v>
+      </c>
+      <c r="P123" t="str">
+        <v>sofiainkoova@gmail.com</v>
+      </c>
+      <c r="Q123" t="str">
+        <v>+93 791234567</v>
+      </c>
+      <c r="R123" t="str">
+        <v>5555 4444 3333 1111</v>
+      </c>
+      <c r="S123" t="str">
+        <v>Test Consumer</v>
+      </c>
+      <c r="T123" t="str">
+        <v>OUTBOUND</v>
+      </c>
+      <c r="U123" t="str">
+        <v>Wed, Aug 13</v>
+      </c>
+      <c r="V123" t="str">
+        <v>Economy</v>
+      </c>
+      <c r="W123" t="str">
+        <v>Light</v>
+      </c>
+      <c r="X123" t="str">
+        <v>Economy Light</v>
+      </c>
+      <c r="Y123" t="str">
+        <v>SCL</v>
+      </c>
+      <c r="Z123" t="str">
+        <v>Santiago</v>
+      </c>
+      <c r="AA123" t="str">
+        <v>BCN</v>
+      </c>
+      <c r="AB123" t="str">
+        <v>Barcelona</v>
+      </c>
+      <c r="AC123" t="str">
+        <v>10:25</v>
+      </c>
+      <c r="AD123" t="str">
+        <v>06:10</v>
+      </c>
+      <c r="AE123" t="str">
+        <v>13h 45m</v>
+      </c>
+      <c r="AF123" t="str">
+        <v>Yes</v>
+      </c>
+      <c r="AG123" t="str">
+        <v>IB</v>
+      </c>
+      <c r="AH123" t="str">
+        <v>ECONOMY</v>
+      </c>
+      <c r="AI123" t="str">
+        <v>$565</v>
+      </c>
+      <c r="AJ123" t="str">
+        <v>PREMIUM</v>
+      </c>
+      <c r="AK123" t="str">
+        <v>$751</v>
+      </c>
+      <c r="AL123" t="str">
+        <v>Juan</v>
+      </c>
+      <c r="AM123" t="str">
+        <v>Perez</v>
+      </c>
+      <c r="AN123" t="str">
+        <v>15</v>
+      </c>
+      <c r="AO123" t="str">
+        <v>Afghanistan</v>
+      </c>
+      <c r="AP123" t="str">
+        <v>Female</v>
+      </c>
+      <c r="AQ123" t="str">
+        <v/>
+      </c>
+      <c r="AX123" t="str">
+        <v>Mateo</v>
+      </c>
+      <c r="AY123" t="str">
+        <v>Ramírez</v>
+      </c>
+      <c r="AZ123" t="str">
+        <v>11</v>
+      </c>
+      <c r="BA123" t="str">
+        <v>Argentina</v>
+      </c>
+      <c r="BB123" t="str">
+        <v>Visual difficulty</v>
+      </c>
+    </row>
+    <row r="124">
+      <c r="A124" t="str">
+        <v>LF7JP</v>
+      </c>
+      <c r="B124" t="str">
+        <v>10/3/2025, 10:41:47</v>
+      </c>
+      <c r="C124" t="str">
+        <v>SCL</v>
+      </c>
+      <c r="D124" t="str">
+        <v>BCN</v>
+      </c>
+      <c r="E124" t="str">
+        <v>Round Trip</v>
+      </c>
+      <c r="F124" t="str">
+        <v>Premium</v>
+      </c>
+      <c r="G124" t="str">
+        <v>Light</v>
+      </c>
+      <c r="H124" t="str">
+        <v>Economy</v>
+      </c>
+      <c r="I124" t="str">
+        <v>Comfort</v>
+      </c>
+      <c r="J124">
+        <v>1</v>
+      </c>
+      <c r="K124">
+        <v>0</v>
+      </c>
+      <c r="L124">
+        <v>0</v>
+      </c>
+      <c r="M124" t="str">
+        <v>EN</v>
+      </c>
+      <c r="N124" t="str">
+        <v>Juan</v>
+      </c>
+      <c r="O124" t="str">
+        <v>Perez</v>
+      </c>
+      <c r="P124" t="str">
+        <v>sofiainkoova@gmail.com</v>
+      </c>
+      <c r="Q124" t="str">
+        <v>+93 791234567</v>
+      </c>
+      <c r="R124" t="str">
+        <v>5577 0000 5577 0004</v>
+      </c>
+      <c r="S124" t="str">
+        <v>Sofia Martínez</v>
+      </c>
+      <c r="T124" t="str">
+        <v>OUTBOUND</v>
+      </c>
+      <c r="U124" t="str">
+        <v>Sat, Jul 19</v>
+      </c>
+      <c r="V124" t="str">
+        <v>Premium</v>
+      </c>
+      <c r="W124" t="str">
+        <v>Light</v>
+      </c>
+      <c r="X124" t="str">
+        <v>Premium Light</v>
+      </c>
+      <c r="Y124" t="str">
+        <v>SCL</v>
+      </c>
+      <c r="Z124" t="str">
+        <v>Santiago</v>
+      </c>
+      <c r="AA124" t="str">
+        <v>BCN</v>
+      </c>
+      <c r="AB124" t="str">
+        <v>Barcelona</v>
+      </c>
+      <c r="AC124" t="str">
+        <v>10:25</v>
+      </c>
+      <c r="AD124" t="str">
+        <v>06:10</v>
+      </c>
+      <c r="AE124" t="str">
+        <v>13h 45m</v>
+      </c>
+      <c r="AF124" t="str">
+        <v>Yes</v>
+      </c>
+      <c r="AG124" t="str">
+        <v>IB</v>
+      </c>
+      <c r="AH124" t="str">
+        <v>ECONOMY</v>
+      </c>
+      <c r="AI124" t="str">
+        <v>$505</v>
+      </c>
+      <c r="AJ124" t="str">
+        <v>PREMIUM</v>
+      </c>
+      <c r="AK124" t="str">
+        <v>$630</v>
+      </c>
+      <c r="AL124" t="str">
+        <v>Juan</v>
+      </c>
+      <c r="AM124" t="str">
+        <v>Perez</v>
+      </c>
+      <c r="AN124" t="str">
+        <v>15</v>
+      </c>
+      <c r="AO124" t="str">
+        <v>Afghanistan</v>
+      </c>
+      <c r="AP124" t="str">
+        <v>Female</v>
+      </c>
+      <c r="AQ124" t="str">
+        <v/>
+      </c>
+      <c r="BQ124" t="str">
+        <v>INBOUND</v>
+      </c>
+      <c r="BR124" t="str">
+        <v>Tue, Jul 22</v>
+      </c>
+      <c r="BS124" t="str">
+        <v>Economy</v>
+      </c>
+      <c r="BT124" t="str">
+        <v>Comfort</v>
+      </c>
+      <c r="BU124" t="str">
+        <v>Economy Comfort</v>
+      </c>
+      <c r="BV124" t="str">
+        <v>BCN</v>
+      </c>
+      <c r="BW124" t="str">
+        <v>Barcelona</v>
+      </c>
+      <c r="BX124" t="str">
+        <v>SCL</v>
+      </c>
+      <c r="BY124" t="str">
+        <v>Santiago</v>
+      </c>
+      <c r="BZ124" t="str">
+        <v>00:05</v>
+      </c>
+      <c r="CA124" t="str">
+        <v>08:40</v>
+      </c>
+      <c r="CB124" t="str">
+        <v>14h 35m</v>
+      </c>
+      <c r="CC124" t="str">
+        <v>IB</v>
+      </c>
+      <c r="CD124" t="str">
+        <v>ECONOMY</v>
+      </c>
+      <c r="CE124" t="str">
+        <v>$552</v>
+      </c>
+      <c r="CF124" t="str">
+        <v>PREMIUM</v>
+      </c>
+      <c r="CG124" t="str">
+        <v>$918</v>
+      </c>
+    </row>
+    <row r="125">
+      <c r="A125" t="str">
+        <v>LF7JQ</v>
+      </c>
+      <c r="B125" t="str">
+        <v>10/3/2025, 10:41:48</v>
+      </c>
+      <c r="C125" t="str">
+        <v>SCL</v>
+      </c>
+      <c r="D125" t="str">
+        <v>BCN</v>
+      </c>
+      <c r="E125" t="str">
+        <v>Round Trip</v>
+      </c>
+      <c r="F125" t="str">
+        <v>Premium</v>
+      </c>
+      <c r="G125" t="str">
+        <v>Light</v>
+      </c>
+      <c r="H125" t="str">
+        <v>Economy</v>
+      </c>
+      <c r="I125" t="str">
+        <v>Light</v>
+      </c>
+      <c r="J125">
+        <v>1</v>
+      </c>
+      <c r="K125">
+        <v>0</v>
+      </c>
+      <c r="L125">
+        <v>0</v>
+      </c>
+      <c r="M125" t="str">
+        <v>EN</v>
+      </c>
+      <c r="N125" t="str">
+        <v>Juan</v>
+      </c>
+      <c r="O125" t="str">
+        <v>Perez</v>
+      </c>
+      <c r="P125" t="str">
+        <v>sofiainkoova@gmail.com</v>
+      </c>
+      <c r="Q125" t="str">
+        <v>+93 791234567</v>
+      </c>
+      <c r="R125" t="str">
+        <v>2222 4000 7000 0005</v>
+      </c>
+      <c r="S125" t="str">
+        <v>Juan Pablo Antonio Maximiliano Alejandro Fernández de Córdoba Sánchez</v>
+      </c>
+      <c r="T125" t="str">
+        <v>OUTBOUND</v>
+      </c>
+      <c r="U125" t="str">
+        <v>Tue, Jul 15</v>
+      </c>
+      <c r="V125" t="str">
+        <v>Premium</v>
+      </c>
+      <c r="W125" t="str">
+        <v>Light</v>
+      </c>
+      <c r="X125" t="str">
+        <v>Premium Light</v>
+      </c>
+      <c r="Y125" t="str">
+        <v>SCL</v>
+      </c>
+      <c r="Z125" t="str">
+        <v>Santiago</v>
+      </c>
+      <c r="AA125" t="str">
+        <v>BCN</v>
+      </c>
+      <c r="AB125" t="str">
+        <v>Barcelona</v>
+      </c>
+      <c r="AC125" t="str">
+        <v>10:25</v>
+      </c>
+      <c r="AD125" t="str">
+        <v>06:10</v>
+      </c>
+      <c r="AE125" t="str">
+        <v>13h 45m</v>
+      </c>
+      <c r="AF125" t="str">
+        <v>Yes</v>
+      </c>
+      <c r="AG125" t="str">
+        <v>IB</v>
+      </c>
+      <c r="AH125" t="str">
+        <v>ECONOMY</v>
+      </c>
+      <c r="AI125" t="str">
+        <v>$605</v>
+      </c>
+      <c r="AJ125" t="str">
+        <v>PREMIUM</v>
+      </c>
+      <c r="AK125" t="str">
+        <v>$630</v>
+      </c>
+      <c r="AL125" t="str">
+        <v>Juan</v>
+      </c>
+      <c r="AM125" t="str">
+        <v>Perez</v>
+      </c>
+      <c r="AN125" t="str">
+        <v>15</v>
+      </c>
+      <c r="AO125" t="str">
+        <v>Afghanistan</v>
+      </c>
+      <c r="AP125" t="str">
+        <v>Female</v>
+      </c>
+      <c r="AQ125" t="str">
+        <v/>
+      </c>
+      <c r="BQ125" t="str">
+        <v>INBOUND</v>
+      </c>
+      <c r="BR125" t="str">
+        <v>Wed, Jul 16</v>
+      </c>
+      <c r="BS125" t="str">
+        <v>Economy</v>
+      </c>
+      <c r="BT125" t="str">
+        <v>Light</v>
+      </c>
+      <c r="BU125" t="str">
+        <v>Economy Light</v>
+      </c>
+      <c r="BV125" t="str">
+        <v>BCN</v>
+      </c>
+      <c r="BW125" t="str">
+        <v>Barcelona</v>
+      </c>
+      <c r="BX125" t="str">
+        <v>SCL</v>
+      </c>
+      <c r="BY125" t="str">
+        <v>Santiago</v>
+      </c>
+      <c r="BZ125" t="str">
+        <v>00:05</v>
+      </c>
+      <c r="CA125" t="str">
+        <v>08:40</v>
+      </c>
+      <c r="CB125" t="str">
+        <v>14h 35m</v>
+      </c>
+      <c r="CC125" t="str">
+        <v>IB</v>
+      </c>
+      <c r="CD125" t="str">
+        <v>ECONOMY</v>
+      </c>
+      <c r="CE125" t="str">
+        <v>$772</v>
+      </c>
+      <c r="CF125" t="str">
+        <v>PREMIUM</v>
+      </c>
+      <c r="CG125" t="str">
+        <v>$918</v>
+      </c>
+    </row>
+    <row r="126">
+      <c r="A126" t="str">
+        <v>LF7LN</v>
+      </c>
+      <c r="B126" t="str">
+        <v>10/3/2025, 10:49:52</v>
+      </c>
+      <c r="C126" t="str">
+        <v>SCL</v>
+      </c>
+      <c r="D126" t="str">
+        <v>BCN</v>
+      </c>
+      <c r="E126" t="str">
+        <v>Round Trip</v>
+      </c>
+      <c r="F126" t="str">
+        <v>Economy</v>
+      </c>
+      <c r="G126" t="str">
+        <v>Light</v>
+      </c>
+      <c r="H126" t="str">
+        <v>Economy</v>
+      </c>
+      <c r="I126" t="str">
+        <v>Light</v>
+      </c>
+      <c r="J126">
+        <v>1</v>
+      </c>
+      <c r="K126">
+        <v>0</v>
+      </c>
+      <c r="L126">
+        <v>0</v>
+      </c>
+      <c r="M126" t="str">
+        <v>EN</v>
+      </c>
+      <c r="N126" t="str">
+        <v>Juan</v>
+      </c>
+      <c r="O126" t="str">
+        <v>Perez</v>
+      </c>
+      <c r="P126" t="str">
+        <v>sofiainkoova@gmail.com</v>
+      </c>
+      <c r="Q126" t="str">
+        <v>+93 791234567</v>
+      </c>
+      <c r="R126" t="str">
+        <v>2222 4000 7000 0005</v>
+      </c>
+      <c r="S126" t="str">
+        <v>Juan Pablo Antonio Maximiliano Alejandro Fernández de Córdoba Sánchez</v>
+      </c>
+      <c r="T126" t="str">
+        <v>OUTBOUND</v>
+      </c>
+      <c r="U126" t="str">
+        <v>Wed, Aug 6</v>
+      </c>
+      <c r="V126" t="str">
+        <v>Economy</v>
+      </c>
+      <c r="W126" t="str">
+        <v>Light</v>
+      </c>
+      <c r="X126" t="str">
+        <v>Economy Light</v>
+      </c>
+      <c r="Y126" t="str">
+        <v>SCL</v>
+      </c>
+      <c r="Z126" t="str">
+        <v>Santiago</v>
+      </c>
+      <c r="AA126" t="str">
+        <v>BCN</v>
+      </c>
+      <c r="AB126" t="str">
+        <v>Barcelona</v>
+      </c>
+      <c r="AC126" t="str">
+        <v>10:25</v>
+      </c>
+      <c r="AD126" t="str">
+        <v>06:10</v>
+      </c>
+      <c r="AE126" t="str">
+        <v>13h 45m</v>
+      </c>
+      <c r="AF126" t="str">
+        <v>Yes</v>
+      </c>
+      <c r="AG126" t="str">
+        <v>IB</v>
+      </c>
+      <c r="AH126" t="str">
+        <v>ECONOMY</v>
+      </c>
+      <c r="AI126" t="str">
+        <v>$605</v>
+      </c>
+      <c r="AJ126" t="str">
+        <v>PREMIUM</v>
+      </c>
+      <c r="AK126" t="str">
+        <v>$630</v>
+      </c>
+      <c r="AL126" t="str">
+        <v>Juan</v>
+      </c>
+      <c r="AM126" t="str">
+        <v>Perez</v>
+      </c>
+      <c r="AN126" t="str">
+        <v>15</v>
+      </c>
+      <c r="AO126" t="str">
+        <v>Afghanistan</v>
+      </c>
+      <c r="AP126" t="str">
+        <v>Female</v>
+      </c>
+      <c r="AQ126" t="str">
+        <v/>
+      </c>
+      <c r="BQ126" t="str">
+        <v>INBOUND</v>
+      </c>
+      <c r="BR126" t="str">
+        <v>Thu, Aug 7</v>
+      </c>
+      <c r="BS126" t="str">
+        <v>Economy</v>
+      </c>
+      <c r="BT126" t="str">
+        <v>Light</v>
+      </c>
+      <c r="BU126" t="str">
+        <v>Economy Light</v>
+      </c>
+      <c r="BV126" t="str">
+        <v>BCN</v>
+      </c>
+      <c r="BW126" t="str">
+        <v>Barcelona</v>
+      </c>
+      <c r="BX126" t="str">
+        <v>SCL</v>
+      </c>
+      <c r="BY126" t="str">
+        <v>Santiago</v>
+      </c>
+      <c r="BZ126" t="str">
+        <v>00:05</v>
+      </c>
+      <c r="CA126" t="str">
+        <v>08:40</v>
+      </c>
+      <c r="CB126" t="str">
+        <v>14h 35m</v>
+      </c>
+      <c r="CC126" t="str">
+        <v>IB</v>
+      </c>
+      <c r="CD126" t="str">
+        <v>ECONOMY</v>
+      </c>
+      <c r="CE126" t="str">
+        <v>$772</v>
+      </c>
+      <c r="CF126" t="str">
+        <v>PREMIUM</v>
+      </c>
+      <c r="CG126" t="str">
+        <v>$918</v>
+      </c>
+    </row>
+    <row r="127">
+      <c r="A127" t="str">
+        <v>LF7M2</v>
+      </c>
+      <c r="B127" t="str">
+        <v>10/3/2025, 10:52:35</v>
+      </c>
+      <c r="C127" t="str">
+        <v>SCL</v>
+      </c>
+      <c r="D127" t="str">
+        <v>BCN</v>
+      </c>
+      <c r="E127" t="str">
+        <v>Round Trip</v>
+      </c>
+      <c r="F127" t="str">
+        <v>Economy</v>
+      </c>
+      <c r="G127" t="str">
+        <v>Light</v>
+      </c>
+      <c r="H127" t="str">
+        <v>Economy</v>
+      </c>
+      <c r="I127" t="str">
+        <v>Light</v>
+      </c>
+      <c r="J127">
+        <v>2</v>
+      </c>
+      <c r="K127">
+        <v>0</v>
+      </c>
+      <c r="L127">
+        <v>0</v>
+      </c>
+      <c r="M127" t="str">
+        <v>EN</v>
+      </c>
+      <c r="N127" t="str">
+        <v>Prueba</v>
+      </c>
+      <c r="O127" t="str">
+        <v>Hola</v>
+      </c>
+      <c r="P127" t="str">
+        <v>sofiainkoova@gmail.com</v>
+      </c>
+      <c r="Q127" t="str">
+        <v>+93 791234567</v>
+      </c>
+      <c r="R127" t="str">
+        <v>5577 0000 5577 0004</v>
+      </c>
+      <c r="S127" t="str">
+        <v>Sofia Martínez</v>
+      </c>
+      <c r="T127" t="str">
+        <v>OUTBOUND</v>
+      </c>
+      <c r="U127" t="str">
+        <v>Sat, Aug 30</v>
+      </c>
+      <c r="V127" t="str">
+        <v>Economy</v>
+      </c>
+      <c r="W127" t="str">
+        <v>Light</v>
+      </c>
+      <c r="X127" t="str">
+        <v>Economy Light</v>
+      </c>
+      <c r="Y127" t="str">
+        <v>SCL</v>
+      </c>
+      <c r="Z127" t="str">
+        <v>Santiago</v>
+      </c>
+      <c r="AA127" t="str">
+        <v>BCN</v>
+      </c>
+      <c r="AB127" t="str">
+        <v>Barcelona</v>
+      </c>
+      <c r="AC127" t="str">
+        <v>10:25</v>
+      </c>
+      <c r="AD127" t="str">
+        <v>06:10</v>
+      </c>
+      <c r="AE127" t="str">
+        <v>13h 45m</v>
+      </c>
+      <c r="AF127" t="str">
+        <v>Yes</v>
+      </c>
+      <c r="AG127" t="str">
+        <v>IB</v>
+      </c>
+      <c r="AH127" t="str">
+        <v>ECONOMY</v>
+      </c>
+      <c r="AI127" t="str">
+        <v>$645</v>
+      </c>
+      <c r="AJ127" t="str">
+        <v>PREMIUM</v>
+      </c>
+      <c r="AK127" t="str">
+        <v>$921</v>
+      </c>
+      <c r="AL127" t="str">
+        <v>Prueba</v>
+      </c>
+      <c r="AM127" t="str">
+        <v>Hola</v>
+      </c>
+      <c r="AN127" t="str">
+        <v>25</v>
+      </c>
+      <c r="AO127" t="str">
+        <v>Afghanistan</v>
+      </c>
+      <c r="AP127" t="str">
+        <v>Female</v>
+      </c>
+      <c r="AQ127" t="str">
+        <v/>
+      </c>
+      <c r="AR127" t="str">
+        <v>Sofía</v>
+      </c>
+      <c r="AS127" t="str">
+        <v>Pérez</v>
+      </c>
+      <c r="AT127" t="str">
+        <v>34</v>
+      </c>
+      <c r="AU127" t="str">
+        <v>Afghanistan</v>
+      </c>
+      <c r="AV127" t="str">
+        <v>Female</v>
+      </c>
+      <c r="AW127" t="str">
+        <v/>
+      </c>
+      <c r="BQ127" t="str">
+        <v>INBOUND</v>
+      </c>
+      <c r="BR127" t="str">
+        <v>Tue, Sep 2</v>
+      </c>
+      <c r="BS127" t="str">
+        <v>Economy</v>
+      </c>
+      <c r="BT127" t="str">
+        <v>Light</v>
+      </c>
+      <c r="BU127" t="str">
+        <v>Economy Light</v>
+      </c>
+      <c r="BV127" t="str">
+        <v>BCN</v>
+      </c>
+      <c r="BW127" t="str">
+        <v>Barcelona</v>
+      </c>
+      <c r="BX127" t="str">
+        <v>SCL</v>
+      </c>
+      <c r="BY127" t="str">
+        <v>Santiago</v>
+      </c>
+      <c r="BZ127" t="str">
+        <v>00:05</v>
+      </c>
+      <c r="CA127" t="str">
+        <v>08:40</v>
+      </c>
+      <c r="CB127" t="str">
+        <v>14h 35m</v>
+      </c>
+      <c r="CC127" t="str">
+        <v>IB</v>
+      </c>
+      <c r="CD127" t="str">
+        <v>ECONOMY</v>
+      </c>
+      <c r="CE127" t="str">
+        <v>$502</v>
+      </c>
+      <c r="CF127" t="str">
+        <v>PREMIUM</v>
+      </c>
+      <c r="CG127" t="str">
+        <v>$867</v>
+      </c>
+    </row>
+    <row r="128">
+      <c r="A128" t="str">
+        <v>LF7ML</v>
+      </c>
+      <c r="B128" t="str">
+        <v>10/3/2025, 10:55:36</v>
+      </c>
+      <c r="C128" t="str">
+        <v>SCL</v>
+      </c>
+      <c r="D128" t="str">
+        <v>BCN</v>
+      </c>
+      <c r="E128" t="str">
+        <v>Round Trip</v>
+      </c>
+      <c r="F128" t="str">
+        <v>Economy</v>
+      </c>
+      <c r="G128" t="str">
+        <v>Light</v>
+      </c>
+      <c r="H128" t="str">
+        <v>Economy</v>
+      </c>
+      <c r="I128" t="str">
+        <v>Light</v>
+      </c>
+      <c r="J128">
+        <v>1</v>
+      </c>
+      <c r="K128">
+        <v>0</v>
+      </c>
+      <c r="L128">
+        <v>0</v>
+      </c>
+      <c r="M128" t="str">
+        <v>EN</v>
+      </c>
+      <c r="N128" t="str">
+        <v>Juan</v>
+      </c>
+      <c r="O128" t="str">
+        <v>Perez</v>
+      </c>
+      <c r="P128" t="str">
+        <v>sofiainkoova@gmail.com</v>
+      </c>
+      <c r="Q128" t="str">
+        <v>+93 791234567</v>
+      </c>
+      <c r="R128" t="str">
+        <v>2222 4000 7000 0005</v>
+      </c>
+      <c r="S128" t="str">
+        <v>Juan Pablo Antonio Maximiliano Alejandro Fernández de Córdoba Sánchez</v>
+      </c>
+      <c r="T128" t="str">
+        <v>OUTBOUND</v>
+      </c>
+      <c r="U128" t="str">
+        <v>Sat, Aug 16</v>
+      </c>
+      <c r="V128" t="str">
+        <v>Economy</v>
+      </c>
+      <c r="W128" t="str">
+        <v>Light</v>
+      </c>
+      <c r="X128" t="str">
+        <v>Economy Light</v>
+      </c>
+      <c r="Y128" t="str">
+        <v>SCL</v>
+      </c>
+      <c r="Z128" t="str">
+        <v>Santiago</v>
+      </c>
+      <c r="AA128" t="str">
+        <v>BCN</v>
+      </c>
+      <c r="AB128" t="str">
+        <v>Barcelona</v>
+      </c>
+      <c r="AC128" t="str">
+        <v>10:25</v>
+      </c>
+      <c r="AD128" t="str">
+        <v>06:10</v>
+      </c>
+      <c r="AE128" t="str">
+        <v>13h 45m</v>
+      </c>
+      <c r="AF128" t="str">
+        <v>Yes</v>
+      </c>
+      <c r="AG128" t="str">
+        <v>IB</v>
+      </c>
+      <c r="AH128" t="str">
+        <v>ECONOMY</v>
+      </c>
+      <c r="AI128" t="str">
+        <v>$505</v>
+      </c>
+      <c r="AJ128" t="str">
+        <v>PREMIUM</v>
+      </c>
+      <c r="AK128" t="str">
+        <v>$630</v>
+      </c>
+      <c r="AL128" t="str">
+        <v>Juan</v>
+      </c>
+      <c r="AM128" t="str">
+        <v>Perez</v>
+      </c>
+      <c r="AN128" t="str">
+        <v>15</v>
+      </c>
+      <c r="AO128" t="str">
+        <v>Afghanistan</v>
+      </c>
+      <c r="AP128" t="str">
+        <v>Female</v>
+      </c>
+      <c r="AQ128" t="str">
+        <v/>
+      </c>
+      <c r="BQ128" t="str">
+        <v>INBOUND</v>
+      </c>
+      <c r="BR128" t="str">
+        <v>Tue, Aug 19</v>
+      </c>
+      <c r="BS128" t="str">
+        <v>Economy</v>
+      </c>
+      <c r="BT128" t="str">
+        <v>Light</v>
+      </c>
+      <c r="BU128" t="str">
+        <v>Economy Light</v>
+      </c>
+      <c r="BV128" t="str">
+        <v>BCN</v>
+      </c>
+      <c r="BW128" t="str">
+        <v>Barcelona</v>
+      </c>
+      <c r="BX128" t="str">
+        <v>SCL</v>
+      </c>
+      <c r="BY128" t="str">
+        <v>Santiago</v>
+      </c>
+      <c r="BZ128" t="str">
+        <v>00:05</v>
+      </c>
+      <c r="CA128" t="str">
+        <v>08:40</v>
+      </c>
+      <c r="CB128" t="str">
+        <v>14h 35m</v>
+      </c>
+      <c r="CC128" t="str">
+        <v>IB</v>
+      </c>
+      <c r="CD128" t="str">
+        <v>ECONOMY</v>
+      </c>
+      <c r="CE128" t="str">
+        <v>$472</v>
+      </c>
+      <c r="CF128" t="str">
+        <v>PREMIUM</v>
+      </c>
+      <c r="CG128" t="str">
+        <v>$867</v>
+      </c>
+    </row>
+    <row r="129">
+      <c r="A129" t="str">
+        <v>LF7MS</v>
+      </c>
+      <c r="B129" t="str">
+        <v>10/3/2025, 10:55:48</v>
+      </c>
+      <c r="C129" t="str">
+        <v>SCL</v>
+      </c>
+      <c r="D129" t="str">
+        <v>BCN</v>
+      </c>
+      <c r="E129" t="str">
+        <v>Round Trip</v>
+      </c>
+      <c r="F129" t="str">
+        <v>Economy</v>
+      </c>
+      <c r="G129" t="str">
+        <v>Light</v>
+      </c>
+      <c r="H129" t="str">
+        <v>Economy</v>
+      </c>
+      <c r="I129" t="str">
+        <v>Light</v>
+      </c>
+      <c r="J129">
+        <v>1</v>
+      </c>
+      <c r="K129">
+        <v>1</v>
+      </c>
+      <c r="L129">
+        <v>0</v>
+      </c>
+      <c r="M129" t="str">
+        <v>EN</v>
+      </c>
+      <c r="N129" t="str">
+        <v>Juan</v>
+      </c>
+      <c r="O129" t="str">
+        <v>Perez</v>
+      </c>
+      <c r="P129" t="str">
+        <v>sofiainkoova@gmail.com</v>
+      </c>
+      <c r="Q129" t="str">
+        <v>+93 791234567</v>
+      </c>
+      <c r="R129" t="str">
+        <v>4444 3333 2222 1111</v>
+      </c>
+      <c r="S129" t="str">
+        <v>Test Corporate</v>
+      </c>
+      <c r="T129" t="str">
+        <v>OUTBOUND</v>
+      </c>
+      <c r="U129" t="str">
+        <v>Tue, Jul 29</v>
+      </c>
+      <c r="V129" t="str">
+        <v>Economy</v>
+      </c>
+      <c r="W129" t="str">
+        <v>Light</v>
+      </c>
+      <c r="X129" t="str">
+        <v>Economy Light</v>
+      </c>
+      <c r="Y129" t="str">
+        <v>SCL</v>
+      </c>
+      <c r="Z129" t="str">
+        <v>Santiago</v>
+      </c>
+      <c r="AA129" t="str">
+        <v>BCN</v>
+      </c>
+      <c r="AB129" t="str">
+        <v>Barcelona</v>
+      </c>
+      <c r="AC129" t="str">
+        <v>10:25</v>
+      </c>
+      <c r="AD129" t="str">
+        <v>06:10</v>
+      </c>
+      <c r="AE129" t="str">
+        <v>13h 45m</v>
+      </c>
+      <c r="AF129" t="str">
+        <v>Yes</v>
+      </c>
+      <c r="AG129" t="str">
+        <v>IB</v>
+      </c>
+      <c r="AH129" t="str">
+        <v>ECONOMY</v>
+      </c>
+      <c r="AI129" t="str">
+        <v>$605</v>
+      </c>
+      <c r="AJ129" t="str">
+        <v>PREMIUM</v>
+      </c>
+      <c r="AK129" t="str">
+        <v>$630</v>
+      </c>
+      <c r="AL129" t="str">
+        <v>Juan</v>
+      </c>
+      <c r="AM129" t="str">
+        <v>Perez</v>
+      </c>
+      <c r="AN129" t="str">
+        <v>15</v>
+      </c>
+      <c r="AO129" t="str">
+        <v>Afghanistan</v>
+      </c>
+      <c r="AP129" t="str">
+        <v>Female</v>
+      </c>
+      <c r="AQ129" t="str">
+        <v/>
+      </c>
+      <c r="AX129" t="str">
+        <v>Valería M.</v>
+      </c>
+      <c r="AY129" t="str">
+        <v>García</v>
+      </c>
+      <c r="AZ129" t="str">
+        <v>10</v>
+      </c>
+      <c r="BA129" t="str">
+        <v>Mexico</v>
+      </c>
+      <c r="BB129" t="str">
+        <v/>
+      </c>
+      <c r="BQ129" t="str">
+        <v>INBOUND</v>
+      </c>
+      <c r="BR129" t="str">
+        <v>Wed, Jul 30</v>
+      </c>
+      <c r="BS129" t="str">
+        <v>Economy</v>
+      </c>
+      <c r="BT129" t="str">
+        <v>Light</v>
+      </c>
+      <c r="BU129" t="str">
+        <v>Economy Light</v>
+      </c>
+      <c r="BV129" t="str">
+        <v>BCN</v>
+      </c>
+      <c r="BW129" t="str">
+        <v>Barcelona</v>
+      </c>
+      <c r="BX129" t="str">
+        <v>SCL</v>
+      </c>
+      <c r="BY129" t="str">
+        <v>Santiago</v>
+      </c>
+      <c r="BZ129" t="str">
+        <v>00:05</v>
+      </c>
+      <c r="CA129" t="str">
+        <v>08:40</v>
+      </c>
+      <c r="CB129" t="str">
+        <v>14h 35m</v>
+      </c>
+      <c r="CC129" t="str">
+        <v>IB</v>
+      </c>
+      <c r="CD129" t="str">
+        <v>ECONOMY</v>
+      </c>
+      <c r="CE129" t="str">
+        <v>$772</v>
+      </c>
+      <c r="CF129" t="str">
+        <v>PREMIUM</v>
+      </c>
+      <c r="CG129" t="str">
+        <v>$1,218</v>
+      </c>
+    </row>
+    <row r="130">
+      <c r="A130" t="str">
+        <v>LF7NS</v>
+      </c>
+      <c r="B130" t="str">
+        <v>10/3/2025, 11:01:32</v>
+      </c>
+      <c r="C130" t="str">
+        <v>SCL</v>
+      </c>
+      <c r="D130" t="str">
+        <v>BCN</v>
+      </c>
+      <c r="E130" t="str">
+        <v>Round Trip</v>
+      </c>
+      <c r="F130" t="str">
+        <v>Economy</v>
+      </c>
+      <c r="G130" t="str">
+        <v>Extra</v>
+      </c>
+      <c r="H130" t="str">
+        <v>Economy</v>
+      </c>
+      <c r="I130" t="str">
+        <v>Light</v>
+      </c>
+      <c r="J130">
+        <v>1</v>
+      </c>
+      <c r="K130">
+        <v>0</v>
+      </c>
+      <c r="L130">
+        <v>0</v>
+      </c>
+      <c r="M130" t="str">
+        <v>EN</v>
+      </c>
+      <c r="N130" t="str">
+        <v>Juan</v>
+      </c>
+      <c r="O130" t="str">
+        <v>Perez</v>
+      </c>
+      <c r="P130" t="str">
+        <v>sofiainkoova@gmail.com</v>
+      </c>
+      <c r="Q130" t="str">
+        <v>+93 791234567</v>
+      </c>
+      <c r="R130" t="str">
+        <v>3607 0500 0010 20</v>
+      </c>
+      <c r="S130" t="str">
+        <v>Test Diners NL</v>
+      </c>
+      <c r="T130" t="str">
+        <v>OUTBOUND</v>
+      </c>
+      <c r="U130" t="str">
+        <v>Tue, Sep 9</v>
+      </c>
+      <c r="V130" t="str">
+        <v>Economy</v>
+      </c>
+      <c r="W130" t="str">
+        <v>Extra</v>
+      </c>
+      <c r="X130" t="str">
+        <v>Economy Extra</v>
+      </c>
+      <c r="Y130" t="str">
+        <v>SCL</v>
+      </c>
+      <c r="Z130" t="str">
+        <v>Santiago</v>
+      </c>
+      <c r="AA130" t="str">
+        <v>BCN</v>
+      </c>
+      <c r="AB130" t="str">
+        <v>Barcelona</v>
+      </c>
+      <c r="AC130" t="str">
+        <v>11:25</v>
+      </c>
+      <c r="AD130" t="str">
+        <v>06:10</v>
+      </c>
+      <c r="AE130" t="str">
+        <v>13h 45m</v>
+      </c>
+      <c r="AF130" t="str">
+        <v>Yes</v>
+      </c>
+      <c r="AG130" t="str">
+        <v>IB</v>
+      </c>
+      <c r="AH130" t="str">
+        <v>ECONOMY</v>
+      </c>
+      <c r="AI130" t="str">
+        <v>$775</v>
+      </c>
+      <c r="AJ130" t="str">
+        <v>PREMIUM</v>
+      </c>
+      <c r="AK130" t="str">
+        <v>$921</v>
+      </c>
+      <c r="AL130" t="str">
+        <v>Juan</v>
+      </c>
+      <c r="AM130" t="str">
+        <v>Perez</v>
+      </c>
+      <c r="AN130" t="str">
+        <v>15</v>
+      </c>
+      <c r="AO130" t="str">
+        <v>Afghanistan</v>
+      </c>
+      <c r="AP130" t="str">
+        <v>Female</v>
+      </c>
+      <c r="AQ130" t="str">
+        <v/>
+      </c>
+      <c r="BQ130" t="str">
+        <v>INBOUND</v>
+      </c>
+      <c r="BR130" t="str">
+        <v>Wed, Sep 10</v>
+      </c>
+      <c r="BS130" t="str">
+        <v>Economy</v>
+      </c>
+      <c r="BT130" t="str">
+        <v>Light</v>
+      </c>
+      <c r="BU130" t="str">
+        <v>Economy Light</v>
+      </c>
+      <c r="BV130" t="str">
+        <v>BCN</v>
+      </c>
+      <c r="BW130" t="str">
+        <v>Barcelona</v>
+      </c>
+      <c r="BX130" t="str">
+        <v>SCL</v>
+      </c>
+      <c r="BY130" t="str">
+        <v>Santiago</v>
+      </c>
+      <c r="BZ130" t="str">
+        <v>00:05</v>
+      </c>
+      <c r="CA130" t="str">
+        <v>09:40</v>
+      </c>
+      <c r="CB130" t="str">
+        <v>14h 35m</v>
+      </c>
+      <c r="CC130" t="str">
+        <v>IB</v>
+      </c>
+      <c r="CD130" t="str">
+        <v>ECONOMY</v>
+      </c>
+      <c r="CE130" t="str">
+        <v>$602</v>
+      </c>
+      <c r="CF130" t="str">
+        <v>PREMIUM</v>
+      </c>
+      <c r="CG130" t="str">
+        <v>$627</v>
+      </c>
+    </row>
+    <row r="131">
+      <c r="A131" t="str">
+        <v>LF7S5</v>
+      </c>
+      <c r="B131" t="str">
+        <v>10/3/2025, 11:18:36</v>
+      </c>
+      <c r="C131" t="str">
+        <v>SCL</v>
+      </c>
+      <c r="D131" t="str">
+        <v>BCN</v>
+      </c>
+      <c r="E131" t="str">
+        <v>Round Trip</v>
+      </c>
+      <c r="F131" t="str">
+        <v>Economy</v>
+      </c>
+      <c r="G131" t="str">
+        <v>Light</v>
+      </c>
+      <c r="H131" t="str">
+        <v>Economy</v>
+      </c>
+      <c r="I131" t="str">
+        <v>Light</v>
+      </c>
+      <c r="J131">
+        <v>2</v>
+      </c>
+      <c r="K131">
+        <v>0</v>
+      </c>
+      <c r="L131">
+        <v>0</v>
+      </c>
+      <c r="M131" t="str">
+        <v>EN</v>
+      </c>
+      <c r="N131" t="str">
+        <v>Prueba</v>
+      </c>
+      <c r="O131" t="str">
+        <v>Hola</v>
+      </c>
+      <c r="P131" t="str">
+        <v>sofiainkoova@gmail.com</v>
+      </c>
+      <c r="Q131" t="str">
+        <v>+93 791234567</v>
+      </c>
+      <c r="R131" t="str">
+        <v>5577 0000 5577 0004</v>
+      </c>
+      <c r="S131" t="str">
+        <v>Sofia Martínez</v>
+      </c>
+      <c r="T131" t="str">
+        <v>OUTBOUND</v>
+      </c>
+      <c r="U131" t="str">
+        <v>Thu, Aug 28</v>
+      </c>
+      <c r="V131" t="str">
+        <v>Economy</v>
+      </c>
+      <c r="W131" t="str">
+        <v>Light</v>
+      </c>
+      <c r="X131" t="str">
+        <v>Economy Light</v>
+      </c>
+      <c r="Y131" t="str">
+        <v>SCL</v>
+      </c>
+      <c r="Z131" t="str">
+        <v>Santiago</v>
+      </c>
+      <c r="AA131" t="str">
+        <v>BCN</v>
+      </c>
+      <c r="AB131" t="str">
+        <v>Barcelona</v>
+      </c>
+      <c r="AC131" t="str">
+        <v>10:25</v>
+      </c>
+      <c r="AD131" t="str">
+        <v>06:10</v>
+      </c>
+      <c r="AE131" t="str">
+        <v>13h 45m</v>
+      </c>
+      <c r="AF131" t="str">
+        <v>Yes</v>
+      </c>
+      <c r="AG131" t="str">
+        <v>IB</v>
+      </c>
+      <c r="AH131" t="str">
+        <v>ECONOMY</v>
+      </c>
+      <c r="AI131" t="str">
+        <v>$555</v>
+      </c>
+      <c r="AJ131" t="str">
+        <v>PREMIUM</v>
+      </c>
+      <c r="AK131" t="str">
+        <v>$921</v>
+      </c>
+      <c r="AL131" t="str">
+        <v>Prueba</v>
+      </c>
+      <c r="AM131" t="str">
+        <v>Hola</v>
+      </c>
+      <c r="AN131" t="str">
+        <v>25</v>
+      </c>
+      <c r="AO131" t="str">
+        <v>Afghanistan</v>
+      </c>
+      <c r="AP131" t="str">
+        <v>Female</v>
+      </c>
+      <c r="AQ131" t="str">
+        <v/>
+      </c>
+      <c r="AR131" t="str">
+        <v>Sofía</v>
+      </c>
+      <c r="AS131" t="str">
+        <v>Pérez</v>
+      </c>
+      <c r="AT131" t="str">
+        <v>34</v>
+      </c>
+      <c r="AU131" t="str">
+        <v>Afghanistan</v>
+      </c>
+      <c r="AV131" t="str">
+        <v>Female</v>
+      </c>
+      <c r="AW131" t="str">
+        <v/>
+      </c>
+      <c r="BQ131" t="str">
+        <v>INBOUND</v>
+      </c>
+      <c r="BR131" t="str">
+        <v>Sat, Aug 30</v>
+      </c>
+      <c r="BS131" t="str">
+        <v>Economy</v>
+      </c>
+      <c r="BT131" t="str">
+        <v>Light</v>
+      </c>
+      <c r="BU131" t="str">
+        <v>Economy Light</v>
+      </c>
+      <c r="BV131" t="str">
+        <v>BCN</v>
+      </c>
+      <c r="BW131" t="str">
+        <v>Barcelona</v>
+      </c>
+      <c r="BX131" t="str">
+        <v>SCL</v>
+      </c>
+      <c r="BY131" t="str">
+        <v>Santiago</v>
+      </c>
+      <c r="BZ131" t="str">
+        <v>00:05</v>
+      </c>
+      <c r="CA131" t="str">
+        <v>08:40</v>
+      </c>
+      <c r="CB131" t="str">
+        <v>14h 35m</v>
+      </c>
+      <c r="CC131" t="str">
+        <v>IB</v>
+      </c>
+      <c r="CD131" t="str">
+        <v>ECONOMY</v>
+      </c>
+      <c r="CE131" t="str">
+        <v>$472</v>
+      </c>
+      <c r="CF131" t="str">
+        <v>PREMIUM</v>
+      </c>
+      <c r="CG131" t="str">
+        <v>$627</v>
+      </c>
+    </row>
+    <row r="132">
+      <c r="A132" t="str">
+        <v>MK80Y</v>
+      </c>
+      <c r="B132" t="str">
+        <v>10/3/2025, 11:54:19</v>
+      </c>
+      <c r="C132" t="str">
+        <v>SCL</v>
+      </c>
+      <c r="D132" t="str">
+        <v>BCN</v>
+      </c>
+      <c r="E132" t="str">
+        <v>Round Trip</v>
+      </c>
+      <c r="F132" t="str">
+        <v>Economy</v>
+      </c>
+      <c r="G132" t="str">
+        <v>Light</v>
+      </c>
+      <c r="H132" t="str">
+        <v>Economy</v>
+      </c>
+      <c r="I132" t="str">
+        <v>Light</v>
+      </c>
+      <c r="J132">
+        <v>1</v>
+      </c>
+      <c r="K132">
+        <v>1</v>
+      </c>
+      <c r="L132">
+        <v>0</v>
+      </c>
+      <c r="M132" t="str">
+        <v>EN</v>
+      </c>
+      <c r="N132" t="str">
+        <v>Juan</v>
+      </c>
+      <c r="O132" t="str">
+        <v>Perez</v>
+      </c>
+      <c r="P132" t="str">
+        <v>sofiainkoova@gmail.com</v>
+      </c>
+      <c r="Q132" t="str">
+        <v>+93 791234567</v>
+      </c>
+      <c r="R132" t="str">
+        <v>5555 4444 3333 1111</v>
+      </c>
+      <c r="S132" t="str">
+        <v>Test Consumer</v>
+      </c>
+      <c r="T132" t="str">
+        <v>OUTBOUND</v>
+      </c>
+      <c r="U132" t="str">
+        <v>Thu, Jul 31</v>
+      </c>
+      <c r="V132" t="str">
+        <v>Economy</v>
+      </c>
+      <c r="W132" t="str">
+        <v>Light</v>
+      </c>
+      <c r="X132" t="str">
+        <v>Economy Light</v>
+      </c>
+      <c r="Y132" t="str">
+        <v>SCL</v>
+      </c>
+      <c r="Z132" t="str">
+        <v>Santiago</v>
+      </c>
+      <c r="AA132" t="str">
+        <v>BCN</v>
+      </c>
+      <c r="AB132" t="str">
+        <v>Barcelona</v>
+      </c>
+      <c r="AC132" t="str">
+        <v>10:25</v>
+      </c>
+      <c r="AD132" t="str">
+        <v>06:10</v>
+      </c>
+      <c r="AE132" t="str">
+        <v>13h 45m</v>
+      </c>
+      <c r="AF132" t="str">
+        <v>Yes</v>
+      </c>
+      <c r="AG132" t="str">
+        <v>IB</v>
+      </c>
+      <c r="AH132" t="str">
+        <v>ECONOMY</v>
+      </c>
+      <c r="AI132" t="str">
+        <v>$407</v>
+      </c>
+      <c r="AJ132" t="str">
+        <v>PREMIUM</v>
+      </c>
+      <c r="AK132" t="str">
+        <v>$630</v>
+      </c>
+      <c r="AL132" t="str">
+        <v>Juan</v>
+      </c>
+      <c r="AM132" t="str">
+        <v>Perez</v>
+      </c>
+      <c r="AN132" t="str">
+        <v>15</v>
+      </c>
+      <c r="AO132" t="str">
+        <v>Afghanistan</v>
+      </c>
+      <c r="AP132" t="str">
+        <v>Female</v>
+      </c>
+      <c r="AQ132" t="str">
+        <v/>
+      </c>
+      <c r="AX132" t="str">
+        <v>Mateo</v>
+      </c>
+      <c r="AY132" t="str">
+        <v>Ramírez</v>
+      </c>
+      <c r="AZ132" t="str">
+        <v>11</v>
+      </c>
+      <c r="BA132" t="str">
+        <v>Argentina</v>
+      </c>
+      <c r="BB132" t="str">
+        <v>Visual difficulty</v>
+      </c>
+      <c r="BQ132" t="str">
+        <v>INBOUND</v>
+      </c>
+      <c r="BR132" t="str">
+        <v>Sat, Aug 2</v>
+      </c>
+      <c r="BS132" t="str">
+        <v>Economy</v>
+      </c>
+      <c r="BT132" t="str">
+        <v>Light</v>
+      </c>
+      <c r="BU132" t="str">
+        <v>Economy Light</v>
+      </c>
+      <c r="BV132" t="str">
+        <v>BCN</v>
+      </c>
+      <c r="BW132" t="str">
+        <v>Barcelona</v>
+      </c>
+      <c r="BX132" t="str">
+        <v>SCL</v>
+      </c>
+      <c r="BY132" t="str">
+        <v>Santiago</v>
+      </c>
+      <c r="BZ132" t="str">
+        <v>00:05</v>
+      </c>
+      <c r="CA132" t="str">
+        <v>08:40</v>
+      </c>
+      <c r="CB132" t="str">
+        <v>14h 35m</v>
+      </c>
+      <c r="CC132" t="str">
+        <v>IB</v>
+      </c>
+      <c r="CD132" t="str">
+        <v>ECONOMY</v>
+      </c>
+      <c r="CE132" t="str">
+        <v>$772</v>
+      </c>
+      <c r="CF132" t="str">
+        <v>PREMIUM</v>
+      </c>
+      <c r="CG132" t="str">
+        <v>$1,218</v>
+      </c>
+    </row>
+    <row r="133">
+      <c r="A133" t="str">
+        <v>MK81M</v>
+      </c>
+      <c r="B133" t="str">
+        <v>10/3/2025, 11:57:43</v>
+      </c>
+      <c r="C133" t="str">
+        <v>SCL</v>
+      </c>
+      <c r="D133" t="str">
+        <v>BCN</v>
+      </c>
+      <c r="E133" t="str">
+        <v>Round Trip</v>
+      </c>
+      <c r="F133" t="str">
+        <v>Economy</v>
+      </c>
+      <c r="G133" t="str">
+        <v>Light</v>
+      </c>
+      <c r="H133" t="str">
+        <v>Economy</v>
+      </c>
+      <c r="I133" t="str">
+        <v>Light</v>
+      </c>
+      <c r="J133">
+        <v>1</v>
+      </c>
+      <c r="K133">
+        <v>3</v>
+      </c>
+      <c r="L133">
+        <v>0</v>
+      </c>
+      <c r="M133" t="str">
+        <v>EN</v>
+      </c>
+      <c r="N133" t="str">
+        <v>Juan</v>
+      </c>
+      <c r="O133" t="str">
+        <v>Perez</v>
+      </c>
+      <c r="P133" t="str">
+        <v>sofiainkoova@gmail.com</v>
+      </c>
+      <c r="Q133" t="str">
+        <v>+93 791234567</v>
+      </c>
+      <c r="R133" t="str">
+        <v>2222 4107 4036 0010</v>
+      </c>
+      <c r="S133" t="str">
+        <v>Test Corporate</v>
+      </c>
+      <c r="T133" t="str">
+        <v>OUTBOUND</v>
+      </c>
+      <c r="U133" t="str">
+        <v>Thu, Jul 17</v>
+      </c>
+      <c r="V133" t="str">
+        <v>Economy</v>
+      </c>
+      <c r="W133" t="str">
+        <v>Light</v>
+      </c>
+      <c r="X133" t="str">
+        <v>Economy Light</v>
+      </c>
+      <c r="Y133" t="str">
+        <v>SCL</v>
+      </c>
+      <c r="Z133" t="str">
+        <v>Santiago</v>
+      </c>
+      <c r="AA133" t="str">
+        <v>BCN</v>
+      </c>
+      <c r="AB133" t="str">
+        <v>Barcelona</v>
+      </c>
+      <c r="AC133" t="str">
+        <v>10:25</v>
+      </c>
+      <c r="AD133" t="str">
+        <v>06:10</v>
+      </c>
+      <c r="AE133" t="str">
+        <v>13h 45m</v>
+      </c>
+      <c r="AF133" t="str">
+        <v>Yes</v>
+      </c>
+      <c r="AG133" t="str">
+        <v>IB</v>
+      </c>
+      <c r="AH133" t="str">
+        <v>ECONOMY</v>
+      </c>
+      <c r="AI133" t="str">
+        <v>$407</v>
+      </c>
+      <c r="AJ133" t="str">
+        <v>PREMIUM</v>
+      </c>
+      <c r="AK133" t="str">
+        <v>$630</v>
+      </c>
+      <c r="AL133" t="str">
+        <v>Juan</v>
+      </c>
+      <c r="AM133" t="str">
+        <v>Perez</v>
+      </c>
+      <c r="AN133" t="str">
+        <v>15</v>
+      </c>
+      <c r="AO133" t="str">
+        <v>Afghanistan</v>
+      </c>
+      <c r="AP133" t="str">
+        <v>Female</v>
+      </c>
+      <c r="AQ133" t="str">
+        <v/>
+      </c>
+      <c r="AX133" t="str">
+        <v>Daniel</v>
+      </c>
+      <c r="AY133" t="str">
+        <v>Cruz</v>
+      </c>
+      <c r="AZ133" t="str">
+        <v>10</v>
+      </c>
+      <c r="BA133" t="str">
+        <v>Peru</v>
+      </c>
+      <c r="BB133" t="str">
+        <v>Help with climbing and descending stairs. I can move around the plane without difficulty</v>
+      </c>
+      <c r="BC133" t="str">
+        <v>Isabella</v>
+      </c>
+      <c r="BD133" t="str">
+        <v>Sánchez</v>
+      </c>
+      <c r="BE133" t="str">
+        <v>4</v>
+      </c>
+      <c r="BF133" t="str">
+        <v>Colombia</v>
+      </c>
+      <c r="BG133" t="str">
+        <v/>
+      </c>
+      <c r="BH133" t="str">
+        <v>Diego</v>
+      </c>
+      <c r="BI133" t="str">
+        <v>Martínez</v>
+      </c>
+      <c r="BJ133" t="str">
+        <v>8</v>
+      </c>
+      <c r="BK133" t="str">
+        <v>Chile</v>
+      </c>
+      <c r="BL133" t="str">
+        <v/>
+      </c>
+      <c r="BQ133" t="str">
+        <v>INBOUND</v>
+      </c>
+      <c r="BR133" t="str">
+        <v>Sat, Jul 19</v>
+      </c>
+      <c r="BS133" t="str">
+        <v>Economy</v>
+      </c>
+      <c r="BT133" t="str">
+        <v>Light</v>
+      </c>
+      <c r="BU133" t="str">
+        <v>Economy Light</v>
+      </c>
+      <c r="BV133" t="str">
+        <v>BCN</v>
+      </c>
+      <c r="BW133" t="str">
+        <v>Barcelona</v>
+      </c>
+      <c r="BX133" t="str">
+        <v>SCL</v>
+      </c>
+      <c r="BY133" t="str">
+        <v>Santiago</v>
+      </c>
+      <c r="BZ133" t="str">
+        <v>00:05</v>
+      </c>
+      <c r="CA133" t="str">
+        <v>08:40</v>
+      </c>
+      <c r="CB133" t="str">
+        <v>14h 35m</v>
+      </c>
+      <c r="CC133" t="str">
+        <v>IB</v>
+      </c>
+      <c r="CD133" t="str">
+        <v>ECONOMY</v>
+      </c>
+      <c r="CE133" t="str">
+        <v>$642</v>
+      </c>
+      <c r="CF133" t="str">
+        <v>PREMIUM</v>
+      </c>
+      <c r="CG133" t="str">
+        <v>$918</v>
+      </c>
+    </row>
+    <row r="134">
+      <c r="A134" t="str">
+        <v>MK822</v>
+      </c>
+      <c r="B134" t="str">
+        <v>10/3/2025, 11:59:37</v>
+      </c>
+      <c r="C134" t="str">
+        <v>SCL</v>
+      </c>
+      <c r="D134" t="str">
+        <v>BCN</v>
+      </c>
+      <c r="E134" t="str">
+        <v>Round Trip</v>
+      </c>
+      <c r="F134" t="str">
+        <v>Economy</v>
+      </c>
+      <c r="G134" t="str">
+        <v>Light</v>
+      </c>
+      <c r="H134" t="str">
+        <v>Economy</v>
+      </c>
+      <c r="I134" t="str">
+        <v>Light</v>
+      </c>
+      <c r="J134">
+        <v>1</v>
+      </c>
+      <c r="K134">
+        <v>0</v>
+      </c>
+      <c r="L134">
+        <v>1</v>
+      </c>
+      <c r="M134" t="str">
+        <v>EN</v>
+      </c>
+      <c r="N134" t="str">
+        <v>Juan</v>
+      </c>
+      <c r="O134" t="str">
+        <v>Perez</v>
+      </c>
+      <c r="P134" t="str">
+        <v>sofiainkoova@gmail.com</v>
+      </c>
+      <c r="Q134" t="str">
+        <v>+93 791234567</v>
+      </c>
+      <c r="R134" t="str">
+        <v>6011 6011 6011 6611</v>
+      </c>
+      <c r="S134" t="str">
+        <v>Test Discover</v>
+      </c>
+      <c r="T134" t="str">
+        <v>OUTBOUND</v>
+      </c>
+      <c r="U134" t="str">
+        <v>Tue, Aug 5</v>
+      </c>
+      <c r="V134" t="str">
+        <v>Economy</v>
+      </c>
+      <c r="W134" t="str">
+        <v>Light</v>
+      </c>
+      <c r="X134" t="str">
+        <v>Economy Light</v>
+      </c>
+      <c r="Y134" t="str">
+        <v>SCL</v>
+      </c>
+      <c r="Z134" t="str">
+        <v>Santiago</v>
+      </c>
+      <c r="AA134" t="str">
+        <v>BCN</v>
+      </c>
+      <c r="AB134" t="str">
+        <v>Barcelona</v>
+      </c>
+      <c r="AC134" t="str">
+        <v>10:25</v>
+      </c>
+      <c r="AD134" t="str">
+        <v>06:10</v>
+      </c>
+      <c r="AE134" t="str">
+        <v>13h 45m</v>
+      </c>
+      <c r="AF134" t="str">
+        <v>Yes</v>
+      </c>
+      <c r="AG134" t="str">
+        <v>IB</v>
+      </c>
+      <c r="AH134" t="str">
+        <v>ECONOMY</v>
+      </c>
+      <c r="AI134" t="str">
+        <v>$605</v>
+      </c>
+      <c r="AJ134" t="str">
+        <v>PREMIUM</v>
+      </c>
+      <c r="AK134" t="str">
+        <v>$630</v>
+      </c>
+      <c r="AL134" t="str">
+        <v>Juan</v>
+      </c>
+      <c r="AM134" t="str">
+        <v>Perez</v>
+      </c>
+      <c r="AN134" t="str">
+        <v>15</v>
+      </c>
+      <c r="AO134" t="str">
+        <v>Afghanistan</v>
+      </c>
+      <c r="AP134" t="str">
+        <v>Female</v>
+      </c>
+      <c r="AQ134" t="str">
+        <v/>
+      </c>
+      <c r="BM134" t="str">
+        <v>Mateó</v>
+      </c>
+      <c r="BN134" t="str">
+        <v>Rodríguez</v>
+      </c>
+      <c r="BO134" t="str">
+        <v>0</v>
+      </c>
+      <c r="BP134" t="str">
+        <v>Chile</v>
+      </c>
+      <c r="BQ134" t="str">
+        <v>INBOUND</v>
+      </c>
+      <c r="BR134" t="str">
+        <v>Wed, Aug 6</v>
+      </c>
+      <c r="BS134" t="str">
+        <v>Economy</v>
+      </c>
+      <c r="BT134" t="str">
+        <v>Light</v>
+      </c>
+      <c r="BU134" t="str">
+        <v>Economy Light</v>
+      </c>
+      <c r="BV134" t="str">
+        <v>BCN</v>
+      </c>
+      <c r="BW134" t="str">
+        <v>Barcelona</v>
+      </c>
+      <c r="BX134" t="str">
+        <v>SCL</v>
+      </c>
+      <c r="BY134" t="str">
+        <v>Santiago</v>
+      </c>
+      <c r="BZ134" t="str">
+        <v>00:05</v>
+      </c>
+      <c r="CA134" t="str">
+        <v>08:40</v>
+      </c>
+      <c r="CB134" t="str">
+        <v>14h 35m</v>
+      </c>
+      <c r="CC134" t="str">
+        <v>IB</v>
+      </c>
+      <c r="CD134" t="str">
+        <v>ECONOMY</v>
+      </c>
+      <c r="CE134" t="str">
+        <v>$772</v>
+      </c>
+      <c r="CF134" t="str">
+        <v>PREMIUM</v>
+      </c>
+      <c r="CG134" t="str">
+        <v>$918</v>
+      </c>
+    </row>
+    <row r="135">
+      <c r="A135" t="str">
+        <v>MK82D</v>
+      </c>
+      <c r="B135" t="str">
+        <v>10/3/2025, 12:01:18</v>
+      </c>
+      <c r="C135" t="str">
+        <v>SCL</v>
+      </c>
+      <c r="D135" t="str">
+        <v>BCN</v>
+      </c>
+      <c r="E135" t="str">
+        <v>Round Trip</v>
+      </c>
+      <c r="F135" t="str">
+        <v>Economy</v>
+      </c>
+      <c r="G135" t="str">
+        <v>Light</v>
+      </c>
+      <c r="H135" t="str">
+        <v>Economy</v>
+      </c>
+      <c r="I135" t="str">
+        <v>Light</v>
+      </c>
+      <c r="J135">
+        <v>1</v>
+      </c>
+      <c r="K135">
+        <v>0</v>
+      </c>
+      <c r="L135">
+        <v>0</v>
+      </c>
+      <c r="M135" t="str">
+        <v>EN</v>
+      </c>
+      <c r="N135" t="str">
+        <v>Juan</v>
+      </c>
+      <c r="O135" t="str">
+        <v>Perez</v>
+      </c>
+      <c r="P135" t="str">
+        <v>sofiainkoova@gmail.com</v>
+      </c>
+      <c r="Q135" t="str">
+        <v>+93 791234567</v>
+      </c>
+      <c r="R135" t="str">
+        <v>6445 6445 6445 6445</v>
+      </c>
+      <c r="S135" t="str">
+        <v>Test Discover GB</v>
+      </c>
+      <c r="T135" t="str">
+        <v>OUTBOUND</v>
+      </c>
+      <c r="U135" t="str">
+        <v>Sat, Aug 9</v>
+      </c>
+      <c r="V135" t="str">
+        <v>Economy</v>
+      </c>
+      <c r="W135" t="str">
+        <v>Light</v>
+      </c>
+      <c r="X135" t="str">
+        <v>Economy Light</v>
+      </c>
+      <c r="Y135" t="str">
+        <v>SCL</v>
+      </c>
+      <c r="Z135" t="str">
+        <v>Santiago</v>
+      </c>
+      <c r="AA135" t="str">
+        <v>BCN</v>
+      </c>
+      <c r="AB135" t="str">
+        <v>Barcelona</v>
+      </c>
+      <c r="AC135" t="str">
+        <v>10:25</v>
+      </c>
+      <c r="AD135" t="str">
+        <v>06:10</v>
+      </c>
+      <c r="AE135" t="str">
+        <v>13h 45m</v>
+      </c>
+      <c r="AF135" t="str">
+        <v>Yes</v>
+      </c>
+      <c r="AG135" t="str">
+        <v>IB</v>
+      </c>
+      <c r="AH135" t="str">
+        <v>ECONOMY</v>
+      </c>
+      <c r="AI135" t="str">
+        <v>$475</v>
+      </c>
+      <c r="AJ135" t="str">
+        <v>PREMIUM</v>
+      </c>
+      <c r="AK135" t="str">
+        <v>$630</v>
+      </c>
+      <c r="AL135" t="str">
+        <v>Juan</v>
+      </c>
+      <c r="AM135" t="str">
+        <v>Perez</v>
+      </c>
+      <c r="AN135" t="str">
+        <v>15</v>
+      </c>
+      <c r="AO135" t="str">
+        <v>Afghanistan</v>
+      </c>
+      <c r="AP135" t="str">
+        <v>Female</v>
+      </c>
+      <c r="AQ135" t="str">
+        <v/>
+      </c>
+      <c r="BQ135" t="str">
+        <v>INBOUND</v>
+      </c>
+      <c r="BR135" t="str">
+        <v>Tue, Aug 12</v>
+      </c>
+      <c r="BS135" t="str">
+        <v>Economy</v>
+      </c>
+      <c r="BT135" t="str">
+        <v>Light</v>
+      </c>
+      <c r="BU135" t="str">
+        <v>Economy Light</v>
+      </c>
+      <c r="BV135" t="str">
+        <v>BCN</v>
+      </c>
+      <c r="BW135" t="str">
+        <v>Barcelona</v>
+      </c>
+      <c r="BX135" t="str">
+        <v>SCL</v>
+      </c>
+      <c r="BY135" t="str">
+        <v>Santiago</v>
+      </c>
+      <c r="BZ135" t="str">
+        <v>00:05</v>
+      </c>
+      <c r="CA135" t="str">
+        <v>08:40</v>
+      </c>
+      <c r="CB135" t="str">
+        <v>14h 35m</v>
+      </c>
+      <c r="CC135" t="str">
+        <v>IB</v>
+      </c>
+      <c r="CD135" t="str">
+        <v>ECONOMY</v>
+      </c>
+      <c r="CE135" t="str">
+        <v>$562</v>
+      </c>
+      <c r="CF135" t="str">
+        <v>PREMIUM</v>
+      </c>
+      <c r="CG135" t="str">
+        <v>$867</v>
+      </c>
+    </row>
+    <row r="136">
+      <c r="A136" t="str">
+        <v>MK83F</v>
+      </c>
+      <c r="B136" t="str">
+        <v>10/3/2025, 12:03:51</v>
+      </c>
+      <c r="C136" t="str">
+        <v>SCL</v>
+      </c>
+      <c r="D136" t="str">
+        <v>BCN</v>
+      </c>
+      <c r="E136" t="str">
+        <v>Round Trip</v>
+      </c>
+      <c r="F136" t="str">
+        <v>Economy</v>
+      </c>
+      <c r="G136" t="str">
+        <v>Comfort</v>
+      </c>
+      <c r="H136" t="str">
+        <v>Economy</v>
+      </c>
+      <c r="I136" t="str">
+        <v>Comfort</v>
+      </c>
+      <c r="J136">
+        <v>1</v>
+      </c>
+      <c r="K136">
+        <v>0</v>
+      </c>
+      <c r="L136">
+        <v>0</v>
+      </c>
+      <c r="M136" t="str">
+        <v>EN</v>
+      </c>
+      <c r="N136" t="str">
+        <v>Juan</v>
+      </c>
+      <c r="O136" t="str">
+        <v>Perez</v>
+      </c>
+      <c r="P136" t="str">
+        <v>sofiainkoova@gmail.com</v>
+      </c>
+      <c r="Q136" t="str">
+        <v>+93 791234567</v>
+      </c>
+      <c r="R136" t="str">
+        <v>3600 6666 3333 44</v>
+      </c>
+      <c r="S136" t="str">
+        <v>Test Diners</v>
+      </c>
+      <c r="T136" t="str">
+        <v>OUTBOUND</v>
+      </c>
+      <c r="U136" t="str">
+        <v>Sat, Aug 23</v>
+      </c>
+      <c r="V136" t="str">
+        <v>Economy</v>
+      </c>
+      <c r="W136" t="str">
+        <v>Comfort</v>
+      </c>
+      <c r="X136" t="str">
+        <v>Economy Comfort</v>
+      </c>
+      <c r="Y136" t="str">
+        <v>SCL</v>
+      </c>
+      <c r="Z136" t="str">
+        <v>Santiago</v>
+      </c>
+      <c r="AA136" t="str">
+        <v>BCN</v>
+      </c>
+      <c r="AB136" t="str">
+        <v>Barcelona</v>
+      </c>
+      <c r="AC136" t="str">
+        <v>10:25</v>
+      </c>
+      <c r="AD136" t="str">
+        <v>06:10</v>
+      </c>
+      <c r="AE136" t="str">
+        <v>13h 45m</v>
+      </c>
+      <c r="AF136" t="str">
+        <v>Yes</v>
+      </c>
+      <c r="AG136" t="str">
+        <v>IB</v>
+      </c>
+      <c r="AH136" t="str">
+        <v>ECONOMY</v>
+      </c>
+      <c r="AI136" t="str">
+        <v>$535</v>
+      </c>
+      <c r="AJ136" t="str">
+        <v>PREMIUM</v>
+      </c>
+      <c r="AK136" t="str">
+        <v>$870</v>
+      </c>
+      <c r="AL136" t="str">
+        <v>Juan</v>
+      </c>
+      <c r="AM136" t="str">
+        <v>Perez</v>
+      </c>
+      <c r="AN136" t="str">
+        <v>15</v>
+      </c>
+      <c r="AO136" t="str">
+        <v>Afghanistan</v>
+      </c>
+      <c r="AP136" t="str">
+        <v>Female</v>
+      </c>
+      <c r="AQ136" t="str">
+        <v/>
+      </c>
+      <c r="BQ136" t="str">
+        <v>INBOUND</v>
+      </c>
+      <c r="BR136" t="str">
+        <v>Tue, Aug 26</v>
+      </c>
+      <c r="BS136" t="str">
+        <v>Economy</v>
+      </c>
+      <c r="BT136" t="str">
+        <v>Comfort</v>
+      </c>
+      <c r="BU136" t="str">
+        <v>Economy Comfort</v>
+      </c>
+      <c r="BV136" t="str">
+        <v>BCN</v>
+      </c>
+      <c r="BW136" t="str">
+        <v>Barcelona</v>
+      </c>
+      <c r="BX136" t="str">
+        <v>SCL</v>
+      </c>
+      <c r="BY136" t="str">
+        <v>Santiago</v>
+      </c>
+      <c r="BZ136" t="str">
+        <v>00:05</v>
+      </c>
+      <c r="CA136" t="str">
+        <v>08:40</v>
+      </c>
+      <c r="CB136" t="str">
+        <v>14h 35m</v>
+      </c>
+      <c r="CC136" t="str">
+        <v>IB</v>
+      </c>
+      <c r="CD136" t="str">
+        <v>ECONOMY</v>
+      </c>
+      <c r="CE136" t="str">
+        <v>$472</v>
+      </c>
+      <c r="CF136" t="str">
+        <v>PREMIUM</v>
+      </c>
+      <c r="CG136" t="str">
+        <v>$627</v>
+      </c>
+    </row>
+    <row r="137">
+      <c r="A137" t="str">
+        <v>MK847</v>
+      </c>
+      <c r="B137" t="str">
+        <v>10/3/2025, 12:05:47</v>
+      </c>
+      <c r="C137" t="str">
+        <v>SCL</v>
+      </c>
+      <c r="D137" t="str">
+        <v>BCN</v>
+      </c>
+      <c r="E137" t="str">
+        <v>Round Trip</v>
+      </c>
+      <c r="F137" t="str">
+        <v>Premium</v>
+      </c>
+      <c r="G137" t="str">
+        <v>Light</v>
+      </c>
+      <c r="H137" t="str">
+        <v>Economy</v>
+      </c>
+      <c r="I137" t="str">
+        <v>Light</v>
+      </c>
+      <c r="J137">
+        <v>1</v>
+      </c>
+      <c r="K137">
+        <v>0</v>
+      </c>
+      <c r="L137">
+        <v>0</v>
+      </c>
+      <c r="M137" t="str">
+        <v>EN</v>
+      </c>
+      <c r="N137" t="str">
+        <v>Juan</v>
+      </c>
+      <c r="O137" t="str">
+        <v>Perez</v>
+      </c>
+      <c r="P137" t="str">
+        <v>sofiainkoova@gmail.com</v>
+      </c>
+      <c r="Q137" t="str">
+        <v>+93 791234567</v>
+      </c>
+      <c r="R137" t="str">
+        <v>2222 4000 7000 0005</v>
+      </c>
+      <c r="S137" t="str">
+        <v>Juan Pablo Antonio Maximiliano Alejandro Fernández de Córdoba Sánchez</v>
+      </c>
+      <c r="T137" t="str">
+        <v>OUTBOUND</v>
+      </c>
+      <c r="U137" t="str">
+        <v>Tue, Jul 29</v>
+      </c>
+      <c r="V137" t="str">
+        <v>Premium</v>
+      </c>
+      <c r="W137" t="str">
+        <v>Light</v>
+      </c>
+      <c r="X137" t="str">
+        <v>Premium Light</v>
+      </c>
+      <c r="Y137" t="str">
+        <v>SCL</v>
+      </c>
+      <c r="Z137" t="str">
+        <v>Santiago</v>
+      </c>
+      <c r="AA137" t="str">
+        <v>BCN</v>
+      </c>
+      <c r="AB137" t="str">
+        <v>Barcelona</v>
+      </c>
+      <c r="AC137" t="str">
+        <v>10:25</v>
+      </c>
+      <c r="AD137" t="str">
+        <v>06:10</v>
+      </c>
+      <c r="AE137" t="str">
+        <v>13h 45m</v>
+      </c>
+      <c r="AF137" t="str">
+        <v>Yes</v>
+      </c>
+      <c r="AG137" t="str">
+        <v>IB</v>
+      </c>
+      <c r="AH137" t="str">
+        <v>ECONOMY</v>
+      </c>
+      <c r="AI137" t="str">
+        <v>$605</v>
+      </c>
+      <c r="AJ137" t="str">
+        <v>PREMIUM</v>
+      </c>
+      <c r="AK137" t="str">
+        <v>$630</v>
+      </c>
+      <c r="AL137" t="str">
+        <v>Juan</v>
+      </c>
+      <c r="AM137" t="str">
+        <v>Perez</v>
+      </c>
+      <c r="AN137" t="str">
+        <v>15</v>
+      </c>
+      <c r="AO137" t="str">
+        <v>Afghanistan</v>
+      </c>
+      <c r="AP137" t="str">
+        <v>Female</v>
+      </c>
+      <c r="AQ137" t="str">
+        <v/>
+      </c>
+      <c r="BQ137" t="str">
+        <v>INBOUND</v>
+      </c>
+      <c r="BR137" t="str">
+        <v>Wed, Jul 30</v>
+      </c>
+      <c r="BS137" t="str">
+        <v>Economy</v>
+      </c>
+      <c r="BT137" t="str">
+        <v>Light</v>
+      </c>
+      <c r="BU137" t="str">
+        <v>Economy Light</v>
+      </c>
+      <c r="BV137" t="str">
+        <v>BCN</v>
+      </c>
+      <c r="BW137" t="str">
+        <v>Barcelona</v>
+      </c>
+      <c r="BX137" t="str">
+        <v>SCL</v>
+      </c>
+      <c r="BY137" t="str">
+        <v>Santiago</v>
+      </c>
+      <c r="BZ137" t="str">
+        <v>00:05</v>
+      </c>
+      <c r="CA137" t="str">
+        <v>08:40</v>
+      </c>
+      <c r="CB137" t="str">
+        <v>14h 35m</v>
+      </c>
+      <c r="CC137" t="str">
+        <v>IB</v>
+      </c>
+      <c r="CD137" t="str">
+        <v>ECONOMY</v>
+      </c>
+      <c r="CE137" t="str">
+        <v>$772</v>
+      </c>
+      <c r="CF137" t="str">
+        <v>PREMIUM</v>
+      </c>
+      <c r="CG137" t="str">
+        <v>$1,218</v>
+      </c>
+    </row>
+    <row r="138">
+      <c r="A138" t="str">
+        <v>MK84T</v>
+      </c>
+      <c r="B138" t="str">
+        <v>10/3/2025, 12:07:00</v>
+      </c>
+      <c r="C138" t="str">
+        <v>SCL</v>
+      </c>
+      <c r="D138" t="str">
+        <v>BCN</v>
+      </c>
+      <c r="E138" t="str">
+        <v>Round Trip</v>
+      </c>
+      <c r="F138" t="str">
+        <v>Premium</v>
+      </c>
+      <c r="G138" t="str">
+        <v>Light</v>
+      </c>
+      <c r="H138" t="str">
+        <v>Economy</v>
+      </c>
+      <c r="I138" t="str">
+        <v>Comfort</v>
+      </c>
+      <c r="J138">
+        <v>1</v>
+      </c>
+      <c r="K138">
+        <v>0</v>
+      </c>
+      <c r="L138">
+        <v>0</v>
+      </c>
+      <c r="M138" t="str">
+        <v>EN</v>
+      </c>
+      <c r="N138" t="str">
+        <v>Juan</v>
+      </c>
+      <c r="O138" t="str">
+        <v>Perez</v>
+      </c>
+      <c r="P138" t="str">
+        <v>sofiainkoova@gmail.com</v>
+      </c>
+      <c r="Q138" t="str">
+        <v>+93 791234567</v>
+      </c>
+      <c r="R138" t="str">
+        <v>5577 0000 5577 0004</v>
+      </c>
+      <c r="S138" t="str">
+        <v>Sofia Martínez</v>
+      </c>
+      <c r="T138" t="str">
+        <v>OUTBOUND</v>
+      </c>
+      <c r="U138" t="str">
+        <v>Sat, Sep 6</v>
+      </c>
+      <c r="V138" t="str">
+        <v>Premium</v>
+      </c>
+      <c r="W138" t="str">
+        <v>Light</v>
+      </c>
+      <c r="X138" t="str">
+        <v>Premium Light</v>
+      </c>
+      <c r="Y138" t="str">
+        <v>SCL</v>
+      </c>
+      <c r="Z138" t="str">
+        <v>Santiago</v>
+      </c>
+      <c r="AA138" t="str">
+        <v>BCN</v>
+      </c>
+      <c r="AB138" t="str">
+        <v>Barcelona</v>
+      </c>
+      <c r="AC138" t="str">
+        <v>10:25</v>
+      </c>
+      <c r="AD138" t="str">
+        <v>06:10</v>
+      </c>
+      <c r="AE138" t="str">
+        <v>13h 45m</v>
+      </c>
+      <c r="AF138" t="str">
+        <v>Yes</v>
+      </c>
+      <c r="AG138" t="str">
+        <v>IB</v>
+      </c>
+      <c r="AH138" t="str">
+        <v>ECONOMY</v>
+      </c>
+      <c r="AI138" t="str">
+        <v>$595</v>
+      </c>
+      <c r="AJ138" t="str">
+        <v>PREMIUM</v>
+      </c>
+      <c r="AK138" t="str">
+        <v>$921</v>
+      </c>
+      <c r="AL138" t="str">
+        <v>Juan</v>
+      </c>
+      <c r="AM138" t="str">
+        <v>Perez</v>
+      </c>
+      <c r="AN138" t="str">
+        <v>15</v>
+      </c>
+      <c r="AO138" t="str">
+        <v>Afghanistan</v>
+      </c>
+      <c r="AP138" t="str">
+        <v>Female</v>
+      </c>
+      <c r="AQ138" t="str">
+        <v/>
+      </c>
+      <c r="BQ138" t="str">
+        <v>INBOUND</v>
+      </c>
+      <c r="BR138" t="str">
+        <v>Tue, Sep 9</v>
+      </c>
+      <c r="BS138" t="str">
+        <v>Economy</v>
+      </c>
+      <c r="BT138" t="str">
+        <v>Comfort</v>
+      </c>
+      <c r="BU138" t="str">
+        <v>Economy Comfort</v>
+      </c>
+      <c r="BV138" t="str">
+        <v>BCN</v>
+      </c>
+      <c r="BW138" t="str">
+        <v>Barcelona</v>
+      </c>
+      <c r="BX138" t="str">
+        <v>SCL</v>
+      </c>
+      <c r="BY138" t="str">
+        <v>Santiago</v>
+      </c>
+      <c r="BZ138" t="str">
+        <v>00:05</v>
+      </c>
+      <c r="CA138" t="str">
+        <v>09:40</v>
+      </c>
+      <c r="CB138" t="str">
+        <v>14h 35m</v>
+      </c>
+      <c r="CC138" t="str">
+        <v>IB</v>
+      </c>
+      <c r="CD138" t="str">
+        <v>ECONOMY</v>
+      </c>
+      <c r="CE138" t="str">
+        <v>$472</v>
+      </c>
+      <c r="CF138" t="str">
+        <v>PREMIUM</v>
+      </c>
+      <c r="CG138" t="str">
+        <v>$627</v>
+      </c>
+    </row>
+    <row r="139">
+      <c r="A139" t="str">
+        <v>MK856</v>
+      </c>
+      <c r="B139" t="str">
+        <v>10/3/2025, 12:09:51</v>
+      </c>
+      <c r="C139" t="str">
+        <v>SCL</v>
+      </c>
+      <c r="D139" t="str">
+        <v>BCN</v>
+      </c>
+      <c r="E139" t="str">
+        <v>Round Trip</v>
+      </c>
+      <c r="F139" t="str">
+        <v>Premium</v>
+      </c>
+      <c r="G139" t="str">
+        <v>Comfort</v>
+      </c>
+      <c r="H139" t="str">
+        <v>Economy</v>
+      </c>
+      <c r="I139" t="str">
+        <v>Extra</v>
+      </c>
+      <c r="J139">
+        <v>1</v>
+      </c>
+      <c r="K139">
+        <v>0</v>
+      </c>
+      <c r="L139">
+        <v>0</v>
+      </c>
+      <c r="M139" t="str">
+        <v>EN</v>
+      </c>
+      <c r="N139" t="str">
+        <v>Juan</v>
+      </c>
+      <c r="O139" t="str">
+        <v>Perez</v>
+      </c>
+      <c r="P139" t="str">
+        <v>sofiainkoova@gmail.com</v>
+      </c>
+      <c r="Q139" t="str">
+        <v>+93 791234567</v>
+      </c>
+      <c r="R139" t="str">
+        <v>4111 1111 1111 1111</v>
+      </c>
+      <c r="S139" t="str">
+        <v>Test User</v>
+      </c>
+      <c r="T139" t="str">
+        <v>OUTBOUND</v>
+      </c>
+      <c r="U139" t="str">
+        <v>Sat, Aug 30</v>
+      </c>
+      <c r="V139" t="str">
+        <v>Premium</v>
+      </c>
+      <c r="W139" t="str">
+        <v>Comfort</v>
+      </c>
+      <c r="X139" t="str">
+        <v>Premium Comfort</v>
+      </c>
+      <c r="Y139" t="str">
+        <v>SCL</v>
+      </c>
+      <c r="Z139" t="str">
+        <v>Santiago</v>
+      </c>
+      <c r="AA139" t="str">
+        <v>BCN</v>
+      </c>
+      <c r="AB139" t="str">
+        <v>Barcelona</v>
+      </c>
+      <c r="AC139" t="str">
+        <v>10:25</v>
+      </c>
+      <c r="AD139" t="str">
+        <v>06:10</v>
+      </c>
+      <c r="AE139" t="str">
+        <v>13h 45m</v>
+      </c>
+      <c r="AF139" t="str">
+        <v>Yes</v>
+      </c>
+      <c r="AG139" t="str">
+        <v>IB</v>
+      </c>
+      <c r="AH139" t="str">
+        <v>ECONOMY</v>
+      </c>
+      <c r="AI139" t="str">
+        <v>$645</v>
+      </c>
+      <c r="AJ139" t="str">
+        <v>PREMIUM</v>
+      </c>
+      <c r="AK139" t="str">
+        <v>$1,221</v>
+      </c>
+      <c r="AL139" t="str">
+        <v>Juan</v>
+      </c>
+      <c r="AM139" t="str">
+        <v>Perez</v>
+      </c>
+      <c r="AN139" t="str">
+        <v>15</v>
+      </c>
+      <c r="AO139" t="str">
+        <v>Afghanistan</v>
+      </c>
+      <c r="AP139" t="str">
+        <v>Female</v>
+      </c>
+      <c r="AQ139" t="str">
+        <v/>
+      </c>
+      <c r="BQ139" t="str">
+        <v>INBOUND</v>
+      </c>
+      <c r="BR139" t="str">
+        <v>Tue, Sep 2</v>
+      </c>
+      <c r="BS139" t="str">
+        <v>Economy</v>
+      </c>
+      <c r="BT139" t="str">
+        <v>Extra</v>
+      </c>
+      <c r="BU139" t="str">
+        <v>Economy Extra</v>
+      </c>
+      <c r="BV139" t="str">
+        <v>BCN</v>
+      </c>
+      <c r="BW139" t="str">
+        <v>Barcelona</v>
+      </c>
+      <c r="BX139" t="str">
+        <v>SCL</v>
+      </c>
+      <c r="BY139" t="str">
+        <v>Santiago</v>
+      </c>
+      <c r="BZ139" t="str">
+        <v>00:05</v>
+      </c>
+      <c r="CA139" t="str">
+        <v>08:40</v>
+      </c>
+      <c r="CB139" t="str">
+        <v>14h 35m</v>
+      </c>
+      <c r="CC139" t="str">
+        <v>IB</v>
+      </c>
+      <c r="CD139" t="str">
+        <v>ECONOMY</v>
+      </c>
+      <c r="CE139" t="str">
+        <v>$502</v>
+      </c>
+      <c r="CF139" t="str">
+        <v>PREMIUM</v>
+      </c>
+      <c r="CG139" t="str">
+        <v>$627</v>
+      </c>
+    </row>
+    <row r="140">
+      <c r="A140" t="str">
+        <v>MK85D</v>
+      </c>
+      <c r="B140" t="str">
+        <v>10/3/2025, 12:11:02</v>
+      </c>
+      <c r="C140" t="str">
+        <v>SCL</v>
+      </c>
+      <c r="D140" t="str">
+        <v>BCN</v>
+      </c>
+      <c r="E140" t="str">
+        <v>Round Trip</v>
+      </c>
+      <c r="F140" t="str">
+        <v>Premium</v>
+      </c>
+      <c r="G140" t="str">
+        <v>Extra</v>
+      </c>
+      <c r="H140" t="str">
+        <v>Economy</v>
+      </c>
+      <c r="I140" t="str">
+        <v>Light</v>
+      </c>
+      <c r="J140">
+        <v>1</v>
+      </c>
+      <c r="K140">
+        <v>0</v>
+      </c>
+      <c r="L140">
+        <v>0</v>
+      </c>
+      <c r="M140" t="str">
+        <v>EN</v>
+      </c>
+      <c r="N140" t="str">
+        <v>Juan</v>
+      </c>
+      <c r="O140" t="str">
+        <v>Perez</v>
+      </c>
+      <c r="P140" t="str">
+        <v>sofiainkoova@gmail.com</v>
+      </c>
+      <c r="Q140" t="str">
+        <v>+93 791234567</v>
+      </c>
+      <c r="R140" t="str">
+        <v>4444 3333 2222 1111</v>
+      </c>
+      <c r="S140" t="str">
+        <v>Test Corporate</v>
+      </c>
+      <c r="T140" t="str">
+        <v>OUTBOUND</v>
+      </c>
+      <c r="U140" t="str">
+        <v>Sat, Aug 2</v>
+      </c>
+      <c r="V140" t="str">
+        <v>Premium</v>
+      </c>
+      <c r="W140" t="str">
+        <v>Extra</v>
+      </c>
+      <c r="X140" t="str">
+        <v>Premium Extra</v>
+      </c>
+      <c r="Y140" t="str">
+        <v>SCL</v>
+      </c>
+      <c r="Z140" t="str">
+        <v>Santiago</v>
+      </c>
+      <c r="AA140" t="str">
+        <v>BCN</v>
+      </c>
+      <c r="AB140" t="str">
+        <v>Barcelona</v>
+      </c>
+      <c r="AC140" t="str">
+        <v>10:25</v>
+      </c>
+      <c r="AD140" t="str">
+        <v>06:10</v>
+      </c>
+      <c r="AE140" t="str">
+        <v>13h 45m</v>
+      </c>
+      <c r="AF140" t="str">
+        <v>Yes</v>
+      </c>
+      <c r="AG140" t="str">
+        <v>IB</v>
+      </c>
+      <c r="AH140" t="str">
+        <v>ECONOMY</v>
+      </c>
+      <c r="AI140" t="str">
+        <v>$475</v>
+      </c>
+      <c r="AJ140" t="str">
+        <v>PREMIUM</v>
+      </c>
+      <c r="AK140" t="str">
+        <v>$630</v>
+      </c>
+      <c r="AL140" t="str">
+        <v>Juan</v>
+      </c>
+      <c r="AM140" t="str">
+        <v>Perez</v>
+      </c>
+      <c r="AN140" t="str">
+        <v>15</v>
+      </c>
+      <c r="AO140" t="str">
+        <v>Afghanistan</v>
+      </c>
+      <c r="AP140" t="str">
+        <v>Female</v>
+      </c>
+      <c r="AQ140" t="str">
+        <v/>
+      </c>
+      <c r="BQ140" t="str">
+        <v>INBOUND</v>
+      </c>
+      <c r="BR140" t="str">
+        <v>Tue, Aug 5</v>
+      </c>
+      <c r="BS140" t="str">
+        <v>Economy</v>
+      </c>
+      <c r="BT140" t="str">
+        <v>Light</v>
+      </c>
+      <c r="BU140" t="str">
+        <v>Economy Light</v>
+      </c>
+      <c r="BV140" t="str">
+        <v>BCN</v>
+      </c>
+      <c r="BW140" t="str">
+        <v>Barcelona</v>
+      </c>
+      <c r="BX140" t="str">
+        <v>SCL</v>
+      </c>
+      <c r="BY140" t="str">
+        <v>Santiago</v>
+      </c>
+      <c r="BZ140" t="str">
+        <v>00:05</v>
+      </c>
+      <c r="CA140" t="str">
+        <v>08:40</v>
+      </c>
+      <c r="CB140" t="str">
+        <v>14h 35m</v>
+      </c>
+      <c r="CC140" t="str">
+        <v>IB</v>
+      </c>
+      <c r="CD140" t="str">
+        <v>ECONOMY</v>
+      </c>
+      <c r="CE140" t="str">
+        <v>$592</v>
+      </c>
+      <c r="CF140" t="str">
+        <v>PREMIUM</v>
+      </c>
+      <c r="CG140" t="str">
+        <v>$1,218</v>
+      </c>
+    </row>
+    <row r="141">
+      <c r="A141" t="str">
+        <v>MK85G</v>
+      </c>
+      <c r="B141" t="str">
+        <v>10/3/2025, 12:12:29</v>
+      </c>
+      <c r="C141" t="str">
+        <v>SCL</v>
+      </c>
+      <c r="D141" t="str">
+        <v>BCN</v>
+      </c>
+      <c r="E141" t="str">
+        <v>One Way</v>
+      </c>
+      <c r="F141" t="str">
+        <v>Economy</v>
+      </c>
+      <c r="G141" t="str">
+        <v>Light</v>
+      </c>
+      <c r="H141" t="str">
+        <v>Economy</v>
+      </c>
+      <c r="I141" t="str">
+        <v>Light</v>
+      </c>
+      <c r="J141">
+        <v>1</v>
+      </c>
+      <c r="K141">
+        <v>0</v>
+      </c>
+      <c r="L141">
+        <v>0</v>
+      </c>
+      <c r="M141" t="str">
+        <v>EN</v>
+      </c>
+      <c r="N141" t="str">
+        <v>Juan</v>
+      </c>
+      <c r="O141" t="str">
+        <v>Perez</v>
+      </c>
+      <c r="P141" t="str">
+        <v>sofiainkoova@gmail.com</v>
+      </c>
+      <c r="Q141" t="str">
+        <v>+93 791234567</v>
+      </c>
+      <c r="R141" t="str">
+        <v>6445 6445 6445 6445</v>
+      </c>
+      <c r="S141" t="str">
+        <v>Test Discover GB</v>
+      </c>
+      <c r="T141" t="str">
+        <v>OUTBOUND</v>
+      </c>
+      <c r="U141" t="str">
+        <v>Tue, Jul 15</v>
+      </c>
+      <c r="V141" t="str">
+        <v>Economy</v>
+      </c>
+      <c r="W141" t="str">
+        <v>Light</v>
+      </c>
+      <c r="X141" t="str">
+        <v>Economy Light</v>
+      </c>
+      <c r="Y141" t="str">
+        <v>SCL</v>
+      </c>
+      <c r="Z141" t="str">
+        <v>Santiago</v>
+      </c>
+      <c r="AA141" t="str">
+        <v>BCN</v>
+      </c>
+      <c r="AB141" t="str">
+        <v>Barcelona</v>
+      </c>
+      <c r="AC141" t="str">
+        <v>10:25</v>
+      </c>
+      <c r="AD141" t="str">
+        <v>06:10</v>
+      </c>
+      <c r="AE141" t="str">
+        <v>13h 45m</v>
+      </c>
+      <c r="AF141" t="str">
+        <v>Yes</v>
+      </c>
+      <c r="AG141" t="str">
+        <v>IB</v>
+      </c>
+      <c r="AH141" t="str">
+        <v>ECONOMY</v>
+      </c>
+      <c r="AI141" t="str">
+        <v>$601</v>
+      </c>
+      <c r="AJ141" t="str">
+        <v>PREMIUM</v>
+      </c>
+      <c r="AK141" t="str">
+        <v>$751</v>
+      </c>
+      <c r="AL141" t="str">
+        <v>Juan</v>
+      </c>
+      <c r="AM141" t="str">
+        <v>Perez</v>
+      </c>
+      <c r="AN141" t="str">
+        <v>15</v>
+      </c>
+      <c r="AO141" t="str">
+        <v>Afghanistan</v>
+      </c>
+      <c r="AP141" t="str">
+        <v>Female</v>
+      </c>
+      <c r="AQ141" t="str">
+        <v/>
+      </c>
+    </row>
   </sheetData>
   <ignoredErrors>
-    <ignoredError numberStoredAsText="1" sqref="A1:CG82"/>
+    <ignoredError numberStoredAsText="1" sqref="A1:CG141"/>
   </ignoredErrors>
 </worksheet>
 </file>